--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Uni\Project Server &amp; Clients\Codebase\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saxion-my.sharepoint.com/personal/498265_student_saxion_nl/Documents/Project Server&amp;Clients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CDDE88-FB40-4E4A-AE4B-0D43A2A5DCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="688" documentId="8_{7E8D3068-F9F2-47DF-8FDC-A479635FE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A34A56-E53E-4A15-9086-2062D6A8D51F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="119">
   <si>
     <t>Invulinstructie</t>
   </si>
@@ -243,7 +243,7 @@
     <t>Meeting with team members/Scrum stand up</t>
   </si>
   <si>
-    <t>Pitch with the team and understanding/reading the course manual</t>
+    <t>Pitch with the team and understanding/reading the course manual/Learining new materials</t>
   </si>
   <si>
     <t>Wrting user stories</t>
@@ -253,6 +253,153 @@
   </si>
   <si>
     <t>Communication methods/Plan</t>
+  </si>
+  <si>
+    <t>Team meeting for sprint planning</t>
+  </si>
+  <si>
+    <t>Group SCRUM meeting</t>
+  </si>
+  <si>
+    <t>US05-BI03</t>
+  </si>
+  <si>
+    <t>Helping team members</t>
+  </si>
+  <si>
+    <t>(HOLIDAY) Git management</t>
+  </si>
+  <si>
+    <t>(HOLIDAY) US04-BI01</t>
+  </si>
+  <si>
+    <t>US05-BI01</t>
+  </si>
+  <si>
+    <t>(HOLIDAY) US05-BI07</t>
+  </si>
+  <si>
+    <t>Intializing frontend project and creating base canvas component</t>
+  </si>
+  <si>
+    <t>fix tailwindcss</t>
+  </si>
+  <si>
+    <t>basic frontend permissions</t>
+  </si>
+  <si>
+    <t>adding style to canvas component (fighting with tailwind)</t>
+  </si>
+  <si>
+    <t>adding toolbox component</t>
+  </si>
+  <si>
+    <t>Studying websocket material for US03-BI04</t>
+  </si>
+  <si>
+    <t>Team meeting/Daily standup</t>
+  </si>
+  <si>
+    <t>(HOLIDAY)Task meeting</t>
+  </si>
+  <si>
+    <t>(HOLIDAY)US03 - BI04 - Canvas websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting </t>
+  </si>
+  <si>
+    <t>US05 - Bl0 (HOLIDAY)</t>
+  </si>
+  <si>
+    <t>Studying Socket.io for US05-BI0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with team member to get help </t>
+  </si>
+  <si>
+    <t>(HOLIDAY) US03 - BI04 - Canvas websocket</t>
+  </si>
+  <si>
+    <t>(HOLIDAY) Task meeting</t>
+  </si>
+  <si>
+    <t>Scrum Meeting</t>
+  </si>
+  <si>
+    <t>US05 - Bl04 - Create the backend for chat component</t>
+  </si>
+  <si>
+    <t>US05 - BI02 (HOLIDAY)</t>
+  </si>
+  <si>
+    <t>Learning socket.io</t>
+  </si>
+  <si>
+    <t>Git Management</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>US04-BI08</t>
+  </si>
+  <si>
+    <t>US05-BI02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SCRUM meeting</t>
+  </si>
+  <si>
+    <t>Work on diagrams</t>
+  </si>
+  <si>
+    <t>US04-BI03</t>
+  </si>
+  <si>
+    <t>US04-BI02</t>
+  </si>
+  <si>
+    <t>Fixing webpage layout for demo</t>
+  </si>
+  <si>
+    <t>Scrum meeting</t>
+  </si>
+  <si>
+    <t>Helping resolve issues brought up during standup (US03-BI04 &amp; US03-BI03)</t>
+  </si>
+  <si>
+    <t>US03-BI02 (restricting canvas to the correct user) &amp; US03-BI05 (saving canvas history)</t>
+  </si>
+  <si>
+    <t>US03-BI05 (saving canvas history)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting </t>
+  </si>
+  <si>
+    <t>fixing toolbox fast colour picking</t>
+  </si>
+  <si>
+    <t>Fixing US03-BI04</t>
+  </si>
+  <si>
+    <t>US04-BI07</t>
+  </si>
+  <si>
+    <t>Diagrams</t>
+  </si>
+  <si>
+    <t>US05 - BI06</t>
+  </si>
+  <si>
+    <t>US05 - BI02</t>
+  </si>
+  <si>
+    <t>US04 - BI05</t>
   </si>
 </sst>
 </file>
@@ -717,6 +864,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,12 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,10 +997,10 @@
                   <c:v>21.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -936,10 +1083,10 @@
                   <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1022,10 +1169,10 @@
                   <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1108,10 +1255,10 @@
                   <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1194,10 +1341,10 @@
                   <c:v>12.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1283,7 +1430,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1366,10 +1513,10 @@
                   <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1452,10 +1599,10 @@
                   <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1535,13 +1682,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1626,7 +1773,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1715,10 +1862,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2267,28 +2414,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>932.29</c:v>
+                  <c:v>930.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>932.29</c:v>
+                  <c:v>842.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>932.29</c:v>
+                  <c:v>782.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,7 +3653,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
@@ -3816,32 +3963,32 @@
         <f>Totaal!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3991,16 +4138,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -4140,16 +4287,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4289,16 +4436,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4438,16 +4585,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4589,16 +4736,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4740,16 +4887,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4891,16 +5038,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -5042,16 +5189,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -5193,16 +5340,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5344,16 +5491,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B93" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -5495,16 +5642,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B102" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -5646,16 +5793,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -5797,16 +5944,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B120" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -5945,21 +6092,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5971,7 +6118,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,7 +6126,7 @@
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="13" width="11.42578125" customWidth="1"/>
     <col min="257" max="257" width="43.85546875" customWidth="1"/>
     <col min="258" max="263" width="6.140625" customWidth="1"/>
@@ -6223,12 +6370,12 @@
         <v>21.21</v>
       </c>
       <c r="F2" s="3">
-        <f>'Week (2)'!$H$10</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$11</f>
+        <v>12.91</v>
       </c>
       <c r="G2" s="3">
         <f>'Week (3)'!$H$10</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="H2" s="3">
         <f>'Week (4)'!$H$10</f>
@@ -6252,7 +6399,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>21.21</v>
+        <v>47.620000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6266,12 +6413,12 @@
         <v>20.100000000000001</v>
       </c>
       <c r="F3" s="3">
-        <f>'Week (2)'!$H$19</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$20</f>
+        <v>12.75</v>
       </c>
       <c r="G3" s="3">
-        <f>'Week (3)'!$H$19</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$21</f>
+        <v>11.5</v>
       </c>
       <c r="H3" s="3">
         <f>'Week (4)'!$H$19</f>
@@ -6295,7 +6442,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>20.100000000000001</v>
+        <v>44.35</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6313,12 +6460,12 @@
         <v>11.8</v>
       </c>
       <c r="F4" s="3">
-        <f>'Week (2)'!$H$28</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$29</f>
+        <v>5.75</v>
       </c>
       <c r="G4" s="3">
-        <f>'Week (3)'!$H$28</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$30</f>
+        <v>5.3</v>
       </c>
       <c r="H4" s="3">
         <f>'Week (4)'!$H$28</f>
@@ -6342,7 +6489,7 @@
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>11.8</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -6356,12 +6503,12 @@
         <v>14.3</v>
       </c>
       <c r="F5" s="3">
-        <f>'Week (2)'!$H$37</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$38</f>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
-        <f>'Week (3)'!$H$37</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$39</f>
+        <v>1.25</v>
       </c>
       <c r="H5" s="3">
         <f>'Week (4)'!$H$37</f>
@@ -6385,7 +6532,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,12 +6546,12 @@
         <v>12.350000000000001</v>
       </c>
       <c r="F6" s="3">
-        <f>'Week (2)'!$H$46</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$47</f>
+        <v>14</v>
       </c>
       <c r="G6" s="3">
-        <f>'Week (3)'!$H$46</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$48</f>
+        <v>7.6</v>
       </c>
       <c r="H6" s="3">
         <f>'Week (4)'!$H$46</f>
@@ -6428,7 +6575,7 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6" si="1">SUM(E6:L6)</f>
-        <v>12.350000000000001</v>
+        <v>33.950000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,12 +6589,12 @@
         <v>5.35</v>
       </c>
       <c r="F7" s="3">
-        <f>'Week (2)'!$H$55</f>
+        <f>'Week (2)'!$H$56</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>'Week (3)'!$H$55</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$57</f>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <f>'Week (4)'!$H$55</f>
@@ -6471,7 +6618,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M15" si="2">SUM(E7:L7)</f>
-        <v>5.35</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6485,12 +6632,12 @@
         <v>11.45</v>
       </c>
       <c r="F8" s="3">
-        <f>'Week (2)'!$H$64</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$65</f>
+        <v>6.5</v>
       </c>
       <c r="G8" s="3">
-        <f>'Week (3)'!$H$64</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$66</f>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <f>'Week (4)'!$H$64</f>
@@ -6514,7 +6661,7 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>11.45</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6528,12 +6675,12 @@
         <v>7.8</v>
       </c>
       <c r="F9" s="3">
-        <f>'Week (2)'!$H$73</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$74</f>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <f>'Week (3)'!$H$73</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$75</f>
+        <v>7.6</v>
       </c>
       <c r="H9" s="3">
         <f>'Week (4)'!$H$73</f>
@@ -6557,7 +6704,7 @@
       </c>
       <c r="M9" s="4">
         <f t="shared" si="2"/>
-        <v>7.8</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,15 +6715,15 @@
       </c>
       <c r="E10" s="3">
         <f>'Week (1)'!$H$94</f>
-        <v>11.35</v>
+        <v>13.35</v>
       </c>
       <c r="F10" s="3">
-        <f>'Week (2)'!$H$82</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$83</f>
+        <v>7.75</v>
       </c>
       <c r="G10" s="3">
-        <f>'Week (3)'!$H$82</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$84</f>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <f>'Week (4)'!$H$82</f>
@@ -6600,7 +6747,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="2"/>
-        <v>11.35</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6614,11 +6761,11 @@
         <v>6</v>
       </c>
       <c r="F11" s="3">
-        <f>'Week (2)'!$H$91</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$92</f>
+        <v>2.5</v>
       </c>
       <c r="G11" s="3">
-        <f>'Week (3)'!$H$91</f>
+        <f>'Week (3)'!$H$93</f>
         <v>0</v>
       </c>
       <c r="H11" s="3">
@@ -6643,7 +6790,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6657,12 +6804,12 @@
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <f>'Week (2)'!$H$100</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$101</f>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <f>'Week (3)'!$H$100</f>
-        <v>0</v>
+        <f>'Week (3)'!$H$102</f>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
         <f>'Week (4)'!$H$100</f>
@@ -6686,7 +6833,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6698,11 +6845,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f>'Week (2)'!$H$109</f>
+        <f>'Week (2)'!$H$110</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f>'Week (3)'!$H$109</f>
+        <f>'Week (3)'!$H$111</f>
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -6739,11 +6886,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <f>'Week (2)'!$H$118</f>
+        <f>'Week (2)'!$H$119</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <f>'Week (3)'!$H$118</f>
+        <f>'Week (3)'!$H$120</f>
         <v>0</v>
       </c>
       <c r="H14" s="3">
@@ -6780,11 +6927,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f>'Week (2)'!$H$127</f>
+        <f>'Week (2)'!$H$128</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <f>'Week (3)'!$H$127</f>
+        <f>'Week (3)'!$H$129</f>
         <v>0</v>
       </c>
       <c r="H15" s="3">
@@ -6820,15 +6967,15 @@
       </c>
       <c r="E16" s="15">
         <f t="shared" ref="E16:L16" si="3">SUM(E2:E15)</f>
-        <v>123.70999999999998</v>
+        <v>125.70999999999998</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>88.16</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>59.75</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="3"/>
@@ -6859,12 +7006,12 @@
       </c>
       <c r="E17" s="20">
         <f>E16</f>
-        <v>123.70999999999998</v>
+        <v>125.70999999999998</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20">
         <f>SUM(F16:G16)</f>
-        <v>0</v>
+        <v>147.91</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20">
@@ -6886,35 +7033,35 @@
       </c>
       <c r="E18" s="18">
         <f>E19-E16</f>
-        <v>932.29</v>
+        <v>930.29</v>
       </c>
       <c r="F18" s="18">
         <f>E18-F16</f>
-        <v>932.29</v>
+        <v>842.13</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" ref="G18:L18" si="4">F18-G16</f>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="4"/>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="4"/>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="4"/>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="4"/>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
-        <v>932.29</v>
+        <v>782.38</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6985,7 +7132,7 @@
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7253,30 +7400,30 @@
         <f>Totaal!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -7483,16 +7630,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B14" s="40" t="str">
+      <c r="B14" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
@@ -7697,16 +7844,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B26" s="40" t="str">
+      <c r="B26" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
@@ -7878,16 +8025,16 @@
       <c r="A36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="40" t="str">
+      <c r="B36" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
@@ -8055,16 +8202,16 @@
       <c r="A46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="40" t="str">
+      <c r="B46" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="str">
@@ -8266,16 +8413,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -8434,16 +8581,16 @@
       <c r="A66" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -8645,16 +8792,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B77" s="40" t="str">
+      <c r="B77" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -8833,16 +8980,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B87" s="40" t="str">
+      <c r="B87" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="42"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="44"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="str">
@@ -8916,7 +9063,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>66</v>
       </c>
@@ -8929,10 +9076,12 @@
         <v>1.75</v>
       </c>
       <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="G91" s="10">
+        <v>2</v>
+      </c>
       <c r="H91" s="6">
         <f t="shared" si="25"/>
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -9000,11 +9149,11 @@
       </c>
       <c r="G94" s="11">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" s="11">
         <f>SUM(B94:G94)</f>
-        <v>11.35</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -9012,16 +9161,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B96" s="40" t="str">
+      <c r="B96" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="42"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="44"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="str">
@@ -9175,16 +9324,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B105" s="40" t="str">
+      <c r="B105" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="str">
@@ -9330,16 +9479,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B114" s="40" t="str">
+      <c r="B114" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="42"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="44"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="str">
@@ -9481,16 +9630,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B123" s="40" t="str">
+      <c r="B123" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="42"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="44"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="str">
@@ -9632,16 +9781,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B132" s="40" t="str">
+      <c r="B132" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="42"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="44"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="str">
@@ -9780,21 +9929,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B87:H87"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="B132:H132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9808,10 +9957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10079,32 +10228,32 @@
         <f>Totaal!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10141,8 +10290,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -10150,770 +10303,884 @@
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="5">
+        <v>1.25</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
+        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>1.25</v>
+      </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.25</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+        <v>1.1600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B11" s="11">
+        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+        <v>5.91</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(B10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="str">
+      <c r="H11" s="11">
+        <f>SUM(B11:G11)</f>
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B13" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B14" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C14" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D14" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E14" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G14" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H14" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6">
-        <f>SUM(B14:G14)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
-        <v>0</v>
+        <f>SUM(B15:G15)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="H16:H19" si="2">SUM(B16:G16)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B20" s="11">
+        <f t="shared" ref="B20:G20" si="3">SUM(B15:B19)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+      <c r="H20" s="11">
+        <f>SUM(B20:G20)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B22" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B23" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C23" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D23" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E23" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F23" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G23" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H23" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6">
-        <f>SUM(B23:G23)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
-        <v>0</v>
+        <f>SUM(B24:G24)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="H25:H28" si="4">SUM(B25:G25)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10">
+        <v>0.5</v>
+      </c>
       <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B28" s="11">
-        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B29" s="11">
+        <f t="shared" ref="B29:G29" si="5">SUM(B24:B28)</f>
+        <v>3</v>
+      </c>
+      <c r="C29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="G29" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(B28:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="11">
+        <f>SUM(B29:G29)</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B31" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B32" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C32" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D32" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E32" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F32" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G32" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H32" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6">
-        <f>SUM(B32:G32)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10">
+        <v>3</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
-        <v>0</v>
+        <f>SUM(B33:G33)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="H34:H37" si="6">SUM(B34:G34)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10">
+        <v>2.5</v>
+      </c>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B38" s="11">
+        <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="F38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <f>SUM(B37:G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="H38" s="11">
+        <f>SUM(B38:G38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B40" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B41" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C40" s="8" t="str">
-        <f t="shared" ref="C40:H40" si="8">C$4</f>
+      <c r="C41" s="8" t="str">
+        <f t="shared" ref="C41:H41" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6">
-        <f>SUM(B41:G41)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
-        <v>0</v>
+        <f>SUM(B42:G42)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10">
+        <v>1.5</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="H43:H46" si="9">SUM(B43:G43)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="35" t="s">
+        <v>84</v>
+      </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
+        <v>2</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B47" s="11">
+        <f t="shared" ref="B47:G47" si="10">SUM(B42:B46)</f>
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
+        <v>4.25</v>
+      </c>
+      <c r="E47" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="G47" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <f>SUM(B46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="11">
+        <f>SUM(B47:G47)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B49" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="str">
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B50" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C49" s="8" t="str">
-        <f t="shared" ref="C49:H49" si="11">C$4</f>
+      <c r="C50" s="8" t="str">
+        <f t="shared" ref="C50:H50" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E49" s="8" t="str">
+      <c r="E50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G49" s="8" t="str">
+      <c r="G50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H49" s="8" t="str">
+      <c r="H50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="6">
-        <f>SUM(B50:G50)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -10921,7 +11188,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="6">
-        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
+        <f>SUM(B51:G51)</f>
         <v>0</v>
       </c>
     </row>
@@ -10934,7 +11201,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H52:H55" si="12">SUM(B52:G52)</f>
         <v>0</v>
       </c>
     </row>
@@ -10965,279 +11232,311 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B55" s="11">
-        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B56" s="11">
+        <f t="shared" ref="B56:G56" si="13">SUM(B51:B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <f>SUM(B55:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="str">
+      <c r="H56" s="11">
+        <f>SUM(B56:G56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B58" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="str">
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B59" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58:H58" si="14">C$4</f>
+      <c r="C59" s="8" t="str">
+        <f t="shared" ref="C59:H59" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D59" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E59" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F59" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G59" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H59" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="6">
-        <f>SUM(B59:G59)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
-        <v>0</v>
+        <f>SUM(B60:G60)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="H61:H64" si="15">SUM(B61:G61)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="10">
+        <v>2</v>
+      </c>
       <c r="H62" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="C63" s="10">
+        <v>2</v>
+      </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A64" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B64" s="11">
-        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B65" s="11">
+        <f t="shared" ref="B65:G65" si="16">SUM(B60:B64)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="11">
+        <v>2</v>
+      </c>
+      <c r="D65" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <f>SUM(B64:G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H65" s="11">
+        <f>SUM(B65:G65)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B67" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="str">
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B68" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:H67" si="17">C$4</f>
+      <c r="C68" s="8" t="str">
+        <f t="shared" ref="C68:H68" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D67" s="8" t="str">
+      <c r="D68" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E68" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F67" s="8" t="str">
+      <c r="F68" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G67" s="8" t="str">
+      <c r="G68" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H68" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="6">
-        <f>SUM(B68:G68)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="A69" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>3.5</v>
+      </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="F69" s="10">
+        <v>2</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
-        <v>0</v>
+        <f>SUM(B69:G69)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="H70:H73" si="18">SUM(B70:G70)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -11267,141 +11566,155 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="B74" s="11">
+        <f t="shared" ref="B74:G74" si="19">SUM(B69:B73)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D74" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
+        <v>2</v>
+      </c>
+      <c r="G74" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <f>SUM(B73:G73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11">
+        <f>SUM(B74:G74)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B76" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="str">
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="44"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B77" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f t="shared" ref="C76:H76" si="20">C$4</f>
+      <c r="C77" s="8" t="str">
+        <f t="shared" ref="C77:H77" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D76" s="8" t="str">
+      <c r="D77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E76" s="8" t="str">
+      <c r="E77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F76" s="8" t="str">
+      <c r="F77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G76" s="8" t="str">
+      <c r="G77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H76" s="8" t="str">
+      <c r="H77" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6">
-        <f>SUM(B77:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
-        <v>0</v>
+        <f>SUM(B78:G78)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="10">
+        <v>1</v>
+      </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="F79" s="10">
+        <v>1.25</v>
+      </c>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="H79:H82" si="21">SUM(B79:G79)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="10">
+        <v>3</v>
+      </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
+      <c r="E80" s="10">
+        <v>2</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -11418,115 +11731,117 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B82" s="11">
-        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="B83" s="11">
+        <f t="shared" ref="B83:G83" si="22">SUM(B78:B82)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C83" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
+        <v>3</v>
+      </c>
+      <c r="D83" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
+        <v>2</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="G83" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <f>SUM(B82:G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="str">
+      <c r="H83" s="11">
+        <f>SUM(B83:G83)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B85" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="str">
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="44"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B86" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" ref="C85:H85" si="23">C$4</f>
+      <c r="C86" s="8" t="str">
+        <f t="shared" ref="C86:H86" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D85" s="8" t="str">
+      <c r="D86" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E86" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F85" s="8" t="str">
+      <c r="F86" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G85" s="8" t="str">
+      <c r="G86" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H85" s="8" t="str">
+      <c r="H86" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="6">
-        <f>SUM(B86:G86)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="10">
+        <v>1</v>
+      </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
-        <v>0</v>
+        <f>SUM(B87:G87)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -11538,7 +11853,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H88:H91" si="24">SUM(B88:G88)</f>
         <v>0</v>
       </c>
     </row>
@@ -11556,119 +11871,123 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
+      <c r="A90" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="F90" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B91" s="11">
-        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="B92" s="11">
+        <f t="shared" ref="B92:G92" si="25">SUM(B87:B91)</f>
+        <v>1</v>
+      </c>
+      <c r="C92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="11">
-        <f>SUM(B91:G91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="str">
+      <c r="H92" s="11">
+        <f>SUM(B92:G92)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B94" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="str">
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="44"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B95" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C94" s="8" t="str">
-        <f t="shared" ref="C94:H94" si="26">C$4</f>
+      <c r="C95" s="8" t="str">
+        <f t="shared" ref="C95:H95" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E94" s="8" t="str">
+      <c r="E95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F94" s="8" t="str">
+      <c r="F95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G94" s="8" t="str">
+      <c r="G95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H94" s="8" t="str">
+      <c r="H95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="6">
-        <f>SUM(B95:G95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -11676,34 +11995,42 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="6">
-        <f t="shared" ref="H96:H99" si="27">SUM(B96:G96)</f>
+        <f>SUM(B96:G96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
+      <c r="A97" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="G97" s="10">
+        <v>4</v>
+      </c>
       <c r="H97" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="H97:H100" si="27">SUM(B97:G97)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
+      <c r="A98" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="10">
+        <v>2</v>
+      </c>
       <c r="H98" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -11720,106 +12047,106 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B100" s="11">
-        <f t="shared" ref="B100:G100" si="28">SUM(B95:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="11">
+      <c r="B101" s="11">
+        <f t="shared" ref="B101:G101" si="28">SUM(B96:B100)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G101" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="11">
-        <f>SUM(B100:G100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
+        <v>6</v>
+      </c>
+      <c r="H101" s="11">
+        <f>SUM(B101:G101)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B103" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="str">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="44"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B103" s="8" t="str">
+      <c r="B104" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C103" s="8" t="str">
-        <f t="shared" ref="C103:H103" si="29">C$4</f>
+      <c r="C104" s="8" t="str">
+        <f t="shared" ref="C104:H104" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D103" s="8" t="str">
+      <c r="D104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E103" s="8" t="str">
+      <c r="E104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F103" s="8" t="str">
+      <c r="F104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G103" s="8" t="str">
+      <c r="G104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H103" s="8" t="str">
+      <c r="H104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="6">
-        <f>SUM(B104:G104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -11827,7 +12154,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="6">
-        <f t="shared" ref="H105:H108" si="30">SUM(B105:G105)</f>
+        <f>SUM(B105:G105)</f>
         <v>0</v>
       </c>
     </row>
@@ -11840,7 +12167,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H106:H109" si="30">SUM(B106:G106)</f>
         <v>0</v>
       </c>
     </row>
@@ -11871,106 +12198,106 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B109" s="11">
-        <f t="shared" ref="B109:G109" si="31">SUM(B104:B108)</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="11">
+      <c r="B110" s="11">
+        <f t="shared" ref="B110:G110" si="31">SUM(B105:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H109" s="11">
-        <f>SUM(B109:G109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="12">
+      <c r="H110" s="11">
+        <f>SUM(B110:G110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B112" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="str">
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="44"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B112" s="8" t="str">
+      <c r="B113" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C112" s="8" t="str">
-        <f t="shared" ref="C112:H112" si="32">C$4</f>
+      <c r="C113" s="8" t="str">
+        <f t="shared" ref="C113:H113" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D112" s="8" t="str">
+      <c r="D113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E112" s="8" t="str">
+      <c r="E113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F112" s="8" t="str">
+      <c r="F113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G112" s="8" t="str">
+      <c r="G113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H112" s="8" t="str">
+      <c r="H113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="6">
-        <f>SUM(B113:G113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -11978,7 +12305,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="6">
-        <f t="shared" ref="H114:H117" si="33">SUM(B114:G114)</f>
+        <f>SUM(B114:G114)</f>
         <v>0</v>
       </c>
     </row>
@@ -11991,7 +12318,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H115:H118" si="33">SUM(B115:G115)</f>
         <v>0</v>
       </c>
     </row>
@@ -12022,106 +12349,106 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B118" s="11">
-        <f t="shared" ref="B118:G118" si="34">SUM(B113:B117)</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
+      <c r="B119" s="11">
+        <f t="shared" ref="B119:G119" si="34">SUM(B114:B118)</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H118" s="11">
-        <f>SUM(B118:G118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="H119" s="11">
+        <f>SUM(B119:G119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B121" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="str">
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="44"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B121" s="8" t="str">
+      <c r="B122" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C121" s="8" t="str">
-        <f t="shared" ref="C121:H121" si="35">C$4</f>
+      <c r="C122" s="8" t="str">
+        <f t="shared" ref="C122:H122" si="35">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D121" s="8" t="str">
+      <c r="D122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Wo</v>
       </c>
-      <c r="E121" s="8" t="str">
+      <c r="E122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Do</v>
       </c>
-      <c r="F121" s="8" t="str">
+      <c r="F122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Vr</v>
       </c>
-      <c r="G121" s="8" t="str">
+      <c r="G122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H121" s="8" t="str">
+      <c r="H122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="6">
-        <f>SUM(B122:G122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -12129,7 +12456,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H126" si="36">SUM(B123:G123)</f>
+        <f>SUM(B123:G123)</f>
         <v>0</v>
       </c>
     </row>
@@ -12142,7 +12469,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H124:H127" si="36">SUM(B124:G124)</f>
         <v>0</v>
       </c>
     </row>
@@ -12173,56 +12500,69 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B127" s="11">
-        <f t="shared" ref="B127:G127" si="37">SUM(B122:B126)</f>
-        <v>0</v>
-      </c>
-      <c r="C127" s="11">
+      <c r="B128" s="11">
+        <f t="shared" ref="B128:G128" si="37">SUM(B123:B127)</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H127" s="11">
-        <f>SUM(B127:G127)</f>
+      <c r="H128" s="11">
+        <f>SUM(B128:G128)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B76:H76"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12231,10 +12571,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12497,39 +12837,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Totaal!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12563,72 +12903,104 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.5</v>
+      </c>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10">
+        <v>0.25</v>
+      </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>1.5</v>
+      </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -12639,30 +13011,30 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12671,24 +13043,27 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="L11" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12722,22 +13097,32 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="6">
         <f>SUM(B14:G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -12745,336 +13130,384 @@
       <c r="G15" s="10"/>
       <c r="H15" s="6">
         <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>1.75</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3.5</v>
+      </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6">
+        <f>SUM(B19:G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6">
+        <f>SUM(B20:G20)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B21" s="11">
+        <f t="shared" ref="B21:G21" si="3">SUM(B14:B20)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(B21:G21)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B23" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B24" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C24" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D24" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E24" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F24" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G24" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H24" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6">
-        <f>SUM(B23:G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="6">
-        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(B25:G25)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+        <f t="shared" ref="H26:H29" si="4">SUM(B26:G26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B28" s="11">
-        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:G30" si="5">SUM(B25:B29)</f>
+        <v>2.5</v>
+      </c>
+      <c r="C30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F30" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="11">
-        <f>SUM(B28:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
+      <c r="H30" s="11">
+        <f>SUM(B30:G30)</f>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B32" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B33" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C33" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D33" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E33" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F33" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G33" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H33" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6">
-        <f>SUM(B32:G32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="6">
-        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(B34:G34)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="H35:H38" si="6">SUM(B35:G35)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -13082,425 +13515,457 @@
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B39" s="11">
+        <f t="shared" ref="B39:G39" si="7">SUM(B34:B38)</f>
+        <v>1.25</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <f>SUM(B37:G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="str">
+      <c r="H39" s="11">
+        <f>SUM(B39:G39)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B41" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B42" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C40" s="8" t="str">
-        <f t="shared" ref="C40:H40" si="8">C$4</f>
+      <c r="C42" s="8" t="str">
+        <f t="shared" ref="C42:H42" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6">
-        <f>SUM(B41:G41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(B43:G43)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.25</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="H44:H47" si="9">SUM(B44:G44)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1.25</v>
+      </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
+      <c r="A46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="9"/>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B48" s="11">
+        <f>SUM(B43:B47)</f>
+        <v>2</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" ref="C48:G48" si="10">SUM(C43:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F48" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G48" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <f>SUM(B46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="H48" s="11">
+        <f>SUM(B48:G48)</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B50" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="str">
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B51" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C49" s="8" t="str">
-        <f t="shared" ref="C49:H49" si="11">C$4</f>
+      <c r="C51" s="8" t="str">
+        <f t="shared" ref="C51:H51" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E49" s="8" t="str">
+      <c r="E51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G49" s="8" t="str">
+      <c r="G51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H49" s="8" t="str">
+      <c r="H51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="6">
-        <f>SUM(B50:G50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="6">
-        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1.5</v>
+      </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(B52:G52)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="H53:H56" si="12">SUM(B53:G53)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B55" s="11">
-        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:G57" si="13">SUM(B52:B56)</f>
+        <v>2</v>
+      </c>
+      <c r="C57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <f>SUM(B55:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="str">
+      <c r="H57" s="11">
+        <f>SUM(B57:G57)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B59" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="str">
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B60" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58:H58" si="14">C$4</f>
+      <c r="C60" s="8" t="str">
+        <f t="shared" ref="C60:H60" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="6">
-        <f>SUM(B59:G59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="6">
-        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -13508,21 +13973,25 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="15"/>
+        <f>SUM(B61:G61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="H62:H65" si="15">SUM(B62:G62)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -13539,421 +14008,453 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B64" s="11">
-        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:G66" si="16">SUM(B61:B65)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="11">
-        <f>SUM(B64:G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="str">
+      <c r="H66" s="11">
+        <f>SUM(B66:G66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B68" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="str">
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B69" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:H67" si="17">C$4</f>
+      <c r="C69" s="8" t="str">
+        <f t="shared" ref="C69:H69" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D67" s="8" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F67" s="8" t="str">
+      <c r="F69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G67" s="8" t="str">
+      <c r="G69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="6">
-        <f>SUM(B68:G68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.5</v>
+      </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>SUM(B70:G70)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>SUM(B71:G71)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1.25</v>
+      </c>
       <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
+        <f>SUM(B72:G72)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" ref="H73:H74" si="18">SUM(B73:G73)</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="B75" s="11">
+        <f>SUM(B70:B74)</f>
+        <v>2</v>
+      </c>
+      <c r="C75" s="11">
+        <f t="shared" ref="C75:G75" si="19">SUM(C70:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="11">
+      <c r="F75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <f>SUM(B73:G73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="H75" s="11">
+        <f>SUM(B75:G75)</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B77" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="str">
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B78" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f t="shared" ref="C76:H76" si="20">C$4</f>
+      <c r="C78" s="8" t="str">
+        <f t="shared" ref="C78:H78" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D76" s="8" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E76" s="8" t="str">
+      <c r="E78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F76" s="8" t="str">
+      <c r="F78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G76" s="8" t="str">
+      <c r="G78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H76" s="8" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6">
-        <f>SUM(B77:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="6">
-        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>SUM(B79:G79)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="10">
+        <v>1</v>
+      </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="H80:H83" si="21">SUM(B80:G80)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="D81" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B82" s="11">
-        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="B84" s="11">
+        <f t="shared" ref="B84:G84" si="22">SUM(B79:B83)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <f>SUM(B82:G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="str">
+      <c r="H84" s="11">
+        <f>SUM(B84:G84)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B86" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="str">
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="44"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B87" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" ref="C85:H85" si="23">C$4</f>
+      <c r="C87" s="8" t="str">
+        <f t="shared" ref="C87:H87" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D85" s="8" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F85" s="8" t="str">
+      <c r="F87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G85" s="8" t="str">
+      <c r="G87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H85" s="8" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="6">
-        <f>SUM(B86:G86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="6">
-        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -13961,7 +14462,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="24"/>
+        <f>SUM(B88:G88)</f>
         <v>0</v>
       </c>
     </row>
@@ -13974,7 +14475,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H89:H92" si="24">SUM(B89:G89)</f>
         <v>0</v>
       </c>
     </row>
@@ -13992,119 +14493,119 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B91" s="11">
-        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="B93" s="11">
+        <f t="shared" ref="B93:G93" si="25">SUM(B88:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="11">
-        <f>SUM(B91:G91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="str">
+      <c r="H93" s="11">
+        <f>SUM(B93:G93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B95" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="str">
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="44"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B96" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C94" s="8" t="str">
-        <f t="shared" ref="C94:H94" si="26">C$4</f>
+      <c r="C96" s="8" t="str">
+        <f t="shared" ref="C96:H96" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E94" s="8" t="str">
+      <c r="E96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F94" s="8" t="str">
+      <c r="F96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G94" s="8" t="str">
+      <c r="G96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H94" s="8" t="str">
+      <c r="H96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="6">
-        <f>SUM(B95:G95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="6">
-        <f t="shared" ref="H96:H99" si="27">SUM(B96:G96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -14112,150 +14613,162 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="6">
-        <f t="shared" si="27"/>
+        <f>SUM(B97:G97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
+      <c r="A98" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="D98" s="10">
+        <v>2</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="H98:H101" si="27">SUM(B98:G98)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
+      <c r="A99" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
+      <c r="D99" s="10">
+        <v>2</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="str">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B100" s="11">
-        <f t="shared" ref="B100:G100" si="28">SUM(B95:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="11">
+      <c r="B102" s="11">
+        <f t="shared" ref="B102:G102" si="28">SUM(B97:B101)</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D102" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="11">
+        <v>4</v>
+      </c>
+      <c r="E102" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="11">
+        <v>2</v>
+      </c>
+      <c r="F102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H100" s="11">
-        <f>SUM(B100:G100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
+      <c r="H102" s="11">
+        <f>SUM(B102:G102)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B104" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="str">
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="44"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B103" s="8" t="str">
+      <c r="B105" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C103" s="8" t="str">
-        <f t="shared" ref="C103:H103" si="29">C$4</f>
+      <c r="C105" s="8" t="str">
+        <f t="shared" ref="C105:H105" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D103" s="8" t="str">
+      <c r="D105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E103" s="8" t="str">
+      <c r="E105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F103" s="8" t="str">
+      <c r="F105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G103" s="8" t="str">
+      <c r="G105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H103" s="8" t="str">
+      <c r="H105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="6">
-        <f>SUM(B104:G104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="6">
-        <f t="shared" ref="H105:H108" si="30">SUM(B105:G105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -14263,7 +14776,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="6">
-        <f t="shared" si="30"/>
+        <f>SUM(B106:G106)</f>
         <v>0</v>
       </c>
     </row>
@@ -14276,7 +14789,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H107:H110" si="30">SUM(B107:G107)</f>
         <v>0</v>
       </c>
     </row>
@@ -14294,119 +14807,119 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="str">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B109" s="11">
-        <f t="shared" ref="B109:G109" si="31">SUM(B104:B108)</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="11">
+      <c r="B111" s="11">
+        <f t="shared" ref="B111:G111" si="31">SUM(B106:B110)</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H109" s="11">
-        <f>SUM(B109:G109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="12">
+      <c r="H111" s="11">
+        <f>SUM(B111:G111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B113" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="str">
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="44"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B112" s="8" t="str">
+      <c r="B114" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C112" s="8" t="str">
-        <f t="shared" ref="C112:H112" si="32">C$4</f>
+      <c r="C114" s="8" t="str">
+        <f t="shared" ref="C114:H114" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D112" s="8" t="str">
+      <c r="D114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E112" s="8" t="str">
+      <c r="E114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F112" s="8" t="str">
+      <c r="F114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G112" s="8" t="str">
+      <c r="G114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H112" s="8" t="str">
+      <c r="H114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="6">
-        <f>SUM(B113:G113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="6">
-        <f t="shared" ref="H114:H117" si="33">SUM(B114:G114)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -14414,7 +14927,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="6">
-        <f t="shared" si="33"/>
+        <f>SUM(B115:G115)</f>
         <v>0</v>
       </c>
     </row>
@@ -14427,7 +14940,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H116:H119" si="33">SUM(B116:G116)</f>
         <v>0</v>
       </c>
     </row>
@@ -14445,119 +14958,119 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="21" t="str">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B118" s="11">
-        <f t="shared" ref="B118:G118" si="34">SUM(B113:B117)</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
+      <c r="B120" s="11">
+        <f t="shared" ref="B120:G120" si="34">SUM(B115:B119)</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H118" s="11">
-        <f>SUM(B118:G118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="H120" s="11">
+        <f>SUM(B120:G120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B122" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="str">
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="44"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B121" s="8" t="str">
+      <c r="B123" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C121" s="8" t="str">
-        <f t="shared" ref="C121:H121" si="35">C$4</f>
+      <c r="C123" s="8" t="str">
+        <f t="shared" ref="C123:H123" si="35">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D121" s="8" t="str">
+      <c r="D123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Wo</v>
       </c>
-      <c r="E121" s="8" t="str">
+      <c r="E123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Do</v>
       </c>
-      <c r="F121" s="8" t="str">
+      <c r="F123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Vr</v>
       </c>
-      <c r="G121" s="8" t="str">
+      <c r="G123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H121" s="8" t="str">
+      <c r="H123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="6">
-        <f>SUM(B122:G122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="6">
-        <f t="shared" ref="H123:H126" si="36">SUM(B123:G123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -14565,7 +15078,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="6">
-        <f t="shared" si="36"/>
+        <f>SUM(B124:G124)</f>
         <v>0</v>
       </c>
     </row>
@@ -14578,7 +15091,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H125:H128" si="36">SUM(B125:G125)</f>
         <v>0</v>
       </c>
     </row>
@@ -14596,56 +15109,82 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="21" t="str">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
-      <c r="B127" s="11">
-        <f t="shared" ref="B127:G127" si="37">SUM(B122:B126)</f>
-        <v>0</v>
-      </c>
-      <c r="C127" s="11">
+      <c r="B129" s="11">
+        <f t="shared" ref="B129:G129" si="37">SUM(B124:B128)</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H127" s="11">
-        <f>SUM(B127:G127)</f>
+      <c r="H129" s="11">
+        <f>SUM(B129:G129)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14925,32 +15464,32 @@
         <f>Totaal!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15100,16 +15639,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15249,16 +15788,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15398,16 +15937,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15547,16 +16086,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -15698,16 +16237,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -15849,16 +16388,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16000,16 +16539,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16151,16 +16690,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16302,16 +16841,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16453,16 +16992,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B93" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -16604,16 +17143,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B102" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -16755,16 +17294,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -16906,16 +17445,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B120" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -17054,21 +17593,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17348,31 +17887,31 @@
         <f>Totaal!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17522,16 +18061,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17671,16 +18210,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17820,16 +18359,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17969,16 +18508,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -18120,16 +18659,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18271,16 +18810,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18422,16 +18961,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18573,16 +19112,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18724,16 +19263,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18875,16 +19414,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B93" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -19026,16 +19565,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B102" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -19177,16 +19716,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -19328,16 +19867,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B120" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -19476,21 +20015,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19770,32 +20309,32 @@
         <f>Totaal!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -19945,16 +20484,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -20094,16 +20633,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -20243,16 +20782,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -20392,16 +20931,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -20540,16 +21079,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -20691,16 +21230,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -20842,16 +21381,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -20993,16 +21532,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -21144,16 +21683,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -21295,16 +21834,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B93" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -21446,16 +21985,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B102" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -21597,16 +22136,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -21748,16 +22287,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B120" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -21896,21 +22435,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22190,32 +22729,32 @@
         <f>Totaal!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -22365,16 +22904,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -22514,16 +23053,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -22663,16 +23202,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -22812,16 +23351,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -22963,16 +23502,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -23114,16 +23653,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -23265,16 +23804,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -23416,16 +23955,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -23567,16 +24106,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -23718,16 +24257,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="40" t="str">
+      <c r="B93" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -23869,16 +24408,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="40" t="str">
+      <c r="B102" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -24020,16 +24559,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="40" t="str">
+      <c r="B111" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="44"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -24171,16 +24710,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="40" t="str">
+      <c r="B120" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -24319,21 +24858,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24341,21 +24880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EA2F89DD3BEC845B6024554B0FABDF6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4468d2ef933284f01b30a92a546dec5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78" xmlns:ns4="87dba05e-45c5-4db0-9a65-d117fc15f65a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68f6dca78ff19fb315d63369b50fac1" ns3:_="" ns4:_="">
     <xsd:import namespace="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
@@ -24566,32 +25090,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F9465-B5E9-4048-A852-B37AD87D445F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24608,4 +25122,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25027"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saxion-my.sharepoint.com/personal/498265_student_saxion_nl/Documents/Project Server&amp;Clients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="8_{7E8D3068-F9F2-47DF-8FDC-A479635FE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A34A56-E53E-4A15-9086-2062D6A8D51F}"/>
+  <xr:revisionPtr revIDLastSave="727" documentId="8_{7E8D3068-F9F2-47DF-8FDC-A479635FE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC425F5-A3AE-4768-8AEC-E5054650683A}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" tabRatio="835" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="128">
   <si>
     <t>Invulinstructie</t>
   </si>
@@ -330,6 +330,9 @@
     <t>US05 - Bl04 - Create the backend for chat component</t>
   </si>
   <si>
+    <t xml:space="preserve">US03 BI06 Create the logic for the canvas </t>
+  </si>
+  <si>
     <t>US05 - BI02 (HOLIDAY)</t>
   </si>
   <si>
@@ -384,6 +387,12 @@
     <t>fixing toolbox fast colour picking</t>
   </si>
   <si>
+    <t xml:space="preserve">us03 bi05 research </t>
+  </si>
+  <si>
+    <t>presentation for publisher meeting</t>
+  </si>
+  <si>
     <t>Fixing US03-BI04</t>
   </si>
   <si>
@@ -393,7 +402,25 @@
     <t>Diagrams</t>
   </si>
   <si>
+    <t>Helping team members with documentation</t>
+  </si>
+  <si>
+    <t>Meeting with team members to get help</t>
+  </si>
+  <si>
+    <t>Reviewing implementation of chat system</t>
+  </si>
+  <si>
     <t>US05 - BI06</t>
+  </si>
+  <si>
+    <t>US05 - Bl08</t>
+  </si>
+  <si>
+    <t>description of diagrams</t>
+  </si>
+  <si>
+    <t>working on documentation</t>
   </si>
   <si>
     <t>US05 - BI02</t>
@@ -406,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +908,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,7 +931,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1258,7 +1285,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1513,10 +1540,10 @@
                   <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1688,7 +1715,7 @@
                   <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1773,10 +1800,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2278,7 +2305,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2417,25 +2444,25 @@
                   <c:v>930.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>842.13</c:v>
+                  <c:v>833.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>782.38</c:v>
+                  <c:v>754.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,34 +3680,34 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="27" customFormat="1" ht="26.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" s="26" customFormat="1" ht="21">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" s="26" customFormat="1" ht="21">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3698,7 +3725,7 @@
       <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -3958,7 +3985,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$L$1</f>
         <v>Week 8</v>
@@ -3974,7 +4001,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -3990,7 +4017,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4024,7 +4051,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4037,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4050,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4063,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4076,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4089,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -4123,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4133,7 +4160,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -4149,7 +4176,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4183,7 +4210,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4196,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4209,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4222,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4235,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4248,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -4282,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="23.25">
       <c r="A21" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -4298,7 +4325,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4332,7 +4359,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4345,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4358,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4371,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4384,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4397,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -4431,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="23.25">
       <c r="A30" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -4447,7 +4474,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4481,7 +4508,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4494,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4507,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4520,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4533,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4546,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -4580,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="23.25">
       <c r="A39" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -4596,7 +4623,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4630,7 +4657,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4658,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4671,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4684,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4697,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -4731,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="23.25">
       <c r="A48" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -4747,7 +4774,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4781,7 +4808,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -4796,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4809,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4822,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4835,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4848,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -4882,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -4898,7 +4925,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -4932,7 +4959,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -4947,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4960,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4973,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4986,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4999,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5033,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -5049,7 +5076,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5083,7 +5110,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -5098,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5111,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5124,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5137,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5150,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5184,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="23.25">
       <c r="A75" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -5200,7 +5227,7 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5234,7 +5261,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -5249,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5262,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5275,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5288,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5301,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5335,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="23.25">
       <c r="A84" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -5351,7 +5378,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5385,7 +5412,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
         <v>46</v>
       </c>
@@ -5400,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5413,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5426,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5439,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5452,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5486,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="23.25">
       <c r="A93" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -5502,7 +5529,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5536,7 +5563,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -5551,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -5564,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -5577,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -5590,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -5603,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5637,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="23.25">
       <c r="A102" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -5653,7 +5680,7 @@
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5687,7 +5714,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>46</v>
       </c>
@@ -5702,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5715,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5728,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5741,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5754,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5788,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="23.25">
       <c r="A111" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -5804,7 +5831,7 @@
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5838,7 +5865,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -5853,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5866,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5879,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5892,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5905,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -5939,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="23.25">
       <c r="A120" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -5955,7 +5982,7 @@
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -5989,7 +6016,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9" t="s">
         <v>46</v>
       </c>
@@ -6004,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -6017,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -6030,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6043,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -6056,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -6117,11 +6144,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -6319,7 +6346,7 @@
     <col min="16136" max="16136" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="33.75">
       <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
@@ -6355,7 +6382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
@@ -6402,7 +6429,7 @@
         <v>47.620000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="D3" s="16" t="s">
@@ -6445,7 +6472,7 @@
         <v>44.35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>21</v>
       </c>
@@ -6492,7 +6519,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="D5" s="16" t="s">
@@ -6508,7 +6535,7 @@
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$39</f>
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
         <f>'Week (4)'!$H$37</f>
@@ -6532,10 +6559,10 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>25.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="D6" s="16" t="s">
@@ -6578,7 +6605,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="D7" s="16" t="s">
@@ -6621,7 +6648,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="D8" s="16" t="s">
@@ -6633,11 +6660,11 @@
       </c>
       <c r="F8" s="3">
         <f>'Week (2)'!$H$65</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="G8" s="3">
         <f>'Week (3)'!$H$66</f>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H8" s="3">
         <f>'Week (4)'!$H$64</f>
@@ -6661,10 +6688,10 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="D9" s="16" t="s">
@@ -6707,7 +6734,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="D10" s="16" t="s">
@@ -6723,7 +6750,7 @@
       </c>
       <c r="G10" s="3">
         <f>'Week (3)'!$H$84</f>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H10" s="3">
         <f>'Week (4)'!$H$82</f>
@@ -6747,10 +6774,10 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="2"/>
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="D11" s="16" t="s">
@@ -6762,11 +6789,11 @@
       </c>
       <c r="F11" s="3">
         <f>'Week (2)'!$H$92</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G11" s="3">
         <f>'Week (3)'!$H$93</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H11" s="3">
         <f>'Week (4)'!$H$91</f>
@@ -6790,10 +6817,10 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="D12" s="16" t="s">
@@ -6836,7 +6863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="D13" s="16"/>
@@ -6877,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="D14" s="16"/>
@@ -6918,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="D15" s="16"/>
@@ -6959,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="D16" s="17" t="s">
@@ -6971,11 +6998,11 @@
       </c>
       <c r="F16" s="15">
         <f t="shared" si="3"/>
-        <v>88.16</v>
+        <v>97.16</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="3"/>
-        <v>59.75</v>
+        <v>79</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="3"/>
@@ -6998,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="D17" s="19" t="s">
@@ -7011,7 +7038,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20">
         <f>SUM(F16:G16)</f>
-        <v>147.91</v>
+        <v>176.16</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20">
@@ -7025,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="31"/>
       <c r="D18" s="14" t="s">
@@ -7037,34 +7064,34 @@
       </c>
       <c r="F18" s="18">
         <f>E18-F16</f>
-        <v>842.13</v>
+        <v>833.13</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" ref="G18:L18" si="4">F18-G16</f>
-        <v>782.38</v>
+        <v>754.13</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="4"/>
-        <v>782.38</v>
+        <v>754.13</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="4"/>
-        <v>782.38</v>
+        <v>754.13</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="4"/>
-        <v>782.38</v>
+        <v>754.13</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="4"/>
-        <v>782.38</v>
+        <v>754.13</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
-        <v>782.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>754.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
@@ -7131,11 +7158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -7395,7 +7422,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$E$1</f>
         <v>Week 1</v>
@@ -7410,7 +7437,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -7425,7 +7452,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -7452,7 +7479,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
@@ -7469,7 +7496,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
@@ -7488,7 +7515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
@@ -7509,7 +7536,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -7528,7 +7555,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
@@ -7545,7 +7572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
@@ -7564,7 +7591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
@@ -7581,7 +7608,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A12" s="21" t="str">
         <f>Totaal!$M$1</f>
         <v>Totaal</v>
@@ -7615,7 +7642,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7625,7 +7652,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="22.5" customHeight="1">
       <c r="A14" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -7641,7 +7668,7 @@
       <c r="G14" s="43"/>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -7675,7 +7702,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -7692,7 +7719,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
@@ -7711,7 +7738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
@@ -7732,7 +7759,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -7751,7 +7778,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -7770,7 +7797,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -7787,7 +7814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -7804,8 +7831,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1"/>
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A24" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -7839,7 +7866,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="22.5" customHeight="1">
       <c r="A26" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -7855,7 +7882,7 @@
       <c r="G26" s="43"/>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -7889,7 +7916,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
@@ -7906,7 +7933,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
@@ -7929,7 +7956,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
@@ -7948,7 +7975,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="9" t="s">
         <v>50</v>
       </c>
@@ -7965,7 +7992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -7986,8 +8013,8 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1"/>
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A34" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8021,7 +8048,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="22.5" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>24</v>
       </c>
@@ -8036,7 +8063,7 @@
       <c r="G36" s="43"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -8070,7 +8097,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>46</v>
       </c>
@@ -8087,7 +8114,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>48</v>
       </c>
@@ -8108,7 +8135,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>49</v>
       </c>
@@ -8127,7 +8154,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>55</v>
       </c>
@@ -8146,7 +8173,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
@@ -8163,8 +8190,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1"/>
+    <row r="44" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A44" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8198,7 +8225,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="23.25">
       <c r="A46" s="12" t="s">
         <v>25</v>
       </c>
@@ -8213,7 +8240,7 @@
       <c r="G46" s="43"/>
       <c r="H46" s="44"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -8247,7 +8274,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
@@ -8264,7 +8291,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="9" t="s">
         <v>48</v>
       </c>
@@ -8285,7 +8312,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -8304,7 +8331,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
         <v>56</v>
       </c>
@@ -8323,7 +8350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
@@ -8340,7 +8367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
         <v>57</v>
       </c>
@@ -8357,7 +8384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
@@ -8374,7 +8401,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8408,7 +8435,7 @@
         <v>12.350000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -8424,7 +8451,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -8458,7 +8485,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -8473,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
         <v>48</v>
       </c>
@@ -8492,7 +8519,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
         <v>49</v>
       </c>
@@ -8509,7 +8536,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>53</v>
       </c>
@@ -8526,7 +8553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
         <v>58</v>
       </c>
@@ -8543,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8577,7 +8604,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="s">
         <v>27</v>
       </c>
@@ -8592,7 +8619,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -8626,7 +8653,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -8643,7 +8670,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9" t="s">
         <v>48</v>
       </c>
@@ -8664,7 +8691,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="35" t="s">
         <v>59</v>
       </c>
@@ -8683,7 +8710,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9" t="s">
         <v>60</v>
       </c>
@@ -8702,7 +8729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9" t="s">
         <v>61</v>
       </c>
@@ -8719,7 +8746,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="9" t="s">
         <v>53</v>
       </c>
@@ -8736,7 +8763,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -8753,7 +8780,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8787,7 +8814,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="23.25">
       <c r="A77" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -8803,7 +8830,7 @@
       <c r="G77" s="43"/>
       <c r="H77" s="44"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -8837,7 +8864,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9" t="s">
         <v>46</v>
       </c>
@@ -8854,7 +8881,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9" t="s">
         <v>49</v>
       </c>
@@ -8871,7 +8898,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9" t="s">
         <v>48</v>
       </c>
@@ -8890,7 +8917,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="9" t="s">
         <v>54</v>
       </c>
@@ -8907,7 +8934,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
@@ -8924,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="9" t="s">
         <v>50</v>
       </c>
@@ -8941,7 +8968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -8975,7 +9002,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="23.25">
       <c r="A87" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -8991,7 +9018,7 @@
       <c r="G87" s="43"/>
       <c r="H87" s="44"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9025,7 +9052,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9" t="s">
         <v>64</v>
       </c>
@@ -9042,7 +9069,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9" t="s">
         <v>65</v>
       </c>
@@ -9063,7 +9090,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="25.5">
       <c r="A91" s="9" t="s">
         <v>66</v>
       </c>
@@ -9084,7 +9111,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="9" t="s">
         <v>48</v>
       </c>
@@ -9101,7 +9128,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="9" t="s">
         <v>67</v>
       </c>
@@ -9122,7 +9149,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9156,7 +9183,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="23.25">
       <c r="A96" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -9172,7 +9199,7 @@
       <c r="G96" s="43"/>
       <c r="H96" s="44"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9206,7 +9233,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
         <v>46</v>
       </c>
@@ -9221,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="35" t="s">
         <v>65</v>
       </c>
@@ -9238,7 +9265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
         <v>68</v>
       </c>
@@ -9255,7 +9282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="9" t="s">
         <v>69</v>
       </c>
@@ -9272,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -9285,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9319,7 +9346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="23.25">
       <c r="A105" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -9335,7 +9362,7 @@
       <c r="G105" s="43"/>
       <c r="H105" s="44"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9369,7 +9396,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9" t="s">
         <v>46</v>
       </c>
@@ -9384,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="35" t="s">
         <v>65</v>
       </c>
@@ -9401,7 +9428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -9414,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -9427,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -9440,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9474,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="23.25">
       <c r="A114" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -9490,7 +9517,7 @@
       <c r="G114" s="43"/>
       <c r="H114" s="44"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9524,7 +9551,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9" t="s">
         <v>46</v>
       </c>
@@ -9539,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -9552,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -9565,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -9578,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -9591,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9625,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="23.25">
       <c r="A123" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -9641,7 +9668,7 @@
       <c r="G123" s="43"/>
       <c r="H123" s="44"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9675,7 +9702,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9" t="s">
         <v>46</v>
       </c>
@@ -9690,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -9703,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -9716,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -9729,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -9742,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9776,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="23.25">
       <c r="A132" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -9792,7 +9819,7 @@
       <c r="G132" s="43"/>
       <c r="H132" s="44"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -9826,7 +9853,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="9" t="s">
         <v>46</v>
       </c>
@@ -9841,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="9"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -9854,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -9867,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -9880,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -9893,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="21" t="str">
         <f>$A$12</f>
         <v>Totaal</v>
@@ -9959,11 +9986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -10223,7 +10250,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$F$1</f>
         <v>Week 2</v>
@@ -10239,7 +10266,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -10255,7 +10282,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -10289,7 +10316,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -10306,7 +10333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>71</v>
       </c>
@@ -10325,7 +10352,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9" t="s">
         <v>72</v>
       </c>
@@ -10344,7 +10371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9" t="s">
         <v>73</v>
       </c>
@@ -10363,7 +10390,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
@@ -10382,7 +10409,7 @@
         <v>1.1600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -10401,7 +10428,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A11" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -10435,7 +10462,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -10445,7 +10472,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="23.25">
       <c r="A13" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -10461,7 +10488,7 @@
       <c r="G13" s="43"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -10495,7 +10522,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>70</v>
       </c>
@@ -10512,7 +10539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
@@ -10531,7 +10558,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -10550,7 +10577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
         <v>77</v>
       </c>
@@ -10569,7 +10596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -10582,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A20" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -10616,7 +10643,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="23.25">
       <c r="A22" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -10632,7 +10659,7 @@
       <c r="G22" s="43"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -10666,7 +10693,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>78</v>
       </c>
@@ -10683,7 +10710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9" t="s">
         <v>79</v>
       </c>
@@ -10700,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>48</v>
       </c>
@@ -10717,7 +10744,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -10734,7 +10761,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -10747,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A29" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -10781,7 +10808,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="23.25">
       <c r="A31" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -10797,7 +10824,7 @@
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -10831,7 +10858,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>78</v>
       </c>
@@ -10848,7 +10875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>48</v>
       </c>
@@ -10867,7 +10894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
         <v>81</v>
       </c>
@@ -10886,7 +10913,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
@@ -10903,7 +10930,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -10916,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A38" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -10950,7 +10977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="23.25">
       <c r="A40" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -10966,7 +10993,7 @@
       <c r="G40" s="43"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11000,7 +11027,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>71</v>
       </c>
@@ -11017,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9" t="s">
         <v>83</v>
       </c>
@@ -11034,7 +11061,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="35" t="s">
         <v>84</v>
       </c>
@@ -11053,7 +11080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
         <v>85</v>
       </c>
@@ -11070,7 +11097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
         <v>86</v>
       </c>
@@ -11093,7 +11120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11127,7 +11154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="23.25">
       <c r="A49" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -11143,7 +11170,7 @@
       <c r="G49" s="43"/>
       <c r="H49" s="44"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11177,7 +11204,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
@@ -11192,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -11205,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -11218,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -11231,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -11244,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11278,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="23.25">
       <c r="A58" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -11294,7 +11321,7 @@
       <c r="G58" s="43"/>
       <c r="H58" s="44"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11328,7 +11355,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9" t="s">
         <v>87</v>
       </c>
@@ -11345,7 +11372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9" t="s">
         <v>71</v>
       </c>
@@ -11362,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>88</v>
       </c>
@@ -11379,7 +11406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9" t="s">
         <v>89</v>
       </c>
@@ -11387,16 +11414,18 @@
       <c r="C63" s="10">
         <v>2</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="10">
+        <v>2</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
         <v>90</v>
       </c>
@@ -11406,14 +11435,16 @@
       <c r="E64" s="10">
         <v>1</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10">
+        <v>2</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="6">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11428,7 +11459,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="16"/>
@@ -11436,7 +11467,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="16"/>
@@ -11444,10 +11475,10 @@
       </c>
       <c r="H65" s="11">
         <f>SUM(B65:G65)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="23.25">
       <c r="A67" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -11463,7 +11494,7 @@
       <c r="G67" s="43"/>
       <c r="H67" s="44"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11497,7 +11528,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9" t="s">
         <v>91</v>
       </c>
@@ -11522,7 +11553,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9" t="s">
         <v>92</v>
       </c>
@@ -11539,7 +11570,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -11552,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -11565,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -11578,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11612,7 +11643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="23.25">
       <c r="A76" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -11628,7 +11659,7 @@
       <c r="G76" s="43"/>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11662,7 +11693,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9" t="s">
         <v>48</v>
       </c>
@@ -11679,7 +11710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9" t="s">
         <v>93</v>
       </c>
@@ -11698,7 +11729,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9" t="s">
         <v>94</v>
       </c>
@@ -11717,7 +11748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -11730,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -11743,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11777,7 +11808,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="23.25">
       <c r="A85" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -11793,7 +11824,7 @@
       <c r="G85" s="43"/>
       <c r="H85" s="44"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11827,7 +11858,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9" t="s">
         <v>71</v>
       </c>
@@ -11844,50 +11875,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
+    <row r="88" spans="1:8">
+      <c r="A88" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
+      <c r="C88" s="10">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10">
+        <v>2</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
         <f t="shared" ref="H88:H91" si="24">SUM(B88:G88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
+      <c r="F89" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
         <f t="shared" si="24"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -11900,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -11911,15 +11950,15 @@
       </c>
       <c r="C92" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="25"/>
@@ -11931,10 +11970,10 @@
       </c>
       <c r="H92" s="11">
         <f>SUM(B92:G92)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="23.25">
       <c r="A94" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -11950,7 +11989,7 @@
       <c r="G94" s="43"/>
       <c r="H94" s="44"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -11984,7 +12023,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9" t="s">
         <v>46</v>
       </c>
@@ -11999,9 +12038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -12016,9 +12055,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -12033,7 +12072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -12046,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -12059,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -12093,7 +12132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="23.25">
       <c r="A103" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -12109,7 +12148,7 @@
       <c r="G103" s="43"/>
       <c r="H103" s="44"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12143,7 +12182,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9" t="s">
         <v>46</v>
       </c>
@@ -12158,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -12171,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -12184,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -12197,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -12210,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -12244,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="23.25">
       <c r="A112" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -12260,7 +12299,7 @@
       <c r="G112" s="43"/>
       <c r="H112" s="44"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12294,7 +12333,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9" t="s">
         <v>46</v>
       </c>
@@ -12309,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -12322,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -12335,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -12348,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -12361,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -12395,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="23.25">
       <c r="A121" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -12411,7 +12450,7 @@
       <c r="G121" s="43"/>
       <c r="H121" s="44"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12445,7 +12484,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9" t="s">
         <v>46</v>
       </c>
@@ -12460,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -12473,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -12486,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -12499,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -12512,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="21" t="str">
         <f>$A$11</f>
         <v>Totaal</v>
@@ -12573,11 +12612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -12837,7 +12876,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$G$1</f>
         <v>Week 3</v>
@@ -12853,7 +12892,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -12869,7 +12908,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -12903,7 +12942,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -12922,9 +12961,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -12945,9 +12984,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12964,9 +13003,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -12983,9 +13022,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13000,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -13034,7 +13073,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13044,10 +13083,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="L11" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -13063,7 +13102,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13097,9 +13136,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="10">
         <v>0.5</v>
@@ -13116,9 +13155,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -13133,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
@@ -13150,9 +13189,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -13167,9 +13206,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13186,7 +13225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -13201,9 +13240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -13218,7 +13257,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A21" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -13252,7 +13291,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="23.25">
       <c r="A23" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -13268,7 +13307,7 @@
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13302,9 +13341,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="10">
         <v>0.5</v>
@@ -13319,9 +13358,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -13336,9 +13375,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -13353,9 +13392,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -13370,7 +13409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -13383,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A30" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -13417,7 +13456,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="23.25">
       <c r="A32" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -13433,7 +13472,7 @@
       <c r="G32" s="43"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13467,9 +13506,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10">
         <v>0.5</v>
@@ -13484,9 +13523,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="10">
         <v>0.25</v>
@@ -13501,9 +13540,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" s="10">
         <v>0.5</v>
@@ -13518,33 +13557,41 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A39" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -13563,11 +13610,11 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="7"/>
@@ -13575,10 +13622,10 @@
       </c>
       <c r="H39" s="11">
         <f>SUM(B39:G39)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="23.25">
       <c r="A41" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -13594,7 +13641,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13628,9 +13675,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="10">
         <v>0.5</v>
@@ -13647,9 +13694,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5">
         <v>0.25</v>
@@ -13666,9 +13713,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45" s="10">
         <v>1.25</v>
@@ -13685,9 +13732,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -13704,7 +13751,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -13717,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -13751,7 +13798,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="23.25">
       <c r="A50" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -13767,7 +13814,7 @@
       <c r="G50" s="43"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13801,7 +13848,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9" t="s">
         <v>48</v>
       </c>
@@ -13818,9 +13865,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="10">
         <v>0.5</v>
@@ -13835,9 +13882,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -13852,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -13865,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -13878,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -13912,7 +13959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="23.25">
       <c r="A59" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -13928,7 +13975,7 @@
       <c r="G59" s="43"/>
       <c r="H59" s="44"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -13962,10 +14009,8 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>46</v>
-      </c>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -13977,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
         <v>71</v>
       </c>
@@ -13994,46 +14039,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>2</v>
+      </c>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G65" s="10"/>
       <c r="H65" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -14044,7 +14101,7 @@
       </c>
       <c r="C66" s="11">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="11">
         <f t="shared" si="16"/>
@@ -14056,18 +14113,18 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G66" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" s="11">
         <f>SUM(B66:G66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23.25">
       <c r="A68" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -14083,7 +14140,7 @@
       <c r="G68" s="43"/>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14117,9 +14174,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="5">
         <v>0.5</v>
@@ -14136,9 +14193,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="10">
         <v>0.25</v>
@@ -14155,9 +14212,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B72" s="10">
         <v>1.25</v>
@@ -14174,9 +14231,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -14193,7 +14250,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -14206,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -14240,7 +14297,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="23.25">
       <c r="A77" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -14256,7 +14313,7 @@
       <c r="G77" s="43"/>
       <c r="H77" s="44"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14290,9 +14347,9 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="10">
         <v>0.5</v>
@@ -14307,9 +14364,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
@@ -14324,37 +14381,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
         <f t="shared" si="21"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10">
+        <v>1</v>
+      </c>
       <c r="H82" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -14367,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -14382,7 +14443,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="22"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="22"/>
@@ -14394,14 +14455,14 @@
       </c>
       <c r="G84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="11">
         <f>SUM(B84:G84)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="23.25">
       <c r="A86" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -14417,7 +14478,7 @@
       <c r="G86" s="43"/>
       <c r="H86" s="44"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14451,11 +14512,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="B88" s="10">
+        <v>1</v>
+      </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -14463,49 +14526,61 @@
       <c r="G88" s="10"/>
       <c r="H88" s="6">
         <f>SUM(B88:G88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
+      <c r="E89" s="10">
+        <v>3</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
         <f t="shared" ref="H89:H92" si="24">SUM(B89:G89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="G90" s="10">
+        <v>4</v>
+      </c>
       <c r="H90" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="F91" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G91" s="10"/>
       <c r="H91" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -14518,14 +14593,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
       </c>
       <c r="B93" s="11">
         <f t="shared" ref="B93:G93" si="25">SUM(B88:B92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="11">
         <f t="shared" si="25"/>
@@ -14537,22 +14612,22 @@
       </c>
       <c r="E93" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G93" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93" s="11">
         <f>SUM(B93:G93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="23.25">
       <c r="A95" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -14568,7 +14643,7 @@
       <c r="G95" s="43"/>
       <c r="H95" s="44"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14602,7 +14677,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9" t="s">
         <v>46</v>
       </c>
@@ -14617,9 +14692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -14636,9 +14711,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -14655,7 +14730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -14668,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -14681,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -14715,7 +14790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="23.25">
       <c r="A104" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -14731,7 +14806,7 @@
       <c r="G104" s="43"/>
       <c r="H104" s="44"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14765,7 +14840,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9" t="s">
         <v>46</v>
       </c>
@@ -14780,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -14793,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -14806,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -14819,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -14832,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -14866,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="23.25">
       <c r="A113" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -14882,7 +14957,7 @@
       <c r="G113" s="43"/>
       <c r="H113" s="44"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -14916,7 +14991,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9" t="s">
         <v>46</v>
       </c>
@@ -14931,7 +15006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -14944,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -14957,7 +15032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -14970,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -14983,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -15017,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="23.25">
       <c r="A122" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -15033,7 +15108,7 @@
       <c r="G122" s="43"/>
       <c r="H122" s="44"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -15067,7 +15142,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9" t="s">
         <v>46</v>
       </c>
@@ -15082,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -15095,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -15108,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -15121,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -15134,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -15195,11 +15270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -15459,7 +15534,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$H$1</f>
         <v>Week 4</v>
@@ -15475,7 +15550,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -15491,7 +15566,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -15525,7 +15600,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -15538,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -15551,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -15564,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15577,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -15590,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -15624,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15634,7 +15709,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -15650,7 +15725,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -15684,7 +15759,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -15697,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -15710,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -15723,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -15736,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -15749,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -15783,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="23.25">
       <c r="A21" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -15799,7 +15874,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -15833,7 +15908,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -15846,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -15859,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -15872,7 +15947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -15885,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -15898,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -15932,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="23.25">
       <c r="A30" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -15948,7 +16023,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -15982,7 +16057,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -15995,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -16008,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -16021,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -16034,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -16047,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -16081,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="23.25">
       <c r="A39" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -16097,7 +16172,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16131,7 +16206,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -16146,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -16159,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -16172,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -16185,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -16198,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16232,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="23.25">
       <c r="A48" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -16248,7 +16323,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16282,7 +16357,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -16297,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -16310,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -16323,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -16336,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -16349,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16383,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -16399,7 +16474,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16433,7 +16508,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -16448,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -16461,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -16474,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -16487,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -16500,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16534,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -16550,7 +16625,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16584,7 +16659,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -16599,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -16612,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -16625,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -16638,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -16651,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16685,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="23.25">
       <c r="A75" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -16701,7 +16776,7 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16735,7 +16810,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -16750,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -16763,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -16776,7 +16851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -16789,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -16802,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16836,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="23.25">
       <c r="A84" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -16852,7 +16927,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -16886,7 +16961,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
         <v>46</v>
       </c>
@@ -16901,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -16914,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -16927,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -16940,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -16953,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -16987,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="23.25">
       <c r="A93" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -17003,7 +17078,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -17037,7 +17112,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -17052,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -17065,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -17078,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -17091,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -17104,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -17138,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="23.25">
       <c r="A102" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -17154,7 +17229,7 @@
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -17188,7 +17263,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>46</v>
       </c>
@@ -17203,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -17216,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -17229,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -17242,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -17255,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -17289,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="23.25">
       <c r="A111" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -17305,7 +17380,7 @@
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -17339,7 +17414,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -17354,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -17367,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -17380,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -17393,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -17406,7 +17481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -17440,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="23.25">
       <c r="A120" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -17456,7 +17531,7 @@
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -17490,7 +17565,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9" t="s">
         <v>46</v>
       </c>
@@ -17505,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -17518,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -17531,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -17544,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -17557,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -17622,7 +17697,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -17882,7 +17957,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$I$1</f>
         <v>Week 5</v>
@@ -17898,7 +17973,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -17913,7 +17988,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -17947,7 +18022,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -17960,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -17973,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -17986,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -17999,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -18012,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -18046,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -18056,7 +18131,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -18072,7 +18147,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18106,7 +18181,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -18119,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -18132,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -18145,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -18158,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -18171,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -18205,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="23.25">
       <c r="A21" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -18221,7 +18296,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18255,7 +18330,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -18268,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -18281,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -18294,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -18307,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -18320,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -18354,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="23.25">
       <c r="A30" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -18370,7 +18445,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18404,7 +18479,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18417,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -18430,7 +18505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -18443,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -18456,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -18469,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -18503,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="23.25">
       <c r="A39" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -18519,7 +18594,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18553,7 +18628,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -18568,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -18581,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -18594,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -18607,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -18620,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -18654,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="23.25">
       <c r="A48" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -18670,7 +18745,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18704,7 +18779,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -18719,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -18732,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -18745,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -18758,7 +18833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -18771,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -18805,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -18821,7 +18896,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -18855,7 +18930,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -18870,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -18883,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -18896,7 +18971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -18909,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -18922,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -18956,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -18972,7 +19047,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19006,7 +19081,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -19021,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -19034,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -19047,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -19060,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -19073,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19107,7 +19182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="23.25">
       <c r="A75" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -19123,7 +19198,7 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19157,7 +19232,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -19172,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -19185,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -19198,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -19211,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -19224,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19258,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="23.25">
       <c r="A84" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -19274,7 +19349,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19308,7 +19383,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
         <v>46</v>
       </c>
@@ -19323,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -19336,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -19349,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -19362,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -19375,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19409,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="23.25">
       <c r="A93" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -19425,7 +19500,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19459,7 +19534,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -19474,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -19487,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -19500,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -19513,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -19526,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19560,7 +19635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="23.25">
       <c r="A102" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -19576,7 +19651,7 @@
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19610,7 +19685,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>46</v>
       </c>
@@ -19625,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -19638,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -19651,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -19664,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -19677,7 +19752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19711,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="23.25">
       <c r="A111" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -19727,7 +19802,7 @@
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19761,7 +19836,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -19776,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -19789,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -19802,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -19815,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -19828,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -19862,7 +19937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="23.25">
       <c r="A120" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -19878,7 +19953,7 @@
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -19912,7 +19987,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9" t="s">
         <v>46</v>
       </c>
@@ -19927,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -19940,7 +20015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -19953,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -19966,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -19979,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -20044,7 +20119,7 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -20304,7 +20379,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$J$1</f>
         <v>Week 6</v>
@@ -20320,7 +20395,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -20336,7 +20411,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -20370,7 +20445,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -20383,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -20396,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -20409,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -20422,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -20435,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -20469,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -20479,7 +20554,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -20495,7 +20570,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -20529,7 +20604,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -20542,7 +20617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -20555,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -20568,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -20581,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -20594,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -20628,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="23.25">
       <c r="A21" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -20644,7 +20719,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -20678,7 +20753,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -20691,7 +20766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -20704,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -20717,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -20730,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -20743,7 +20818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -20777,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="23.25">
       <c r="A30" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -20793,7 +20868,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -20827,7 +20902,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -20840,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -20853,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -20866,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -20879,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -20892,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -20926,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="23.25">
       <c r="A39" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -20942,7 +21017,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -20973,7 +21048,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -20988,7 +21063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -21001,7 +21076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -21014,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -21027,7 +21102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -21040,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21074,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="23.25">
       <c r="A48" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -21090,7 +21165,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21124,7 +21199,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -21139,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -21152,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -21165,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -21178,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -21191,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21225,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -21241,7 +21316,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21275,7 +21350,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -21290,7 +21365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -21303,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -21316,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -21329,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -21342,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21376,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -21392,7 +21467,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21426,7 +21501,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -21441,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -21454,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -21467,7 +21542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -21480,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -21493,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21527,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="23.25">
       <c r="A75" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -21543,7 +21618,7 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21577,7 +21652,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -21592,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -21605,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -21618,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -21631,7 +21706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -21644,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21678,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="23.25">
       <c r="A84" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -21694,7 +21769,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21728,7 +21803,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
         <v>46</v>
       </c>
@@ -21743,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -21756,7 +21831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -21769,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -21782,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -21795,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21829,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="23.25">
       <c r="A93" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -21845,7 +21920,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -21879,7 +21954,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -21894,7 +21969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -21907,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -21920,7 +21995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -21933,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -21946,7 +22021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -21980,7 +22055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="23.25">
       <c r="A102" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -21996,7 +22071,7 @@
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -22030,7 +22105,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>46</v>
       </c>
@@ -22045,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -22058,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -22071,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -22084,7 +22159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -22097,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -22131,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="23.25">
       <c r="A111" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -22147,7 +22222,7 @@
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -22181,7 +22256,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -22196,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -22209,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -22222,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -22235,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -22248,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -22282,7 +22357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="23.25">
       <c r="A120" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -22298,7 +22373,7 @@
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -22332,7 +22407,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9" t="s">
         <v>46</v>
       </c>
@@ -22347,7 +22422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -22360,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -22373,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -22386,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -22399,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -22464,7 +22539,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -22724,7 +22799,7 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="23" t="str">
         <f>Totaal!$K$1</f>
         <v>Week 7</v>
@@ -22740,7 +22815,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
@@ -22756,7 +22831,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -22790,7 +22865,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -22803,7 +22878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -22816,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -22829,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -22842,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -22855,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -22889,7 +22964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -22899,7 +22974,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="23.25">
       <c r="A12" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
@@ -22915,7 +22990,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -22949,7 +23024,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -22962,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -22975,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -22988,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -23001,7 +23076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -23014,7 +23089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -23048,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="23.25">
       <c r="A21" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
@@ -23064,7 +23139,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23098,7 +23173,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -23111,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -23124,7 +23199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -23137,7 +23212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -23150,7 +23225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -23163,7 +23238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -23197,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="23.25">
       <c r="A30" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
@@ -23213,7 +23288,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23247,7 +23322,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -23260,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -23273,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -23286,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -23299,7 +23374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -23312,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
@@ -23346,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="23.25">
       <c r="A39" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
@@ -23362,7 +23437,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23396,7 +23471,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -23411,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -23424,7 +23499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -23437,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -23450,7 +23525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -23463,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -23497,7 +23572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="23.25">
       <c r="A48" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
@@ -23513,7 +23588,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23547,7 +23622,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -23562,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -23575,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -23588,7 +23663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -23601,7 +23676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -23614,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -23648,7 +23723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="23.25">
       <c r="A57" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
@@ -23664,7 +23739,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23698,7 +23773,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>46</v>
       </c>
@@ -23713,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -23726,7 +23801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -23739,7 +23814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -23752,7 +23827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -23765,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -23799,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="23.25">
       <c r="A66" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
@@ -23815,7 +23890,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -23849,7 +23924,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9" t="s">
         <v>46</v>
       </c>
@@ -23864,7 +23939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -23877,7 +23952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -23890,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -23903,7 +23978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -23916,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -23950,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="23.25">
       <c r="A75" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
@@ -23966,7 +24041,7 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24000,7 +24075,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -24015,7 +24090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -24028,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -24041,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -24054,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -24067,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24101,7 +24176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="23.25">
       <c r="A84" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
@@ -24117,7 +24192,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24151,7 +24226,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9" t="s">
         <v>46</v>
       </c>
@@ -24166,7 +24241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -24179,7 +24254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -24192,7 +24267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -24205,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -24218,7 +24293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24252,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="23.25">
       <c r="A93" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
@@ -24268,7 +24343,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24302,7 +24377,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>46</v>
       </c>
@@ -24317,7 +24392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -24330,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -24343,7 +24418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -24356,7 +24431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -24369,7 +24444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24403,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="23.25">
       <c r="A102" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
@@ -24419,7 +24494,7 @@
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24453,7 +24528,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>46</v>
       </c>
@@ -24468,7 +24543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -24481,7 +24556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -24494,7 +24569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -24507,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -24520,7 +24595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24554,7 +24629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="23.25">
       <c r="A111" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
@@ -24570,7 +24645,7 @@
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24604,7 +24679,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -24619,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -24632,7 +24707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -24645,7 +24720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -24658,7 +24733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -24671,7 +24746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24705,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="23.25">
       <c r="A120" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
@@ -24721,7 +24796,7 @@
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
@@ -24755,7 +24830,7 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9" t="s">
         <v>46</v>
       </c>
@@ -24770,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -24783,7 +24858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -24796,7 +24871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -24809,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -24822,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="21" t="str">
         <f>$A$10</f>
         <v>Totaal</v>
@@ -24880,6 +24955,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EA2F89DD3BEC845B6024554B0FABDF6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4468d2ef933284f01b30a92a546dec5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78" xmlns:ns4="87dba05e-45c5-4db0-9a65-d117fc15f65a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68f6dca78ff19fb315d63369b50fac1" ns3:_="" ns4:_="">
     <xsd:import namespace="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
@@ -25090,61 +25174,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F9465-B5E9-4048-A852-B37AD87D445F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
-    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F9465-B5E9-4048-A852-B37AD87D445F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}"/>
 </file>
--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\philipposslicher\sketchymine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869541DD-0512-43EE-A0E3-6A2664EE6DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB9A321-4E81-4E37-811E-3C5AC20FAF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="182">
   <si>
     <t>Invulinstructie</t>
   </si>
@@ -328,9 +327,6 @@
     <t>Scrum Meeting</t>
   </si>
   <si>
-    <t>US05 - Bl04</t>
-  </si>
-  <si>
     <t xml:space="preserve">US03 BI06 Create the logic for the canvas </t>
   </si>
   <si>
@@ -442,9 +438,6 @@
     <t>Sprint planning meeting</t>
   </si>
   <si>
-    <t>SCRUM group meeting</t>
-  </si>
-  <si>
     <t>SCRUM group planning</t>
   </si>
   <si>
@@ -460,13 +453,7 @@
     <t>Sprint retrospecitve meeting</t>
   </si>
   <si>
-    <t>Docs: protocol spec and code comments</t>
-  </si>
-  <si>
     <t>presentation preperation</t>
-  </si>
-  <si>
-    <t>US01-BI05</t>
   </si>
   <si>
     <t>presentation preparation</t>
@@ -484,9 +471,6 @@
     <t>moderator wireframes</t>
   </si>
   <si>
-    <t>documentation</t>
-  </si>
-  <si>
     <t>US04-BI06</t>
   </si>
   <si>
@@ -496,13 +480,7 @@
     <t>US01-BI04</t>
   </si>
   <si>
-    <t>US04-BI04</t>
-  </si>
-  <si>
     <t>Us01-Bi0 login page</t>
-  </si>
-  <si>
-    <t>US11- Bl01</t>
   </si>
   <si>
     <t>Retrospective meeting</t>
@@ -511,10 +489,10 @@
     <t>US11 - Bl06</t>
   </si>
   <si>
-    <t>US02 - BI01  Ranking page (frontend)</t>
+    <t>documentation</t>
   </si>
   <si>
-    <t>US01 - BI06  Homescreen page (frontend)</t>
+    <t>SCRUM group meeting</t>
   </si>
   <si>
     <t>US11-BI03 Send updates to the frontend about team progression from the backend</t>
@@ -523,19 +501,13 @@
     <t>US11-BI08 Define the progress that the team should progress in each round in the backend.</t>
   </si>
   <si>
-    <t>US11-BI05</t>
+    <t>Docs: protocol spec and code comments</t>
   </si>
   <si>
-    <t>US11-BI09</t>
+    <t>US05 - Bl04</t>
   </si>
   <si>
-    <t>Help on US11-BI01</t>
-  </si>
-  <si>
-    <t>US03-BI05, US10-BI02 &amp; US10-BIO3</t>
-  </si>
-  <si>
-    <t>backend assigned roles, drawers can see the word to draw, start round button is clickable only when no round is ongoing</t>
+    <t>US01-BI05</t>
   </si>
   <si>
     <t>us07bi01</t>
@@ -544,25 +516,61 @@
     <t>backlogs documentation</t>
   </si>
   <si>
+    <t>SCRUM Group meeting</t>
+  </si>
+  <si>
+    <t>SCRUM meeting/Group meeting</t>
+  </si>
+  <si>
+    <t>US04-BI04</t>
+  </si>
+  <si>
+    <t>US03-BI05, US10-BI02 &amp; US10-BIO3</t>
+  </si>
+  <si>
+    <t>US11-BI09</t>
+  </si>
+  <si>
+    <t>US11-BI05</t>
+  </si>
+  <si>
+    <t>Documentation/Gitlab issues addition</t>
+  </si>
+  <si>
     <t xml:space="preserve">US11-BI04 </t>
   </si>
   <si>
     <t>fixing and testing Ranking system</t>
   </si>
   <si>
+    <t>US08-BI01</t>
+  </si>
+  <si>
+    <t>US01 - BI06  Homescreen page (frontend)</t>
+  </si>
+  <si>
+    <t>US02 - BI01  Ranking page (frontend)</t>
+  </si>
+  <si>
+    <t>US02 - BI01 - Ranking page (frontend improved, backend connection)</t>
+  </si>
+  <si>
+    <t>US08 Bl02 - Create the moderator screen/view of the game</t>
+  </si>
+  <si>
+    <t>backend assigned roles, drawers can see the word to draw, start round button is clickable only when no round is ongoing</t>
+  </si>
+  <si>
     <t>US08 Bl03 and GIT fixes</t>
   </si>
   <si>
-    <t>Could not work due to being ill.</t>
+    <t>Help on US11-BI01</t>
   </si>
   <si>
-    <t>SCRUM meeting/Group meeting</t>
+    <t>US11- Bl01</t>
   </si>
   <si>
-    <t>US08-BI01</t>
-  </si>
-  <si>
-    <t>Documentation/Gitlab issues addition</t>
+    <t>Could not work due to being ill.</t>
   </si>
   <si>
     <t>Fix Chat Overflow</t>
@@ -571,13 +579,16 @@
     <t>Helping team member</t>
   </si>
   <si>
-    <t>US08 Bl02 - Create the moderator screen/view of the game</t>
+    <t>Team statistics, game assets</t>
   </si>
   <si>
-    <t>US02 - BI01 - Ranking page (frontend improved, backend connection)</t>
+    <t>SCRUM group sprint meeting</t>
   </si>
   <si>
-    <t>SCRUM Group meeting</t>
+    <t>SCRUM group standup</t>
+  </si>
+  <si>
+    <t>US01-BI07</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1239,7 @@
                   <c:v>7.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1314,7 +1325,7 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1655,10 +1666,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.95</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1830,7 +1841,7 @@
                   <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1913,10 +1924,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.95</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2090,7 +2101,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2645,16 +2656,16 @@
                   <c:v>643.42999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.56999999999994</c:v>
+                  <c:v>559.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>572.56999999999994</c:v>
+                  <c:v>547.56999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>572.56999999999994</c:v>
+                  <c:v>547.56999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572.56999999999994</c:v>
+                  <c:v>547.56999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6336,8 +6347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6605,8 +6616,8 @@
         <v>7.4600000000000009</v>
       </c>
       <c r="J2" s="3">
-        <f>'Week (6)'!$H$10</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$11</f>
+        <v>4.05</v>
       </c>
       <c r="K2" s="3">
         <f>'Week (7)'!$H$10</f>
@@ -6618,7 +6629,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>66.53</v>
+        <v>70.58</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,8 +6659,8 @@
         <v>3.2</v>
       </c>
       <c r="J3" s="3">
-        <f>'Week (6)'!$H$19</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$20</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K3" s="3">
         <f>'Week (7)'!$H$19</f>
@@ -6661,7 +6672,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>65.3</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,7 +6706,7 @@
         <v>11.2</v>
       </c>
       <c r="J4" s="3">
-        <f>'Week (6)'!$H$28</f>
+        <f>'Week (6)'!$H$29</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -6738,7 +6749,7 @@
         <v>5.45</v>
       </c>
       <c r="J5" s="3">
-        <f>'Week (6)'!$H$37</f>
+        <f>'Week (6)'!$H$38</f>
         <v>0</v>
       </c>
       <c r="K5" s="3">
@@ -6781,7 +6792,7 @@
         <v>7.55</v>
       </c>
       <c r="J6" s="3">
-        <f>'Week (6)'!$H$46</f>
+        <f>'Week (6)'!$H$47</f>
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -6821,11 +6832,11 @@
       </c>
       <c r="I7" s="3">
         <f>'Week (5)'!$H$57</f>
-        <v>1.95</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J7" s="3">
-        <f>'Week (6)'!$H$55</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$57</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K7" s="3">
         <f>'Week (7)'!$H$55</f>
@@ -6837,7 +6848,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M15" si="2">SUM(E7:L7)</f>
-        <v>16.3</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>'Week (6)'!$H$64</f>
+        <f>'Week (6)'!$H$66</f>
         <v>0</v>
       </c>
       <c r="K8" s="3">
@@ -6910,8 +6921,8 @@
         <v>13.7</v>
       </c>
       <c r="J9" s="3">
-        <f>'Week (6)'!$H$73</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$75</f>
+        <v>1.7</v>
       </c>
       <c r="K9" s="3">
         <f>'Week (7)'!$H$73</f>
@@ -6923,7 +6934,7 @@
       </c>
       <c r="M9" s="4">
         <f t="shared" si="2"/>
-        <v>49.099999999999994</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,11 +6961,11 @@
       </c>
       <c r="I10" s="3">
         <f>'Week (5)'!$H$84</f>
-        <v>10.95</v>
+        <v>11.2</v>
       </c>
       <c r="J10" s="3">
-        <f>'Week (6)'!$H$82</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$84</f>
+        <v>2</v>
       </c>
       <c r="K10" s="3">
         <f>'Week (7)'!$H$82</f>
@@ -6966,7 +6977,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="2"/>
-        <v>48.05</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6996,7 +7007,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J11" s="3">
-        <f>'Week (6)'!$H$90</f>
+        <f>'Week (6)'!$H$92</f>
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -7036,10 +7047,10 @@
       </c>
       <c r="I12" s="3">
         <f>'Week (5)'!$H$100</f>
-        <v>0.7</v>
+        <v>12.7</v>
       </c>
       <c r="J12" s="3">
-        <f>'Week (6)'!$H$99</f>
+        <f>'Week (6)'!$H$101</f>
         <v>0</v>
       </c>
       <c r="K12" s="3">
@@ -7052,7 +7063,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="2"/>
-        <v>29.2</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>'Week (6)'!$H$108</f>
+        <f>'Week (6)'!$H$110</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -7121,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>'Week (6)'!$H$117</f>
+        <f>'Week (6)'!$H$119</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
@@ -7162,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>'Week (6)'!$H$126</f>
+        <f>'Week (6)'!$H$128</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -7202,11 +7213,11 @@
       </c>
       <c r="I16" s="15">
         <f t="shared" si="3"/>
-        <v>70.860000000000014</v>
+        <v>83.610000000000014</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
@@ -7235,13 +7246,13 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20">
         <f>SUM(H16:I16)</f>
-        <v>178.31</v>
+        <v>191.06</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20">
         <f>SUM(J16:L16)</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7268,19 +7279,19 @@
       </c>
       <c r="I18" s="18">
         <f t="shared" si="4"/>
-        <v>572.56999999999994</v>
+        <v>559.81999999999994</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="4"/>
-        <v>572.56999999999994</v>
+        <v>547.56999999999994</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="4"/>
-        <v>572.56999999999994</v>
+        <v>547.56999999999994</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
-        <v>572.56999999999994</v>
+        <v>547.56999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7350,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
@@ -10178,7 +10189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
@@ -11923,7 +11934,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
@@ -12069,7 +12080,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10">
@@ -12232,7 +12243,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -12249,7 +12260,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -12804,7 +12815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
@@ -13155,7 +13166,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13178,7 +13189,7 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13197,7 +13208,7 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13216,7 +13227,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13275,7 +13286,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="L11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
@@ -13330,7 +13341,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="10">
         <v>0.5</v>
@@ -13349,7 +13360,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -13383,7 +13394,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -13400,7 +13411,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13434,7 +13445,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -13535,7 +13546,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="10">
         <v>0.5</v>
@@ -13554,7 +13565,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -13571,7 +13582,7 @@
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -13588,7 +13599,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -13605,7 +13616,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -13706,7 +13717,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="10">
         <v>0.5</v>
@@ -13723,7 +13734,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="10">
         <v>0.25</v>
@@ -13740,7 +13751,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="10">
         <v>0.5</v>
@@ -13757,7 +13768,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -13774,7 +13785,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -13875,7 +13886,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="10">
         <v>0.5</v>
@@ -13894,7 +13905,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5">
         <v>0.25</v>
@@ -13913,7 +13924,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="10">
         <v>1.25</v>
@@ -13932,7 +13943,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -14065,7 +14076,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="10">
         <v>0.5</v>
@@ -14082,7 +14093,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -14239,7 +14250,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -14256,7 +14267,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10">
@@ -14273,7 +14284,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -14374,7 +14385,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="5">
         <v>0.5</v>
@@ -14393,7 +14404,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="10">
         <v>0.25</v>
@@ -14412,7 +14423,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="10">
         <v>1.25</v>
@@ -14431,7 +14442,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -14547,7 +14558,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="10">
         <v>0.5</v>
@@ -14564,7 +14575,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
@@ -14581,7 +14592,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -14598,7 +14609,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -14729,7 +14740,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -14746,7 +14757,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -14892,7 +14903,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -14911,7 +14922,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -15468,8 +15479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15800,7 +15811,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="10">
         <v>0.5</v>
@@ -15817,7 +15828,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="10">
         <v>0.75</v>
@@ -15834,7 +15845,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="10">
         <v>0.2</v>
@@ -15851,7 +15862,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15868,7 +15879,7 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -15885,7 +15896,7 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="10">
         <v>1.75</v>
@@ -15902,7 +15913,7 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -15919,7 +15930,7 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -15936,7 +15947,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -16047,7 +16058,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="10">
         <v>0.5</v>
@@ -16064,7 +16075,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="10">
         <v>0.75</v>
@@ -16081,7 +16092,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="10">
         <v>0.2</v>
@@ -16098,7 +16109,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -16115,7 +16126,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -16132,7 +16143,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="10">
         <v>1.75</v>
@@ -16149,7 +16160,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -16166,7 +16177,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10">
@@ -16271,7 +16282,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" s="10">
         <v>0.75</v>
@@ -16288,7 +16299,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="10">
         <v>0.5</v>
@@ -16305,7 +16316,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="10">
         <v>0.5</v>
@@ -16322,7 +16333,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -16339,7 +16350,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -16440,7 +16451,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
@@ -16457,7 +16468,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="10">
         <v>0.5</v>
@@ -16474,7 +16485,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" s="10">
         <v>0.75</v>
@@ -16491,7 +16502,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B42" s="10">
         <v>0.5</v>
@@ -16508,7 +16519,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10">
@@ -16525,7 +16536,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -16544,7 +16555,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -16561,7 +16572,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -16677,7 +16688,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" s="10">
         <v>0.75</v>
@@ -16694,7 +16705,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="10">
         <v>0.5</v>
@@ -16711,7 +16722,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="10">
         <v>0.5</v>
@@ -16728,7 +16739,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -16745,7 +16756,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10">
@@ -16779,7 +16790,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -16796,7 +16807,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -16815,7 +16826,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -16916,7 +16927,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="10">
         <v>0.5</v>
@@ -16933,7 +16944,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="10">
         <v>0.75</v>
@@ -16950,7 +16961,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" s="10">
         <v>0.5</v>
@@ -16967,7 +16978,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
@@ -16984,7 +16995,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -17001,7 +17012,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -17018,7 +17029,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -17121,7 +17132,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="10">
         <v>0.5</v>
@@ -17138,7 +17149,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="10">
         <v>0.75</v>
@@ -17172,7 +17183,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10">
@@ -17290,7 +17301,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="10">
         <v>0.5</v>
@@ -17307,7 +17318,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B86" s="10">
         <v>0.75</v>
@@ -17324,7 +17335,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="10">
         <v>0.5</v>
@@ -17341,7 +17352,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B88" s="10">
         <v>1</v>
@@ -17358,7 +17369,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10">
@@ -17392,7 +17403,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -17409,7 +17420,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -17428,7 +17439,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -17529,7 +17540,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="10">
         <v>0.5</v>
@@ -17548,7 +17559,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B99" s="10">
         <v>0.75</v>
@@ -17584,7 +17595,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -17702,7 +17713,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="10">
         <v>0.5</v>
@@ -17719,7 +17730,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="10">
         <v>0.5</v>
@@ -17738,7 +17749,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B109" s="10">
         <v>0.75</v>
@@ -17755,7 +17766,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
@@ -17772,7 +17783,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -17786,7 +17797,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10">
@@ -17887,7 +17898,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10">
@@ -17908,7 +17919,7 @@
     </row>
     <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -17925,7 +17936,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -17942,7 +17953,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120" s="10">
         <v>0.75</v>
@@ -18486,8 +18497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18747,7 +18758,8 @@
     <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
     <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
     <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="16120" max="16383" width="8.85546875" style="5"/>
+    <col min="16384" max="16384" width="8.85546875" style="5" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -18817,7 +18829,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="10">
         <v>0.25</v>
@@ -18836,7 +18848,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B6" s="10">
         <v>0.25</v>
@@ -18878,7 +18890,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -18895,7 +18907,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -19008,7 +19020,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="10">
         <v>0.25</v>
@@ -19027,7 +19039,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B15" s="10">
         <v>0.25</v>
@@ -19044,7 +19056,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10">
@@ -19061,7 +19073,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -19179,7 +19191,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="10">
         <v>0.25</v>
@@ -19198,7 +19210,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38">
@@ -19217,7 +19229,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -19234,7 +19246,7 @@
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -19348,7 +19360,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="10">
         <v>0.25</v>
@@ -19367,7 +19379,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B33" s="10">
         <v>0.5</v>
@@ -19380,13 +19392,13 @@
         <v>1</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:H37" si="6">SUM(B33:G33)</f>
+        <f t="shared" ref="H33:H35" si="6">SUM(B33:G33)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
@@ -19403,7 +19415,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -19420,7 +19432,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -19431,7 +19443,7 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="6"/>
+        <f>SUM(B36:G36)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -19444,7 +19456,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="6">
-        <f t="shared" si="6"/>
+        <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
@@ -19534,7 +19546,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="10">
         <v>0.25</v>
@@ -19553,7 +19565,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B43" s="10">
         <v>1.5</v>
@@ -19570,7 +19582,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -19586,7 +19598,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -19603,7 +19615,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -19620,7 +19632,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -19721,7 +19733,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10">
         <v>0.25</v>
@@ -19740,7 +19752,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -19765,11 +19777,11 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -19825,11 +19837,11 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H57" s="11">
         <f>SUM(B57:G57)</f>
-        <v>1.95</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -19884,7 +19896,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -20035,7 +20047,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B70" s="10">
         <v>0.5</v>
@@ -20054,7 +20066,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B71" s="10">
         <v>2</v>
@@ -20075,7 +20087,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -20094,7 +20106,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -20208,10 +20220,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -20222,12 +20234,12 @@
       <c r="G79" s="10"/>
       <c r="H79" s="6">
         <f>SUM(B79:G79)</f>
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -20244,7 +20256,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -20261,7 +20273,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -20278,7 +20290,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -20302,7 +20314,7 @@
       </c>
       <c r="B84" s="11">
         <f t="shared" ref="B84:G84" si="22">SUM(B79:B83)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C84" s="11">
         <f t="shared" si="22"/>
@@ -20326,7 +20338,7 @@
       </c>
       <c r="H84" s="11">
         <f>SUM(B84:G84)</f>
-        <v>10.95</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -20381,7 +20393,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="10">
         <v>0.5</v>
@@ -20402,7 +20414,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -20421,7 +20433,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10">
@@ -20524,7 +20536,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95" s="10">
         <v>0.25</v>
@@ -20543,7 +20555,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B96" s="10">
         <v>0.25</v>
@@ -20559,16 +20571,24 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
+      <c r="A97" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="E97" s="10">
+        <v>2</v>
+      </c>
+      <c r="F97" s="10">
+        <v>2</v>
+      </c>
+      <c r="G97" s="10">
+        <v>8</v>
+      </c>
       <c r="H97" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -20616,19 +20636,19 @@
       </c>
       <c r="E100" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100" s="11">
         <f t="shared" si="28"/>
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G100" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H100" s="11">
         <f>SUM(B100:G100)</f>
-        <v>0.7</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -21109,10 +21129,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21442,8 +21462,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -21451,25 +21475,33 @@
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
+        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -21477,12 +21509,16 @@
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.1</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -21490,158 +21526,178 @@
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B11" s="11">
+        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+        <v>1.55</v>
+      </c>
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(B10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="str">
+      <c r="H11" s="11">
+        <f>SUM(B11:G11)</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B13" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B14" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C14" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D14" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E14" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G14" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H14" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6">
-        <f>SUM(B14:G14)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
-        <v>0</v>
+        <f>SUM(B15:G15)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="H16:H19" si="2">SUM(B16:G16)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -21649,12 +21705,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.1</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -21662,104 +21722,108 @@
       <c r="G18" s="10"/>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B20" s="11">
+        <f t="shared" ref="B20:G20" si="3">SUM(B15:B19)</f>
+        <v>1.55</v>
+      </c>
+      <c r="C20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+      <c r="H20" s="11">
+        <f>SUM(B20:G20)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B22" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B23" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C23" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D23" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E23" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F23" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G23" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H23" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6">
-        <f>SUM(B23:G23)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -21771,7 +21835,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
+        <f>SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
@@ -21784,7 +21848,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H25:H28" si="4">SUM(B25:G25)</f>
         <v>0</v>
       </c>
     </row>
@@ -21814,101 +21878,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B28" s="11">
-        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B29" s="11">
+        <f t="shared" ref="B29:G29" si="5">SUM(B24:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="11">
-        <f>SUM(B28:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
+      <c r="H29" s="11">
+        <f>SUM(B29:G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B31" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B32" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C32" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D32" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E32" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F32" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G32" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H32" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6">
-        <f>SUM(B32:G32)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -21920,7 +21984,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
+        <f>SUM(B33:G33)</f>
         <v>0</v>
       </c>
     </row>
@@ -21933,7 +21997,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H34:H37" si="6">SUM(B34:G34)</f>
         <v>0</v>
       </c>
     </row>
@@ -21963,104 +22027,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B38" s="11">
+        <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <f>SUM(B37:G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="str">
+      <c r="H38" s="11">
+        <f>SUM(B38:G38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B40" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="str">
-        <f t="shared" ref="C40:H40" si="8">C$4</f>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="str">
+        <f t="shared" ref="C41:H41" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H41" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6">
-        <f>SUM(B41:G41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -22068,7 +22132,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
+        <f>SUM(B42:G42)</f>
         <v>0</v>
       </c>
     </row>
@@ -22081,7 +22145,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H43:H46" si="9">SUM(B43:G43)</f>
         <v>0</v>
       </c>
     </row>
@@ -22112,133 +22176,143 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B47" s="11">
+        <f t="shared" ref="B47:G47" si="10">SUM(B42:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <f>SUM(B46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="str">
+      <c r="H47" s="11">
+        <f>SUM(B47:G47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B49" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="str">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B50" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C49" s="8" t="str">
-        <f t="shared" ref="C49:H49" si="11">C$4</f>
+      <c r="C50" s="8" t="str">
+        <f t="shared" ref="C50:H50" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E49" s="8" t="str">
+      <c r="E50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G49" s="8" t="str">
+      <c r="G50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H49" s="8" t="str">
+      <c r="H50" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="6">
-        <f>SUM(B50:G50)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="6">
-        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <f>SUM(B51:G51)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="H52:H54" si="12">SUM(B52:G52)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -22246,136 +22320,141 @@
       <c r="G53" s="10"/>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="6">
+        <f>SUM(B56:G56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B55" s="11">
-        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:G57" si="13">SUM(B51:B56)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <f>SUM(B55:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="str">
+      <c r="H57" s="11">
+        <f>SUM(B57:G57)</f>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B59" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="str">
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B60" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58:H58" si="14">C$4</f>
+      <c r="C60" s="8" t="str">
+        <f t="shared" ref="C60:H60" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="6">
-        <f>SUM(B59:G59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="6">
-        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -22383,7 +22462,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="15"/>
+        <f>SUM(B61:G61)</f>
         <v>0</v>
       </c>
     </row>
@@ -22396,7 +22475,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H62:H65" si="15">SUM(B62:G62)</f>
         <v>0</v>
       </c>
     </row>
@@ -22414,146 +22493,156 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B64" s="11">
-        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:G66" si="16">SUM(B61:B65)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="11">
-        <f>SUM(B64:G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="str">
+      <c r="H66" s="11">
+        <f>SUM(B66:G66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B68" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="str">
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="49"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B69" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:H67" si="17">C$4</f>
+      <c r="C69" s="8" t="str">
+        <f t="shared" ref="C69:H69" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D67" s="8" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F67" s="8" t="str">
+      <c r="F69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G67" s="8" t="str">
+      <c r="G69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="6">
-        <f>SUM(B68:G68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>SUM(B70:G70)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="H71:H74" si="18">SUM(B71:G71)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -22561,123 +22650,123 @@
       <c r="G72" s="10"/>
       <c r="H72" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:G75" si="19">SUM(B70:B74)</f>
+        <v>1.7</v>
+      </c>
+      <c r="C75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="11">
-        <f>SUM(B73:G73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="str">
+      <c r="H75" s="11">
+        <f>SUM(B75:G75)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B77" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="str">
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="49"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B78" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f t="shared" ref="C76:H76" si="20">C$4</f>
+      <c r="C78" s="8" t="str">
+        <f t="shared" ref="C78:H78" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D76" s="8" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E76" s="8" t="str">
+      <c r="E78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F76" s="8" t="str">
+      <c r="F78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G76" s="8" t="str">
+      <c r="G78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H76" s="8" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6">
-        <f>SUM(B77:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="6">
-        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -22685,21 +22774,25 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="21"/>
+        <f>SUM(B79:G79)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="H80:H83" si="21">SUM(B80:G80)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -22716,119 +22809,119 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B82" s="11">
-        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="B84" s="11">
+        <f t="shared" ref="B84:G84" si="22">SUM(B79:B83)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
+        <v>2</v>
+      </c>
+      <c r="D84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <f>SUM(B82:G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="str">
+      <c r="H84" s="11">
+        <f>SUM(B84:G84)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B86" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="str">
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="49"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B87" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" ref="C85:H85" si="23">C$4</f>
+      <c r="C87" s="8" t="str">
+        <f t="shared" ref="C87:H87" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D85" s="8" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F85" s="8" t="str">
+      <c r="F87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G85" s="8" t="str">
+      <c r="G87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H85" s="8" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="6">
-        <f>SUM(B86:G86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="6">
-        <f t="shared" ref="H87:H89" si="24">SUM(B87:G87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -22836,7 +22929,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="24"/>
+        <f>SUM(B88:G88)</f>
         <v>0</v>
       </c>
     </row>
@@ -22849,124 +22942,124 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
+        <f t="shared" ref="H89:H91" si="24">SUM(B89:G89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="6">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="str">
-        <f>$A$10</f>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B90" s="11">
-        <f t="shared" ref="B90:G90" si="25">SUM(B86:B89)</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="11">
+      <c r="B92" s="11">
+        <f t="shared" ref="B92:G92" si="25">SUM(B88:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G92" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H90" s="11">
-        <f>SUM(B90:G90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="str">
+      <c r="H92" s="11">
+        <f>SUM(B92:G92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B92" s="47" t="str">
+      <c r="B94" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="49"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="str">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="49"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B93" s="8" t="str">
+      <c r="B95" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C93" s="8" t="str">
-        <f t="shared" ref="C93:H93" si="26">C$4</f>
+      <c r="C95" s="8" t="str">
+        <f t="shared" ref="C95:H95" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D93" s="8" t="str">
+      <c r="D95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E93" s="8" t="str">
+      <c r="E95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F93" s="8" t="str">
+      <c r="F95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G93" s="8" t="str">
+      <c r="G95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H93" s="8" t="str">
+      <c r="H95" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="6">
-        <f>SUM(B94:G94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="6">
-        <f t="shared" ref="H95:H98" si="27">SUM(B95:G95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -22974,7 +23067,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="6">
-        <f t="shared" si="27"/>
+        <f>SUM(B96:G96)</f>
         <v>0</v>
       </c>
     </row>
@@ -22987,7 +23080,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H97:H100" si="27">SUM(B97:G97)</f>
         <v>0</v>
       </c>
     </row>
@@ -23005,119 +23098,119 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B99" s="11">
-        <f t="shared" ref="B99:G99" si="28">SUM(B94:B98)</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="11">
+      <c r="B101" s="11">
+        <f t="shared" ref="B101:G101" si="28">SUM(B96:B100)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G101" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H99" s="11">
-        <f>SUM(B99:G99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="12">
+      <c r="H101" s="11">
+        <f>SUM(B101:G101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B101" s="47" t="str">
+      <c r="B103" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="49"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="str">
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="49"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B102" s="8" t="str">
+      <c r="B104" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C102" s="8" t="str">
-        <f t="shared" ref="C102:H102" si="29">C$4</f>
+      <c r="C104" s="8" t="str">
+        <f t="shared" ref="C104:H104" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D102" s="8" t="str">
+      <c r="D104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E102" s="8" t="str">
+      <c r="E104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F102" s="8" t="str">
+      <c r="F104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G102" s="8" t="str">
+      <c r="G104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H102" s="8" t="str">
+      <c r="H104" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="6">
-        <f>SUM(B103:G103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="6">
-        <f t="shared" ref="H104:H107" si="30">SUM(B104:G104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -23125,7 +23218,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="6">
-        <f t="shared" si="30"/>
+        <f>SUM(B105:G105)</f>
         <v>0</v>
       </c>
     </row>
@@ -23138,7 +23231,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H106:H109" si="30">SUM(B106:G106)</f>
         <v>0</v>
       </c>
     </row>
@@ -23156,119 +23249,119 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A108" s="9"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B108" s="11">
-        <f t="shared" ref="B108:G108" si="31">SUM(B103:B107)</f>
-        <v>0</v>
-      </c>
-      <c r="C108" s="11">
+      <c r="B110" s="11">
+        <f t="shared" ref="B110:G110" si="31">SUM(B105:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G110" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H108" s="11">
-        <f>SUM(B108:G108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="12">
+      <c r="H110" s="11">
+        <f>SUM(B110:G110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B110" s="47" t="str">
+      <c r="B112" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="49"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="str">
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="49"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B111" s="8" t="str">
+      <c r="B113" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C111" s="8" t="str">
-        <f t="shared" ref="C111:H111" si="32">C$4</f>
+      <c r="C113" s="8" t="str">
+        <f t="shared" ref="C113:H113" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D111" s="8" t="str">
+      <c r="D113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E111" s="8" t="str">
+      <c r="E113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F111" s="8" t="str">
+      <c r="F113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G111" s="8" t="str">
+      <c r="G113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H111" s="8" t="str">
+      <c r="H113" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="6">
-        <f>SUM(B112:G112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="6">
-        <f t="shared" ref="H113:H116" si="33">SUM(B113:G113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -23276,7 +23369,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="6">
-        <f t="shared" si="33"/>
+        <f>SUM(B114:G114)</f>
         <v>0</v>
       </c>
     </row>
@@ -23289,7 +23382,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H115:H118" si="33">SUM(B115:G115)</f>
         <v>0</v>
       </c>
     </row>
@@ -23307,119 +23400,119 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B117" s="11">
-        <f t="shared" ref="B117:G117" si="34">SUM(B112:B116)</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="11">
+      <c r="B119" s="11">
+        <f t="shared" ref="B119:G119" si="34">SUM(B114:B118)</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G119" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H117" s="11">
-        <f>SUM(B117:G117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="12">
+      <c r="H119" s="11">
+        <f>SUM(B119:G119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B119" s="47" t="str">
+      <c r="B121" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="49"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="str">
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="49"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B120" s="8" t="str">
+      <c r="B122" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C120" s="8" t="str">
-        <f t="shared" ref="C120:H120" si="35">C$4</f>
+      <c r="C122" s="8" t="str">
+        <f t="shared" ref="C122:H122" si="35">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D120" s="8" t="str">
+      <c r="D122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Wo</v>
       </c>
-      <c r="E120" s="8" t="str">
+      <c r="E122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Do</v>
       </c>
-      <c r="F120" s="8" t="str">
+      <c r="F122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Vr</v>
       </c>
-      <c r="G120" s="8" t="str">
+      <c r="G122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H120" s="8" t="str">
+      <c r="H122" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="6">
-        <f>SUM(B121:G121)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="6">
-        <f t="shared" ref="H122:H125" si="36">SUM(B122:G122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -23427,7 +23520,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="6">
-        <f t="shared" si="36"/>
+        <f>SUM(B123:G123)</f>
         <v>0</v>
       </c>
     </row>
@@ -23440,7 +23533,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H124:H127" si="36">SUM(B124:G124)</f>
         <v>0</v>
       </c>
     </row>
@@ -23458,56 +23551,82 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B126" s="11">
-        <f t="shared" ref="B126:G126" si="37">SUM(B121:B125)</f>
-        <v>0</v>
-      </c>
-      <c r="C126" s="11">
+      <c r="B128" s="11">
+        <f t="shared" ref="B128:G128" si="37">SUM(B123:B127)</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G128" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H126" s="11">
-        <f>SUM(B126:G126)</f>
+      <c r="H128" s="11">
+        <f>SUM(B128:G128)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26185,16 +26304,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\philipposslicher\sketchymine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB9A321-4E81-4E37-811E-3C5AC20FAF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{255E4DC8-9692-4BA5-902D-21E435A02983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10680" windowWidth="29040" windowHeight="15720" tabRatio="835" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="202">
   <si>
     <t>Invulinstructie</t>
   </si>
@@ -327,6 +328,9 @@
     <t>Scrum Meeting</t>
   </si>
   <si>
+    <t>US05 - Bl04</t>
+  </si>
+  <si>
     <t xml:space="preserve">US03 BI06 Create the logic for the canvas </t>
   </si>
   <si>
@@ -438,6 +442,9 @@
     <t>Sprint planning meeting</t>
   </si>
   <si>
+    <t>SCRUM group meeting</t>
+  </si>
+  <si>
     <t>SCRUM group planning</t>
   </si>
   <si>
@@ -453,7 +460,13 @@
     <t>Sprint retrospecitve meeting</t>
   </si>
   <si>
+    <t>Docs: protocol spec and code comments</t>
+  </si>
+  <si>
     <t>presentation preperation</t>
+  </si>
+  <si>
+    <t>US01-BI05</t>
   </si>
   <si>
     <t>presentation preparation</t>
@@ -471,6 +484,9 @@
     <t>moderator wireframes</t>
   </si>
   <si>
+    <t>documentation</t>
+  </si>
+  <si>
     <t>US04-BI06</t>
   </si>
   <si>
@@ -480,7 +496,13 @@
     <t>US01-BI04</t>
   </si>
   <si>
+    <t>US04-BI04</t>
+  </si>
+  <si>
     <t>Us01-Bi0 login page</t>
+  </si>
+  <si>
+    <t>US11- Bl01</t>
   </si>
   <si>
     <t>Retrospective meeting</t>
@@ -489,10 +511,10 @@
     <t>US11 - Bl06</t>
   </si>
   <si>
-    <t>documentation</t>
+    <t>US02 - BI01  Ranking page (frontend)</t>
   </si>
   <si>
-    <t>SCRUM group meeting</t>
+    <t>US01 - BI06  Homescreen page (frontend)</t>
   </si>
   <si>
     <t>US11-BI03 Send updates to the frontend about team progression from the backend</t>
@@ -501,13 +523,19 @@
     <t>US11-BI08 Define the progress that the team should progress in each round in the backend.</t>
   </si>
   <si>
-    <t>Docs: protocol spec and code comments</t>
+    <t>US11-BI05</t>
   </si>
   <si>
-    <t>US05 - Bl04</t>
+    <t>US11-BI09</t>
   </si>
   <si>
-    <t>US01-BI05</t>
+    <t>Help on US11-BI01</t>
+  </si>
+  <si>
+    <t>US03-BI05, US10-BI02 &amp; US10-BIO3</t>
+  </si>
+  <si>
+    <t>backend assigned roles, drawers can see the word to draw, start round button is clickable only when no round is ongoing</t>
   </si>
   <si>
     <t>us07bi01</t>
@@ -516,67 +544,40 @@
     <t>backlogs documentation</t>
   </si>
   <si>
-    <t>SCRUM Group meeting</t>
-  </si>
-  <si>
-    <t>SCRUM meeting/Group meeting</t>
-  </si>
-  <si>
-    <t>US04-BI04</t>
-  </si>
-  <si>
-    <t>US03-BI05, US10-BI02 &amp; US10-BIO3</t>
-  </si>
-  <si>
-    <t>US11-BI09</t>
-  </si>
-  <si>
-    <t>US11-BI05</t>
-  </si>
-  <si>
-    <t>Documentation/Gitlab issues addition</t>
-  </si>
-  <si>
     <t xml:space="preserve">US11-BI04 </t>
   </si>
   <si>
     <t>fixing and testing Ranking system</t>
   </si>
   <si>
+    <t>US08 Bl03 and GIT fixes</t>
+  </si>
+  <si>
+    <t>Could not work due to being ill.</t>
+  </si>
+  <si>
+    <t>SCRUM meeting/Group meeting</t>
+  </si>
+  <si>
     <t>US08-BI01</t>
   </si>
   <si>
-    <t>US01 - BI06  Homescreen page (frontend)</t>
-  </si>
-  <si>
-    <t>US02 - BI01  Ranking page (frontend)</t>
-  </si>
-  <si>
-    <t>US02 - BI01 - Ranking page (frontend improved, backend connection)</t>
-  </si>
-  <si>
-    <t>US08 Bl02 - Create the moderator screen/view of the game</t>
-  </si>
-  <si>
-    <t>backend assigned roles, drawers can see the word to draw, start round button is clickable only when no round is ongoing</t>
-  </si>
-  <si>
-    <t>US08 Bl03 and GIT fixes</t>
-  </si>
-  <si>
-    <t>Help on US11-BI01</t>
-  </si>
-  <si>
-    <t>US11- Bl01</t>
-  </si>
-  <si>
-    <t>Could not work due to being ill.</t>
+    <t>Documentation/Gitlab issues addition</t>
   </si>
   <si>
     <t>Fix Chat Overflow</t>
   </si>
   <si>
     <t>Helping team member</t>
+  </si>
+  <si>
+    <t>US08 Bl02 - Create the moderator screen/view of the game</t>
+  </si>
+  <si>
+    <t>US02 - BI01 - Ranking page (frontend improved, backend connection)</t>
+  </si>
+  <si>
+    <t>SCRUM Group meeting</t>
   </si>
   <si>
     <t>Team statistics, game assets</t>
@@ -588,14 +589,74 @@
     <t>SCRUM group standup</t>
   </si>
   <si>
+    <t>US04-BI09</t>
+  </si>
+  <si>
+    <t>Play test</t>
+  </si>
+  <si>
     <t>US01-BI07</t>
+  </si>
+  <si>
+    <t>Big fixes and polishing</t>
+  </si>
+  <si>
+    <t>US12-03 &amp; US12-04</t>
+  </si>
+  <si>
+    <t>git conflict and binding warning form with button</t>
+  </si>
+  <si>
+    <t>restricted canvas at the end of a round + added a notifcation for sent warnings</t>
+  </si>
+  <si>
+    <t>us12bi01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRUM stand up </t>
+  </si>
+  <si>
+    <t>us12bi02</t>
+  </si>
+  <si>
+    <t>Daily standup</t>
+  </si>
+  <si>
+    <t>fixing emerald calculator and testing</t>
+  </si>
+  <si>
+    <t>US04-BI05</t>
+  </si>
+  <si>
+    <t>US06-BI01</t>
+  </si>
+  <si>
+    <t>SCRUM group standup/Pitch meeting</t>
+  </si>
+  <si>
+    <t>Fixing bugs and polishing</t>
+  </si>
+  <si>
+    <t>Game Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fix: Spectators cant see the timer,fixing merge conflicts </t>
+  </si>
+  <si>
+    <t>Bug - Reset last time taken</t>
+  </si>
+  <si>
+    <t>UI Improvements</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +829,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FF303030"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -980,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,6 +1154,12 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,12 +1172,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,6 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,10 +1317,10 @@
                   <c:v>7.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.05</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1325,10 +1403,10 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1411,10 +1489,10 @@
                   <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1497,10 +1575,10 @@
                   <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1583,10 +1661,10 @@
                   <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1669,10 +1747,10 @@
                   <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1755,7 +1833,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1841,10 +1919,10 @@
                   <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1927,10 +2005,10 @@
                   <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>7.1499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2015,7 +2093,7 @@
                   <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2104,7 +2182,7 @@
                   <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2659,13 +2737,13 @@
                   <c:v>559.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>547.56999999999994</c:v>
+                  <c:v>491.98999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>547.56999999999994</c:v>
+                  <c:v>482.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>547.56999999999994</c:v>
+                  <c:v>482.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,32 +4271,32 @@
         <f>Totaal!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -4368,16 +4446,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -4517,16 +4595,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4666,16 +4744,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4815,16 +4893,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4966,16 +5044,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -5117,16 +5195,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -5268,16 +5346,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -5419,16 +5497,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -5570,16 +5648,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5721,16 +5799,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="47" t="str">
+      <c r="B93" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -5872,16 +5950,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="47" t="str">
+      <c r="B102" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -6023,16 +6101,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="47" t="str">
+      <c r="B111" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="49"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -6174,16 +6252,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="47" t="str">
+      <c r="B120" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="49"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="51"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -6322,21 +6400,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B93:H93"/>
     <mergeCell ref="B102:H102"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6347,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6550,10 +6628,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="46"/>
       <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
@@ -6586,10 +6664,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -6616,12 +6694,12 @@
         <v>7.4600000000000009</v>
       </c>
       <c r="J2" s="3">
-        <f>'Week (6)'!$H$11</f>
-        <v>4.05</v>
+        <f>'Week (6)'!$H$14</f>
+        <v>8.68</v>
       </c>
       <c r="K2" s="3">
         <f>'Week (7)'!$H$10</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L2" s="3">
         <f>'Week (8)'!$H$10</f>
@@ -6629,12 +6707,12 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>70.58</v>
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
@@ -6659,12 +6737,12 @@
         <v>3.2</v>
       </c>
       <c r="J3" s="3">
-        <f>'Week (6)'!$H$20</f>
-        <v>2.0499999999999998</v>
+        <f>'Week (6)'!$H$25</f>
+        <v>7.1</v>
       </c>
       <c r="K3" s="3">
         <f>'Week (7)'!$H$19</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L3" s="3">
         <f>'Week (8)'!$H$19</f>
@@ -6672,14 +6750,14 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>67.349999999999994</v>
+        <v>73.199999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -6706,12 +6784,12 @@
         <v>11.2</v>
       </c>
       <c r="J4" s="3">
-        <f>'Week (6)'!$H$29</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$38</f>
+        <v>9.5</v>
       </c>
       <c r="K4" s="3">
         <f>'Week (7)'!$H$28</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L4" s="3">
         <f>'Week (8)'!$H$28</f>
@@ -6719,12 +6797,12 @@
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>39.049999999999997</v>
+        <v>48.849999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
@@ -6749,12 +6827,12 @@
         <v>5.45</v>
       </c>
       <c r="J5" s="3">
-        <f>'Week (6)'!$H$38</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$51</f>
+        <v>6.25</v>
       </c>
       <c r="K5" s="3">
         <f>'Week (7)'!$H$37</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L5" s="3">
         <f>'Week (8)'!$H$37</f>
@@ -6762,7 +6840,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>49.05</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,12 +6870,12 @@
         <v>7.55</v>
       </c>
       <c r="J6" s="3">
-        <f>'Week (6)'!$H$47</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$63</f>
+        <v>8.75</v>
       </c>
       <c r="K6" s="3">
         <f>'Week (7)'!$H$46</f>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L6" s="3">
         <f>'Week (8)'!$H$46</f>
@@ -6805,7 +6883,7 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6" si="1">SUM(E6:L6)</f>
-        <v>51.5</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6835,12 +6913,12 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="J7" s="3">
-        <f>'Week (6)'!$H$57</f>
-        <v>2.4500000000000002</v>
+        <f>'Week (6)'!$H$76</f>
+        <v>7.5</v>
       </c>
       <c r="K7" s="3">
         <f>'Week (7)'!$H$55</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L7" s="3">
         <f>'Week (8)'!$H$55</f>
@@ -6848,7 +6926,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M15" si="2">SUM(E7:L7)</f>
-        <v>19.25</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6878,8 +6956,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>'Week (6)'!$H$66</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$86</f>
+        <v>1.55</v>
       </c>
       <c r="K8" s="3">
         <f>'Week (7)'!$H$64</f>
@@ -6891,7 +6969,7 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>35.450000000000003</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6921,12 +6999,12 @@
         <v>13.7</v>
       </c>
       <c r="J9" s="3">
-        <f>'Week (6)'!$H$75</f>
-        <v>1.7</v>
+        <f>'Week (6)'!$H$95</f>
+        <v>3.25</v>
       </c>
       <c r="K9" s="3">
         <f>'Week (7)'!$H$73</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="3">
         <f>'Week (8)'!$H$73</f>
@@ -6934,7 +7012,7 @@
       </c>
       <c r="M9" s="4">
         <f t="shared" si="2"/>
-        <v>50.8</v>
+        <v>53.149999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6964,12 +7042,12 @@
         <v>11.2</v>
       </c>
       <c r="J10" s="3">
-        <f>'Week (6)'!$H$84</f>
-        <v>2</v>
+        <f>'Week (6)'!$H$105</f>
+        <v>7.1499999999999995</v>
       </c>
       <c r="K10" s="3">
         <f>'Week (7)'!$H$82</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="3">
         <f>'Week (8)'!$H$82</f>
@@ -6977,7 +7055,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="2"/>
-        <v>50.3</v>
+        <v>55.749999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,8 +7085,8 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J11" s="3">
-        <f>'Week (6)'!$H$92</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$113</f>
+        <v>1.55</v>
       </c>
       <c r="K11" s="3">
         <f>'Week (7)'!$H$91</f>
@@ -7020,7 +7098,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="2"/>
-        <v>40.450000000000003</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7050,8 +7128,8 @@
         <v>12.7</v>
       </c>
       <c r="J12" s="3">
-        <f>'Week (6)'!$H$101</f>
-        <v>0</v>
+        <f>'Week (6)'!$H$122</f>
+        <v>6.55</v>
       </c>
       <c r="K12" s="3">
         <f>'Week (7)'!$H$100</f>
@@ -7063,7 +7141,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="2"/>
-        <v>41.2</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>'Week (6)'!$H$110</f>
+        <f>'Week (6)'!$H$131</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -7132,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>'Week (6)'!$H$119</f>
+        <f>'Week (6)'!$H$140</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
@@ -7173,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>'Week (6)'!$H$128</f>
+        <f>'Week (6)'!$H$149</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -7217,11 +7295,11 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" si="3"/>
-        <v>12.25</v>
+        <v>67.83</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="3"/>
@@ -7252,7 +7330,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20">
         <f>SUM(J16:L16)</f>
-        <v>12.25</v>
+        <v>76.98</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,15 +7361,15 @@
       </c>
       <c r="J18" s="18">
         <f t="shared" si="4"/>
-        <v>547.56999999999994</v>
+        <v>491.98999999999995</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="4"/>
-        <v>547.56999999999994</v>
+        <v>482.84</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
-        <v>547.56999999999994</v>
+        <v>482.84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7630,30 +7708,30 @@
         <f>Totaal!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -7860,16 +7938,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B14" s="47" t="str">
+      <c r="B14" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
@@ -8074,16 +8152,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B26" s="47" t="str">
+      <c r="B26" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
@@ -8255,16 +8333,16 @@
       <c r="A36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="47" t="str">
+      <c r="B36" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
@@ -8432,16 +8510,16 @@
       <c r="A46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="47" t="str">
+      <c r="B46" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="str">
@@ -8643,16 +8721,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -8811,16 +8889,16 @@
       <c r="A66" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9022,16 +9100,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -9210,16 +9288,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B87" s="47" t="str">
+      <c r="B87" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="49"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="51"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="str">
@@ -9391,16 +9469,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B96" s="47" t="str">
+      <c r="B96" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="49"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="51"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="str">
@@ -9554,16 +9632,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B105" s="47" t="str">
+      <c r="B105" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="49"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="51"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="str">
@@ -9709,16 +9787,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B114" s="47" t="str">
+      <c r="B114" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="49"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="51"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="str">
@@ -9860,16 +9938,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B123" s="47" t="str">
+      <c r="B123" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="49"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="51"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="str">
@@ -10011,16 +10089,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B132" s="47" t="str">
+      <c r="B132" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="49"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="51"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="str">
@@ -10159,21 +10237,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B87:H87"/>
     <mergeCell ref="B96:H96"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B114:H114"/>
     <mergeCell ref="B123:H123"/>
     <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B36:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10458,32 +10536,32 @@
         <f>Totaal!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10680,16 +10758,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -10851,16 +10929,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B22" s="47" t="str">
+      <c r="B22" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -11016,16 +11094,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B31" s="47" t="str">
+      <c r="B31" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -11185,16 +11263,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B40" s="47" t="str">
+      <c r="B40" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -11362,16 +11440,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B49" s="47" t="str">
+      <c r="B49" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -11513,16 +11591,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B58" s="47" t="str">
+      <c r="B58" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="51"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -11686,16 +11764,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B67" s="47" t="str">
+      <c r="B67" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="49"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -11851,16 +11929,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B76" s="47" t="str">
+      <c r="B76" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -11934,7 +12012,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
@@ -12016,16 +12094,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B85" s="47" t="str">
+      <c r="B85" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="49"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -12080,7 +12158,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10">
@@ -12181,16 +12259,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B94" s="47" t="str">
+      <c r="B94" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="51"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="str">
@@ -12243,7 +12321,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -12260,7 +12338,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -12340,16 +12418,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B103" s="47" t="str">
+      <c r="B103" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="49"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="51"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="str">
@@ -12491,16 +12569,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B112" s="47" t="str">
+      <c r="B112" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="49"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="51"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="str">
@@ -12642,16 +12720,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B121" s="47" t="str">
+      <c r="B121" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="49"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="51"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="str">
@@ -12790,21 +12868,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B76:H76"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B94:H94"/>
     <mergeCell ref="B103:H103"/>
     <mergeCell ref="B112:H112"/>
     <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13084,32 +13162,32 @@
         <f>Totaal!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13166,7 +13244,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13189,7 +13267,7 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13208,7 +13286,7 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13227,7 +13305,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13286,7 +13364,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="L11" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
@@ -13294,16 +13372,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13341,7 +13419,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="10">
         <v>0.5</v>
@@ -13360,7 +13438,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -13394,7 +13472,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -13411,7 +13489,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13445,7 +13523,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -13499,16 +13577,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B23" s="47" t="str">
+      <c r="B23" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -13546,7 +13624,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="10">
         <v>0.5</v>
@@ -13565,7 +13643,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -13582,7 +13660,7 @@
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -13599,7 +13677,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -13616,7 +13694,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -13670,16 +13748,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B32" s="47" t="str">
+      <c r="B32" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -13717,7 +13795,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10">
         <v>0.5</v>
@@ -13734,7 +13812,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="10">
         <v>0.25</v>
@@ -13751,7 +13829,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="10">
         <v>0.5</v>
@@ -13768,7 +13846,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -13785,7 +13863,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -13839,16 +13917,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B41" s="47" t="str">
+      <c r="B41" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -13886,7 +13964,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="10">
         <v>0.5</v>
@@ -13905,7 +13983,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" s="5">
         <v>0.25</v>
@@ -13924,7 +14002,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="10">
         <v>1.25</v>
@@ -13943,7 +14021,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -14012,16 +14090,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -14076,7 +14154,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="10">
         <v>0.5</v>
@@ -14093,7 +14171,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -14173,16 +14251,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B59" s="47" t="str">
+      <c r="B59" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -14250,7 +14328,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -14267,7 +14345,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10">
@@ -14284,7 +14362,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -14338,16 +14416,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -14385,7 +14463,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="5">
         <v>0.5</v>
@@ -14404,7 +14482,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B71" s="10">
         <v>0.25</v>
@@ -14423,7 +14501,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="10">
         <v>1.25</v>
@@ -14442,7 +14520,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -14511,16 +14589,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -14558,7 +14636,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="10">
         <v>0.5</v>
@@ -14575,7 +14653,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10">
@@ -14592,7 +14670,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -14609,7 +14687,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -14676,16 +14754,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -14740,7 +14818,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -14757,7 +14835,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -14841,16 +14919,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B95" s="47" t="str">
+      <c r="B95" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="49"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="51"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="str">
@@ -14903,7 +14981,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -14922,7 +15000,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -15004,16 +15082,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B104" s="47" t="str">
+      <c r="B104" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="49"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="51"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="str">
@@ -15155,16 +15233,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B113" s="47" t="str">
+      <c r="B113" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="49"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="51"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="str">
@@ -15306,16 +15384,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B122" s="47" t="str">
+      <c r="B122" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="49"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="51"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="str">
@@ -15454,21 +15532,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B95:H95"/>
     <mergeCell ref="B104:H104"/>
     <mergeCell ref="B113:H113"/>
     <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15479,8 +15557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15748,32 +15826,32 @@
         <f>Totaal!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15811,7 +15889,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="10">
         <v>0.5</v>
@@ -15828,7 +15906,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="10">
         <v>0.75</v>
@@ -15845,7 +15923,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="10">
         <v>0.2</v>
@@ -15862,7 +15940,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15879,7 +15957,7 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -15896,7 +15974,7 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" s="10">
         <v>1.75</v>
@@ -15913,7 +15991,7 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -15930,7 +16008,7 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -15947,7 +16025,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -16011,16 +16089,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B16" s="47" t="str">
+      <c r="B16" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
@@ -16058,7 +16136,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" s="10">
         <v>0.5</v>
@@ -16075,7 +16153,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" s="10">
         <v>0.75</v>
@@ -16092,7 +16170,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="10">
         <v>0.2</v>
@@ -16109,7 +16187,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -16126,7 +16204,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -16143,7 +16221,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="10">
         <v>1.75</v>
@@ -16160,7 +16238,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -16177,7 +16255,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10">
@@ -16235,16 +16313,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B28" s="47" t="str">
+      <c r="B28" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
@@ -16282,7 +16360,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30" s="10">
         <v>0.75</v>
@@ -16299,7 +16377,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" s="10">
         <v>0.5</v>
@@ -16316,7 +16394,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="10">
         <v>0.5</v>
@@ -16333,7 +16411,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -16350,7 +16428,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -16404,16 +16482,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B37" s="47" t="str">
+      <c r="B37" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
@@ -16451,7 +16529,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
@@ -16468,7 +16546,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" s="10">
         <v>0.5</v>
@@ -16485,7 +16563,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B41" s="10">
         <v>0.75</v>
@@ -16502,7 +16580,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B42" s="10">
         <v>0.5</v>
@@ -16519,7 +16597,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10">
@@ -16536,7 +16614,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -16555,7 +16633,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -16572,7 +16650,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -16641,16 +16719,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -16688,7 +16766,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B52" s="10">
         <v>0.75</v>
@@ -16705,7 +16783,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="10">
         <v>0.5</v>
@@ -16722,7 +16800,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="10">
         <v>0.5</v>
@@ -16739,7 +16817,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -16756,7 +16834,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10">
@@ -16790,7 +16868,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -16807,7 +16885,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -16826,7 +16904,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -16880,16 +16958,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B63" s="47" t="str">
+      <c r="B63" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="str">
@@ -16927,7 +17005,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="10">
         <v>0.5</v>
@@ -16944,7 +17022,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66" s="10">
         <v>0.75</v>
@@ -16961,7 +17039,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" s="10">
         <v>0.5</v>
@@ -16978,7 +17056,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
@@ -16995,7 +17073,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -17012,7 +17090,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -17029,7 +17107,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -17085,16 +17163,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B74" s="47" t="str">
+      <c r="B74" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
@@ -17132,7 +17210,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="10">
         <v>0.5</v>
@@ -17149,7 +17227,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="10">
         <v>0.75</v>
@@ -17183,7 +17261,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10">
@@ -17254,16 +17332,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B83" s="47" t="str">
+      <c r="B83" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="str">
@@ -17301,7 +17379,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="10">
         <v>0.5</v>
@@ -17318,7 +17396,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" s="10">
         <v>0.75</v>
@@ -17335,7 +17413,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="10">
         <v>0.5</v>
@@ -17352,7 +17430,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B88" s="10">
         <v>1</v>
@@ -17369,7 +17447,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10">
@@ -17403,7 +17481,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -17420,7 +17498,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -17439,7 +17517,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -17493,16 +17571,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B96" s="47" t="str">
+      <c r="B96" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="49"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="51"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="str">
@@ -17540,7 +17618,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" s="10">
         <v>0.5</v>
@@ -17559,7 +17637,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B99" s="10">
         <v>0.75</v>
@@ -17595,7 +17673,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -17666,16 +17744,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B105" s="47" t="str">
+      <c r="B105" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="49"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="51"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="str">
@@ -17713,7 +17791,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" s="10">
         <v>0.5</v>
@@ -17730,7 +17808,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" s="10">
         <v>0.5</v>
@@ -17749,7 +17827,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" s="10">
         <v>0.75</v>
@@ -17766,7 +17844,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
@@ -17783,7 +17861,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -17797,7 +17875,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10">
@@ -17851,16 +17929,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B115" s="47" t="str">
+      <c r="B115" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="49"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="51"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="str">
@@ -17898,7 +17976,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10">
@@ -17919,7 +17997,7 @@
     </row>
     <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -17936,7 +18014,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -17953,7 +18031,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B120" s="10">
         <v>0.75</v>
@@ -18022,16 +18100,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B124" s="47" t="str">
+      <c r="B124" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="49"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="51"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="str">
@@ -18173,16 +18251,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B133" s="47" t="str">
+      <c r="B133" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="49"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="51"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="str">
@@ -18324,16 +18402,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B142" s="47" t="str">
+      <c r="B142" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C142" s="48"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="49"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="str">
@@ -18472,21 +18550,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B96:H96"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B115:H115"/>
     <mergeCell ref="B124:H124"/>
     <mergeCell ref="B133:H133"/>
     <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18497,7 +18575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -18767,31 +18845,31 @@
         <f>Totaal!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -18829,7 +18907,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="10">
         <v>0.25</v>
@@ -18848,7 +18926,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B6" s="10">
         <v>0.25</v>
@@ -18890,7 +18968,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -18907,7 +18985,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -18973,16 +19051,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -19020,7 +19098,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="10">
         <v>0.25</v>
@@ -19039,7 +19117,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B15" s="10">
         <v>0.25</v>
@@ -19056,7 +19134,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10">
@@ -19073,7 +19151,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -19144,16 +19222,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -19191,7 +19269,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="10">
         <v>0.25</v>
@@ -19210,7 +19288,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38">
@@ -19229,7 +19307,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -19246,7 +19324,7 @@
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -19313,16 +19391,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -19360,7 +19438,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="10">
         <v>0.25</v>
@@ -19379,7 +19457,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B33" s="10">
         <v>0.5</v>
@@ -19398,7 +19476,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
@@ -19415,7 +19493,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -19432,7 +19510,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -19499,16 +19577,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B40" s="47" t="str">
+      <c r="B40" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -19546,7 +19624,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B42" s="10">
         <v>0.25</v>
@@ -19565,7 +19643,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" s="10">
         <v>1.5</v>
@@ -19582,7 +19660,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -19598,7 +19676,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -19615,7 +19693,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -19632,7 +19710,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -19686,16 +19764,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -19733,7 +19811,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="10">
         <v>0.25</v>
@@ -19752,7 +19830,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -19849,16 +19927,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B59" s="47" t="str">
+      <c r="B59" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -19896,7 +19974,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -20000,16 +20078,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -20047,7 +20125,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B70" s="10">
         <v>0.5</v>
@@ -20066,7 +20144,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B71" s="10">
         <v>2</v>
@@ -20087,7 +20165,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -20106,7 +20184,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -20173,16 +20251,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -20220,7 +20298,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="10">
         <v>0.5</v>
@@ -20239,7 +20317,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -20256,7 +20334,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -20273,7 +20351,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -20290,7 +20368,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -20346,16 +20424,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -20393,7 +20471,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" s="10">
         <v>0.5</v>
@@ -20414,7 +20492,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -20433,7 +20511,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10">
@@ -20489,16 +20567,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="47" t="str">
+      <c r="B93" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -20536,7 +20614,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" s="10">
         <v>0.25</v>
@@ -20555,7 +20633,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B96" s="10">
         <v>0.25</v>
@@ -20656,16 +20734,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="47" t="str">
+      <c r="B102" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -20807,16 +20885,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="47" t="str">
+      <c r="B111" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="49"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -20958,16 +21036,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="47" t="str">
+      <c r="B120" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="49"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="51"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -21106,21 +21184,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B93:H93"/>
     <mergeCell ref="B102:H102"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21129,10 +21207,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21400,31 +21478,31 @@
         <f>Totaal!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -21463,7 +21541,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="10">
         <v>0.2</v>
@@ -21480,7 +21558,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10">
         <v>0.25</v>
@@ -21488,11 +21566,13 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
-        <v>0.25</v>
+        <f t="shared" ref="H6:H8" si="0">SUM(B6:G6)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -21522,16 +21602,18 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10">
@@ -21542,178 +21624,182 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6">
-        <f>SUM(B9:G9)</f>
+        <f t="shared" ref="H9:H14" si="1">SUM(B9:G9)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.75</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+      <c r="B14" s="11">
+        <f t="shared" ref="B14:G14" si="2">SUM(B5:B13)</f>
         <v>1.55</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C14" s="11">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f>SUM(B11:G11)</f>
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="str">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B16" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="str">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B17" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C17" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D17" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E17" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F17" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G17" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H17" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="6">
-        <f>SUM(B15:G15)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="6">
-        <f t="shared" ref="H16:H19" si="2">SUM(B16:G16)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B18" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -21721,323 +21807,356 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f>SUM(B18:G18)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="A19" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H19:H21" si="3">SUM(B19:G19)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="6">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUM(B22:G22)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6">
+        <f>SUM(B23:G23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="str">
-        <f>'Week (1)'!$A$12</f>
-        <v>Totaal</v>
-      </c>
-      <c r="B20" s="11">
-        <f t="shared" ref="B20:G20" si="3">SUM(B15:B19)</f>
-        <v>1.55</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(B20:G20)</f>
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="str">
-        <f>Totaal!D4</f>
-        <v>Vincenzo Savarese</v>
-      </c>
-      <c r="B22" s="47" t="str">
-        <f>$B$3</f>
-        <v>Uren</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
-        <f>'Week (1)'!$A$4</f>
-        <v>Beschrijving activiteit/ user story</v>
-      </c>
-      <c r="B23" s="8" t="str">
-        <f>'Week (1)'!B$4</f>
-        <v>Ma</v>
-      </c>
-      <c r="C23" s="8" t="str">
-        <f>'Week (1)'!C$4</f>
-        <v>Di</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f>'Week (1)'!D$4</f>
-        <v>Wo</v>
-      </c>
-      <c r="E23" s="8" t="str">
-        <f>'Week (1)'!E$4</f>
-        <v>Do</v>
-      </c>
-      <c r="F23" s="8" t="str">
-        <f>'Week (1)'!F$4</f>
-        <v>Vr</v>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f>'Week (1)'!G$4</f>
-        <v>Za/Zo</v>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f>'Week (1)'!H$4</f>
-        <v>Totaal</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
         <f>SUM(B24:G24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="6">
-        <f t="shared" ref="H25:H28" si="4">SUM(B25:G25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B29" s="11">
-        <f t="shared" ref="B29:G29" si="5">SUM(B24:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <f>SUM(B29:G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="str">
-        <f>Totaal!D5</f>
-        <v>Mira Ilieva</v>
-      </c>
-      <c r="B31" s="47" t="str">
+      <c r="B25" s="11">
+        <f t="shared" ref="B25:G25" si="4">SUM(B18:B24)</f>
+        <v>1.55</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="4"/>
+        <v>1.55</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="11">
+        <f>SUM(B25:G25)</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="str">
+        <f>Totaal!D4</f>
+        <v>Vincenzo Savarese</v>
+      </c>
+      <c r="B27" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="str">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B28" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C28" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D28" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E28" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F32" s="8" t="str">
+      <c r="F28" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G32" s="8" t="str">
+      <c r="G28" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H32" s="8" t="str">
+      <c r="H28" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6">
+        <f>SUM(B29:G29)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="6">
+        <f t="shared" ref="H30" si="5">SUM(B30:G30)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="6">
+        <f t="shared" ref="H31:H38" si="6">SUM(B31:G31)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f>SUM(B33:G33)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H37" si="6">SUM(B34:G34)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>2.5</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <v>1.25</v>
+      </c>
       <c r="H37" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -22046,16 +22165,16 @@
         <v>Totaal</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
-        <v>0</v>
+        <f t="shared" ref="B38:G38" si="7">SUM(B29:B37)</f>
+        <v>1.7</v>
       </c>
       <c r="C38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="7"/>
@@ -22063,69 +22182,74 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H38" s="11">
-        <f>SUM(B38:G38)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="str">
-        <f>Totaal!D6</f>
-        <v>Craig Chauraya</v>
-      </c>
-      <c r="B40" s="47" t="str">
+        <f>Totaal!D5</f>
+        <v>Mira Ilieva</v>
+      </c>
+      <c r="B40" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
-        <f>$A$4</f>
+        <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="str">
+        <f>'Week (1)'!B$4</f>
+        <v>Ma</v>
+      </c>
       <c r="C41" s="8" t="str">
-        <f t="shared" ref="C41:H41" si="8">C$4</f>
+        <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
       <c r="D41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
       <c r="H41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -22133,670 +22257,721 @@
       <c r="G42" s="10"/>
       <c r="H42" s="6">
         <f>SUM(B42:G42)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:H46" si="9">SUM(B43:G43)</f>
-        <v>0</v>
+        <f t="shared" ref="H43:H49" si="8">SUM(B43:G43)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="6">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="6">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="6">
+        <f>SUM(B50:G50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="str">
+        <f>'Week (1)'!$A$12</f>
+        <v>Totaal</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" ref="B51:G51" si="9">SUM(B42:B49)</f>
+        <v>2.7</v>
+      </c>
+      <c r="C51" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
-        <f>$A$11</f>
-        <v>Totaal</v>
-      </c>
-      <c r="B47" s="11">
-        <f t="shared" ref="B47:G47" si="10">SUM(B42:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <f>SUM(B47:G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="str">
-        <f>Totaal!D7</f>
-        <v>Ana Kareco</v>
-      </c>
-      <c r="B49" s="47" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <f>SUM(B51:G51)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="str">
+        <f>Totaal!D6</f>
+        <v>Craig Chauraya</v>
+      </c>
+      <c r="B53" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="str">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="51"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B50" s="8" t="str">
-        <f>B$4</f>
-        <v>Ma</v>
-      </c>
-      <c r="C50" s="8" t="str">
-        <f t="shared" ref="C50:H50" si="11">C$4</f>
+      <c r="B54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <f t="shared" ref="C54:H54" si="10">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D50" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="D54" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Wo</v>
       </c>
-      <c r="E50" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="E54" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Do</v>
       </c>
-      <c r="F50" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="F54" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Vr</v>
       </c>
-      <c r="G50" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="G54" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H50" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="H54" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="10">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="10">
         <v>0.2</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="6">
-        <f>SUM(B51:G51)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="6">
-        <f t="shared" ref="H52:H54" si="12">SUM(B52:G52)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="6">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="6">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6">
+        <f>SUM(B55:G55)</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="6">
-        <f>SUM(B56:G56)</f>
+        <f t="shared" ref="H56:H62" si="11">SUM(B56:G56)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="6">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="str">
-        <f>$A$11</f>
-        <v>Totaal</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:G57" si="13">SUM(B51:B56)</f>
-        <v>0.95</v>
-      </c>
-      <c r="C57" s="11">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
-      </c>
-      <c r="D57" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
-        <f>SUM(B57:G57)</f>
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="str">
-        <f>Totaal!D8</f>
-        <v>Vedat Daglar</v>
-      </c>
-      <c r="B59" s="47" t="str">
-        <f>$B$3</f>
-        <v>Uren</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="6">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="6">
+        <f>SUM(B59:G59)</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="str">
-        <f>$A$4</f>
-        <v>Beschrijving activiteit/ user story</v>
-      </c>
-      <c r="B60" s="8" t="str">
-        <f>B$4</f>
-        <v>Ma</v>
-      </c>
-      <c r="C60" s="8" t="str">
-        <f t="shared" ref="C60:H60" si="14">C$4</f>
-        <v>Di</v>
-      </c>
-      <c r="D60" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>Wo</v>
-      </c>
-      <c r="E60" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>Do</v>
-      </c>
-      <c r="F60" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>Vr</v>
-      </c>
-      <c r="G60" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>Za/Zo</v>
-      </c>
-      <c r="H60" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>Totaal</v>
+      <c r="A60" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
+        <v>2</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="6">
+        <f>SUM(B60:G60)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="F61" s="10">
+        <v>2</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
         <f>SUM(B61:G61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" ref="H62:H65" si="15">SUM(B62:G62)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A63" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B66" s="11">
-        <f t="shared" ref="B66:G66" si="16">SUM(B61:B65)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <f>SUM(B66:G66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="str">
-        <f>Totaal!D9</f>
-        <v>Melissa Neamt</v>
-      </c>
-      <c r="B68" s="47" t="str">
+      <c r="B63" s="11">
+        <f t="shared" ref="B63:G63" si="12">SUM(B55:B62)</f>
+        <v>2.7</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="11">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="E63" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="12"/>
+        <v>3.55</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <f>SUM(B63:G63)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="str">
+        <f>Totaal!D7</f>
+        <v>Ana Kareco</v>
+      </c>
+      <c r="B65" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="str">
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B69" s="8" t="str">
+      <c r="B66" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C69" s="8" t="str">
-        <f t="shared" ref="C69:H69" si="17">C$4</f>
+      <c r="C66" s="8" t="str">
+        <f t="shared" ref="C66:H66" si="13">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D69" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="D66" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Wo</v>
       </c>
-      <c r="E69" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="E66" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Do</v>
       </c>
-      <c r="F69" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="F66" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Vr</v>
       </c>
-      <c r="G69" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="G66" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H69" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="H66" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Totaal</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="6">
+        <f>SUM(B67:G67)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="6">
+        <f t="shared" ref="H68:H70" si="14">SUM(B68:G68)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="6">
+        <f t="shared" si="14"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10">
+        <v>0.5</v>
+      </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f>SUM(B70:G70)</f>
-        <v>0.2</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="A71" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H74" si="18">SUM(B71:G71)</f>
-        <v>1</v>
+        <f t="shared" ref="H71:H76" si="15">SUM(B71:G71)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="F74" s="10">
+        <v>1</v>
+      </c>
       <c r="G74" s="10"/>
       <c r="H74" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A75" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B75" s="11">
-        <f t="shared" ref="B75:G75" si="19">SUM(B70:B74)</f>
-        <v>1.7</v>
-      </c>
-      <c r="C75" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <f>SUM(B75:G75)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="str">
-        <f>Totaal!D10</f>
-        <v>Lukman Al-Busaidi</v>
-      </c>
-      <c r="B77" s="47" t="str">
+      <c r="B76" s="11">
+        <f>SUM(B67:B73)</f>
+        <v>1.95</v>
+      </c>
+      <c r="C76" s="11">
+        <f>SUM(C67:C73)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D76" s="11">
+        <f t="shared" ref="D76:G76" si="16">SUM(D67:D72)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="str">
+        <f>Totaal!D8</f>
+        <v>Vedat Daglar</v>
+      </c>
+      <c r="B78" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="str">
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B78" s="8" t="str">
+      <c r="B79" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C78" s="8" t="str">
-        <f t="shared" ref="C78:H78" si="20">C$4</f>
+      <c r="C79" s="8" t="str">
+        <f t="shared" ref="C79:H79" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D78" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="D79" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E78" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="E79" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F78" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="F79" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G78" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="G79" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H78" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="H79" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Totaal</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="6">
-        <f>SUM(B79:G79)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10">
-        <v>2</v>
-      </c>
+      <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" ref="H80:H83" si="21">SUM(B80:G80)</f>
-        <v>2</v>
+        <f>SUM(B80:G80)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -22804,25 +22979,31 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H81:H83" si="18">SUM(B81:G81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="F82" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G82" s="10"/>
       <c r="H82" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
+      <c r="A83" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -22830,728 +23011,808 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A84" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="6">
+        <f>SUM(B84:G84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="6">
+        <f>SUM(B85:G85)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B84" s="11">
-        <f t="shared" ref="B84:G84" si="22">SUM(B79:B83)</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="11">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="D84" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
-        <f>SUM(B84:G84)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="str">
-        <f>Totaal!D11</f>
-        <v>Daria Grigoruk</v>
-      </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="11">
+        <f t="shared" ref="B86:G86" si="19">SUM(B80:B85)</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <f>SUM(F80:F85)</f>
+        <v>1.55</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <f>SUM(B86:G86)</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="str">
+        <f>Totaal!D9</f>
+        <v>Melissa Neamt</v>
+      </c>
+      <c r="B88" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="str">
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="51"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B89" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C87" s="8" t="str">
-        <f t="shared" ref="C87:H87" si="23">C$4</f>
+      <c r="C89" s="8" t="str">
+        <f t="shared" ref="C89:H89" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D87" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="D89" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E87" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="E89" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F87" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="F89" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G87" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="G89" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H87" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="H89" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="6">
-        <f>SUM(B88:G88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="6">
-        <f t="shared" ref="H89:H91" si="24">SUM(B89:G89)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>SUM(B90:G90)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="10">
+        <v>1</v>
+      </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="F91" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G91" s="10"/>
       <c r="H91" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="H91:H94" si="21">SUM(B91:G91)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A92" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="6">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10">
+        <v>1</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="6">
+        <f t="shared" si="21"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B92" s="11">
-        <f t="shared" ref="B92:G92" si="25">SUM(B88:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="11">
-        <f>SUM(B92:G92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="str">
-        <f>Totaal!D12</f>
-        <v>Marko Špišic</v>
-      </c>
-      <c r="B94" s="47" t="str">
+      <c r="B95" s="11">
+        <f t="shared" ref="B95:G95" si="22">SUM(B90:B94)</f>
+        <v>1.7</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="22"/>
+        <v>1.55</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <f>SUM(B95:G95)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="str">
+        <f>Totaal!D10</f>
+        <v>Lukman Al-Busaidi</v>
+      </c>
+      <c r="B97" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="49"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="str">
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="51"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B95" s="8" t="str">
+      <c r="B98" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C95" s="8" t="str">
-        <f t="shared" ref="C95:H95" si="26">C$4</f>
+      <c r="C98" s="8" t="str">
+        <f t="shared" ref="C98:H98" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D95" s="8" t="str">
-        <f t="shared" si="26"/>
+      <c r="D98" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E95" s="8" t="str">
-        <f t="shared" si="26"/>
+      <c r="E98" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F95" s="8" t="str">
-        <f t="shared" si="26"/>
+      <c r="F98" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G95" s="8" t="str">
-        <f t="shared" si="26"/>
+      <c r="G98" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H95" s="8" t="str">
-        <f t="shared" si="26"/>
+      <c r="H98" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="6">
-        <f>SUM(B96:G96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="6">
-        <f t="shared" ref="H97:H100" si="27">SUM(B97:G97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>SUM(B99:G99)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="H100:H102" si="24">SUM(B100:G100)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="10">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="6">
+        <f t="shared" si="24"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="6">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="6">
+        <f>SUM(B103:G103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6">
+        <f>SUM(B104:G104)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="43" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B101" s="11">
-        <f t="shared" ref="B101:G101" si="28">SUM(B96:B100)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="11">
-        <f>SUM(B101:G101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="12">
-        <f>Totaal!D13</f>
-        <v>0</v>
-      </c>
-      <c r="B103" s="47" t="str">
+      <c r="B105" s="11">
+        <f t="shared" ref="B105:G105" si="25">SUM(B99:B104)</f>
+        <v>2.1</v>
+      </c>
+      <c r="C105" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="11">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="25"/>
+        <v>1.55</v>
+      </c>
+      <c r="G105" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H105" s="11">
+        <f>SUM(B105:G105)</f>
+        <v>7.1499999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="str">
+        <f>Totaal!D11</f>
+        <v>Daria Grigoruk</v>
+      </c>
+      <c r="B107" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="49"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="str">
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="51"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B104" s="8" t="str">
+      <c r="B108" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C104" s="8" t="str">
-        <f t="shared" ref="C104:H104" si="29">C$4</f>
+      <c r="C108" s="8" t="str">
+        <f t="shared" ref="C108:H108" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D104" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="D108" s="8" t="str">
+        <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E104" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F104" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="F108" s="8" t="str">
+        <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G104" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="G108" s="8" t="str">
+        <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H104" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H108" s="8" t="str">
+        <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="6">
-        <f>SUM(B105:G105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="6">
-        <f t="shared" ref="H106:H109" si="30">SUM(B106:G106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
+      <c r="A109" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="10">
+        <v>1</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="6">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f>SUM(B109:G109)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A110" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="6">
+        <f t="shared" ref="H110:H112" si="27">SUM(B110:G110)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G111" s="10"/>
+      <c r="H111" s="6">
+        <f t="shared" si="27"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B110" s="11">
-        <f t="shared" ref="B110:G110" si="31">SUM(B105:B109)</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="D110" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="11">
-        <f>SUM(B110:G110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="12">
-        <f>Totaal!D14</f>
-        <v>0</v>
-      </c>
-      <c r="B112" s="47" t="str">
+      <c r="B113" s="11">
+        <f t="shared" ref="B113:G113" si="28">SUM(B109:B112)</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="28"/>
+        <v>1.55</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="11">
+        <f>SUM(B113:G113)</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="str">
+        <f>Totaal!D12</f>
+        <v>Marko Špišic</v>
+      </c>
+      <c r="B115" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="49"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="str">
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="51"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B113" s="8" t="str">
+      <c r="B116" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C113" s="8" t="str">
-        <f t="shared" ref="C113:H113" si="32">C$4</f>
+      <c r="C116" s="8" t="str">
+        <f t="shared" ref="C116:H116" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D113" s="8" t="str">
-        <f t="shared" si="32"/>
+      <c r="D116" s="8" t="str">
+        <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E113" s="8" t="str">
-        <f t="shared" si="32"/>
+      <c r="E116" s="8" t="str">
+        <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F113" s="8" t="str">
-        <f t="shared" si="32"/>
+      <c r="F116" s="8" t="str">
+        <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G113" s="8" t="str">
-        <f t="shared" si="32"/>
+      <c r="G116" s="8" t="str">
+        <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H113" s="8" t="str">
-        <f t="shared" si="32"/>
+      <c r="H116" s="8" t="str">
+        <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="6">
-        <f>SUM(B114:G114)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="6">
-        <f t="shared" ref="H115:H118" si="33">SUM(B115:G115)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
+      <c r="E117" s="10">
+        <v>5</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f>SUM(B117:G117)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
+      <c r="F118" s="10">
+        <v>1</v>
+      </c>
       <c r="G118" s="10"/>
       <c r="H118" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" ref="H118:H121" si="30">SUM(B118:G118)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A119" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="6">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="6">
+        <f t="shared" si="30"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B119" s="11">
-        <f t="shared" ref="B119:G119" si="34">SUM(B114:B118)</f>
-        <v>0</v>
-      </c>
-      <c r="C119" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="D119" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="11">
-        <f>SUM(B119:G119)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="12">
-        <f>Totaal!D15</f>
-        <v>0</v>
-      </c>
-      <c r="B121" s="47" t="str">
+      <c r="B122" s="11">
+        <f t="shared" ref="B122:G122" si="31">SUM(B117:B121)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="11">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="31"/>
+        <v>1.55</v>
+      </c>
+      <c r="G122" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="11">
+        <f>SUM(B122:G122)</f>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="12">
+        <f>Totaal!D13</f>
+        <v>0</v>
+      </c>
+      <c r="B124" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="49"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="str">
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="51"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B122" s="8" t="str">
+      <c r="B125" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C122" s="8" t="str">
-        <f t="shared" ref="C122:H122" si="35">C$4</f>
+      <c r="C125" s="8" t="str">
+        <f t="shared" ref="C125:H125" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D122" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="D125" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E122" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="E125" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F122" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="F125" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G122" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="G125" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H122" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="H125" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="6">
-        <f>SUM(B123:G123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="6">
-        <f t="shared" ref="H124:H127" si="36">SUM(B124:G124)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="6">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -23559,7 +23820,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="6">
-        <f t="shared" si="36"/>
+        <f>SUM(B126:G126)</f>
         <v>0</v>
       </c>
     </row>
@@ -23572,61 +23833,402 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="6">
+        <f t="shared" ref="H127:H130" si="33">SUM(B127:G127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="21" t="str">
+        <f>$A$14</f>
+        <v>Totaal</v>
+      </c>
+      <c r="B131" s="11">
+        <f t="shared" ref="B131:G131" si="34">SUM(B126:B130)</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="11">
+        <f>SUM(B131:G131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="12">
+        <f>Totaal!D14</f>
+        <v>0</v>
+      </c>
+      <c r="B133" s="49" t="str">
+        <f>$B$3</f>
+        <v>Uren</v>
+      </c>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="51"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="str">
+        <f>$A$4</f>
+        <v>Beschrijving activiteit/ user story</v>
+      </c>
+      <c r="B134" s="8" t="str">
+        <f>B$4</f>
+        <v>Ma</v>
+      </c>
+      <c r="C134" s="8" t="str">
+        <f t="shared" ref="C134:H134" si="35">C$4</f>
+        <v>Di</v>
+      </c>
+      <c r="D134" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v>Wo</v>
+      </c>
+      <c r="E134" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v>Do</v>
+      </c>
+      <c r="F134" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v>Vr</v>
+      </c>
+      <c r="G134" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v>Za/Zo</v>
+      </c>
+      <c r="H134" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v>Totaal</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="6">
+        <f>SUM(B135:G135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="6">
+        <f t="shared" ref="H136:H139" si="36">SUM(B136:G136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="9"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="6">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="21" t="str">
-        <f>$A$11</f>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="21" t="str">
+        <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B128" s="11">
-        <f t="shared" ref="B128:G128" si="37">SUM(B123:B127)</f>
-        <v>0</v>
-      </c>
-      <c r="C128" s="11">
+      <c r="B140" s="11">
+        <f t="shared" ref="B140:G140" si="37">SUM(B135:B139)</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D140" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E140" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F140" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G140" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H128" s="11">
-        <f>SUM(B128:G128)</f>
+      <c r="H140" s="11">
+        <f>SUM(B140:G140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A142" s="12">
+        <f>Totaal!D15</f>
+        <v>0</v>
+      </c>
+      <c r="B142" s="49" t="str">
+        <f>$B$3</f>
+        <v>Uren</v>
+      </c>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="51"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="str">
+        <f>$A$4</f>
+        <v>Beschrijving activiteit/ user story</v>
+      </c>
+      <c r="B143" s="8" t="str">
+        <f>B$4</f>
+        <v>Ma</v>
+      </c>
+      <c r="C143" s="8" t="str">
+        <f t="shared" ref="C143:H143" si="38">C$4</f>
+        <v>Di</v>
+      </c>
+      <c r="D143" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>Wo</v>
+      </c>
+      <c r="E143" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>Do</v>
+      </c>
+      <c r="F143" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>Vr</v>
+      </c>
+      <c r="G143" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>Za/Zo</v>
+      </c>
+      <c r="H143" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>Totaal</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="6">
+        <f>SUM(B144:G144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="6">
+        <f t="shared" ref="H145:H148" si="39">SUM(B145:G145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="9"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="9"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="21" t="str">
+        <f>$A$14</f>
+        <v>Totaal</v>
+      </c>
+      <c r="B149" s="11">
+        <f t="shared" ref="B149:G149" si="40">SUM(B144:B148)</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="D149" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="11">
+        <f>SUM(B149:G149)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B77:H77"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B142:H142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23637,8 +24239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23906,32 +24508,32 @@
         <f>Totaal!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="52" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Totaal!D2</f>
         <v>Filippos Slicher</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="49" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -23967,9 +24569,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -23977,25 +24583,35 @@
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -24003,7 +24619,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -24039,7 +24655,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="1"/>
@@ -24063,7 +24679,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -24081,16 +24697,16 @@
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -24126,9 +24742,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -24136,12 +24756,16 @@
       <c r="G14" s="10"/>
       <c r="H14" s="6">
         <f>SUM(B14:G14)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -24149,7 +24773,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="6">
         <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -24198,7 +24822,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="3"/>
@@ -24222,7 +24846,7 @@
       </c>
       <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -24230,16 +24854,16 @@
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -24275,9 +24899,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -24285,7 +24913,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="6">
         <f>SUM(B23:G23)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -24347,7 +24975,7 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="5"/>
@@ -24371,7 +24999,7 @@
       </c>
       <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -24379,16 +25007,16 @@
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -24424,9 +25052,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -24434,7 +25066,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="6">
         <f>SUM(B32:G32)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -24496,7 +25128,7 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="7"/>
@@ -24520,7 +25152,7 @@
       </c>
       <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -24528,16 +25160,16 @@
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -24573,11 +25205,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="10"/>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -24585,12 +25219,16 @@
       <c r="G41" s="10"/>
       <c r="H41" s="6">
         <f>SUM(B41:G41)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2.25</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -24598,7 +25236,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="6">
         <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -24647,7 +25285,7 @@
       </c>
       <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C46" s="11">
         <f t="shared" si="10"/>
@@ -24671,7 +25309,7 @@
       </c>
       <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -24679,16 +25317,16 @@
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -24726,9 +25364,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -24736,12 +25376,16 @@
       <c r="G50" s="10"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -24749,7 +25393,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="6">
         <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -24798,7 +25442,7 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
@@ -24822,7 +25466,7 @@
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -24830,16 +25474,16 @@
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -24981,16 +25625,16 @@
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -25026,11 +25670,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="10"/>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -25038,12 +25684,16 @@
       <c r="G68" s="10"/>
       <c r="H68" s="6">
         <f>SUM(B68:G68)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -25051,7 +25701,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="6">
         <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -25100,7 +25750,7 @@
       </c>
       <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C73" s="11">
         <f t="shared" si="19"/>
@@ -25124,7 +25774,7 @@
       </c>
       <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -25132,16 +25782,16 @@
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -25177,11 +25827,13 @@
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="10"/>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -25189,7 +25841,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="6">
         <f>SUM(B77:G77)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -25251,7 +25903,7 @@
       </c>
       <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C82" s="11">
         <f t="shared" si="22"/>
@@ -25275,7 +25927,7 @@
       </c>
       <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -25283,16 +25935,16 @@
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -25434,16 +26086,16 @@
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="47" t="str">
+      <c r="B93" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="str">
@@ -25585,16 +26237,16 @@
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="47" t="str">
+      <c r="B102" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
@@ -25736,16 +26388,16 @@
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="47" t="str">
+      <c r="B111" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="49"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="str">
@@ -25887,16 +26539,16 @@
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="47" t="str">
+      <c r="B120" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="49"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="51"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
@@ -26035,21 +26687,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B93:H93"/>
     <mergeCell ref="B102:H102"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26057,6 +26709,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EA2F89DD3BEC845B6024554B0FABDF6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4468d2ef933284f01b30a92a546dec5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78" xmlns:ns4="87dba05e-45c5-4db0-9a65-d117fc15f65a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68f6dca78ff19fb315d63369b50fac1" ns3:_="" ns4:_="">
     <xsd:import namespace="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
@@ -26267,22 +26934,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F9465-B5E9-4048-A852-B37AD87D445F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26299,29 +26976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\philipposslicher\sketchymine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{255E4DC8-9692-4BA5-902D-21E435A02983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41EF11ED-C996-43B8-B6EF-14C90F5046A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10680" windowWidth="29040" windowHeight="15720" tabRatio="835" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10680" windowWidth="29040" windowHeight="15720" tabRatio="835" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="213">
   <si>
     <t>Invulinstructie</t>
   </si>
@@ -631,13 +631,43 @@
     <t>US06-BI01</t>
   </si>
   <si>
+    <t>Meeting with team member to work on tasks</t>
+  </si>
+  <si>
+    <t>US11-Bl01</t>
+  </si>
+  <si>
     <t>SCRUM group standup/Pitch meeting</t>
   </si>
   <si>
-    <t>Fixing bugs and polishing</t>
+    <t>Fixing bugs and polishing/Helping team members</t>
   </si>
   <si>
     <t>Game Assets</t>
+  </si>
+  <si>
+    <t>UI Improvements</t>
+  </si>
+  <si>
+    <t>US13-BI01 &amp; US13-BI02</t>
+  </si>
+  <si>
+    <t>Bug fixing and polishing</t>
+  </si>
+  <si>
+    <t>Polish US11-BI07</t>
+  </si>
+  <si>
+    <t>US14 BI01 Automatic start of rounds</t>
+  </si>
+  <si>
+    <t>Bug - Invalid teams can still play (Help Melissa)</t>
+  </si>
+  <si>
+    <t>timer-ends-warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitlab issue board menagement </t>
   </si>
   <si>
     <t xml:space="preserve">Bug fix: Spectators cant see the timer,fixing merge conflicts </t>
@@ -646,10 +676,13 @@
     <t>Bug - Reset last time taken</t>
   </si>
   <si>
-    <t>UI Improvements</t>
+    <t>Bug - Invalid teams can still play</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Polishing/Adding sound effects</t>
+  </si>
+  <si>
+    <t>Polish word bank</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1353,7 @@
                   <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1406,7 +1439,7 @@
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1492,7 +1525,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1575,10 +1608,10 @@
                   <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1664,7 +1697,7 @@
                   <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1750,7 +1783,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1833,10 +1866,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.55</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1922,7 +1955,7 @@
                   <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>5.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2005,10 +2038,10 @@
                   <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1499999999999995</c:v>
+                  <c:v>9.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2096,7 +2129,7 @@
                   <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2737,13 +2770,13 @@
                   <c:v>559.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>491.98999999999995</c:v>
+                  <c:v>481.78999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>482.84</c:v>
+                  <c:v>434.41999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>482.84</c:v>
+                  <c:v>434.41999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,7 +3991,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A799882-C011-443F-BBA4-4F4C207196D0}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
@@ -6425,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6698,8 +6731,8 @@
         <v>8.68</v>
       </c>
       <c r="K2" s="3">
-        <f>'Week (7)'!$H$10</f>
-        <v>2.8</v>
+        <f>'Week (7)'!$H$11</f>
+        <v>8.6199999999999992</v>
       </c>
       <c r="L2" s="3">
         <f>'Week (8)'!$H$10</f>
@@ -6707,7 +6740,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>78.010000000000005</v>
+        <v>83.830000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6741,8 +6774,8 @@
         <v>7.1</v>
       </c>
       <c r="K3" s="3">
-        <f>'Week (7)'!$H$19</f>
-        <v>0.8</v>
+        <f>'Week (7)'!$H$21</f>
+        <v>6.85</v>
       </c>
       <c r="L3" s="3">
         <f>'Week (8)'!$H$19</f>
@@ -6750,7 +6783,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>73.199999999999989</v>
+        <v>79.249999999999986</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6788,8 +6821,8 @@
         <v>9.5</v>
       </c>
       <c r="K4" s="3">
-        <f>'Week (7)'!$H$28</f>
-        <v>0.3</v>
+        <f>'Week (7)'!$H$30</f>
+        <v>4.8</v>
       </c>
       <c r="L4" s="3">
         <f>'Week (8)'!$H$28</f>
@@ -6797,7 +6830,7 @@
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>48.849999999999994</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -6828,11 +6861,11 @@
       </c>
       <c r="J5" s="3">
         <f>'Week (6)'!$H$51</f>
-        <v>6.25</v>
+        <v>8.25</v>
       </c>
       <c r="K5" s="3">
-        <f>'Week (7)'!$H$37</f>
-        <v>0.3</v>
+        <f>'Week (7)'!$H$39</f>
+        <v>4.05</v>
       </c>
       <c r="L5" s="3">
         <f>'Week (8)'!$H$37</f>
@@ -6840,7 +6873,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>49.05</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6874,8 +6907,8 @@
         <v>8.75</v>
       </c>
       <c r="K6" s="3">
-        <f>'Week (7)'!$H$46</f>
-        <v>2.5499999999999998</v>
+        <f>'Week (7)'!$H$48</f>
+        <v>3.8</v>
       </c>
       <c r="L6" s="3">
         <f>'Week (8)'!$H$46</f>
@@ -6883,7 +6916,7 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6" si="1">SUM(E6:L6)</f>
-        <v>62.8</v>
+        <v>64.05</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,8 +6950,8 @@
         <v>7.5</v>
       </c>
       <c r="K7" s="3">
-        <f>'Week (7)'!$H$55</f>
-        <v>1.3</v>
+        <f>'Week (7)'!$H$57</f>
+        <v>6.35</v>
       </c>
       <c r="L7" s="3">
         <f>'Week (8)'!$H$55</f>
@@ -6926,7 +6959,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M15" si="2">SUM(E7:L7)</f>
-        <v>25.6</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6956,12 +6989,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>'Week (6)'!$H$86</f>
-        <v>1.55</v>
+        <f>'Week (6)'!$H$88</f>
+        <v>7.25</v>
       </c>
       <c r="K8" s="3">
-        <f>'Week (7)'!$H$64</f>
-        <v>0</v>
+        <f>'Week (7)'!$H$66</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L8" s="3">
         <f>'Week (8)'!$H$64</f>
@@ -6969,7 +7002,7 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6999,12 +7032,12 @@
         <v>13.7</v>
       </c>
       <c r="J9" s="3">
-        <f>'Week (6)'!$H$95</f>
+        <f>'Week (6)'!$H$97</f>
         <v>3.25</v>
       </c>
       <c r="K9" s="3">
-        <f>'Week (7)'!$H$73</f>
-        <v>0.8</v>
+        <f>'Week (7)'!$H$75</f>
+        <v>5.55</v>
       </c>
       <c r="L9" s="3">
         <f>'Week (8)'!$H$73</f>
@@ -7012,7 +7045,7 @@
       </c>
       <c r="M9" s="4">
         <f t="shared" si="2"/>
-        <v>53.149999999999991</v>
+        <v>57.899999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7042,12 +7075,12 @@
         <v>11.2</v>
       </c>
       <c r="J10" s="3">
-        <f>'Week (6)'!$H$105</f>
-        <v>7.1499999999999995</v>
+        <f>'Week (6)'!$H$107</f>
+        <v>9.6499999999999986</v>
       </c>
       <c r="K10" s="3">
-        <f>'Week (7)'!$H$82</f>
-        <v>0.3</v>
+        <f>'Week (7)'!$H$84</f>
+        <v>4.55</v>
       </c>
       <c r="L10" s="3">
         <f>'Week (8)'!$H$82</f>
@@ -7055,7 +7088,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="2"/>
-        <v>55.749999999999993</v>
+        <v>62.499999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7085,12 +7118,12 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J11" s="3">
-        <f>'Week (6)'!$H$113</f>
+        <f>'Week (6)'!$H$115</f>
         <v>1.55</v>
       </c>
       <c r="K11" s="3">
-        <f>'Week (7)'!$H$91</f>
-        <v>0</v>
+        <f>'Week (7)'!$H$93</f>
+        <v>0.75</v>
       </c>
       <c r="L11" s="3">
         <f>'Week (8)'!$H$91</f>
@@ -7098,7 +7131,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,11 +7161,11 @@
         <v>12.7</v>
       </c>
       <c r="J12" s="3">
-        <f>'Week (6)'!$H$122</f>
+        <f>'Week (6)'!$H$124</f>
         <v>6.55</v>
       </c>
       <c r="K12" s="3">
-        <f>'Week (7)'!$H$100</f>
+        <f>'Week (7)'!$H$102</f>
         <v>0</v>
       </c>
       <c r="L12" s="3">
@@ -7169,11 +7202,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>'Week (6)'!$H$131</f>
+        <f>'Week (6)'!$H$133</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>'Week (7)'!$H$109</f>
+        <f>'Week (7)'!$H$111</f>
         <v>0</v>
       </c>
       <c r="L13" s="3">
@@ -7210,11 +7243,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>'Week (6)'!$H$140</f>
+        <f>'Week (6)'!$H$142</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f>'Week (7)'!$H$118</f>
+        <f>'Week (7)'!$H$120</f>
         <v>0</v>
       </c>
       <c r="L14" s="3">
@@ -7251,11 +7284,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>'Week (6)'!$H$149</f>
+        <f>'Week (6)'!$H$151</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>'Week (7)'!$H$127</f>
+        <f>'Week (7)'!$H$129</f>
         <v>0</v>
       </c>
       <c r="L15" s="3">
@@ -7295,11 +7328,11 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" si="3"/>
-        <v>67.83</v>
+        <v>78.03</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
-        <v>9.15</v>
+        <v>47.36999999999999</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="3"/>
@@ -7330,7 +7363,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20">
         <f>SUM(J16:L16)</f>
-        <v>76.98</v>
+        <v>125.39999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7361,15 +7394,15 @@
       </c>
       <c r="J18" s="18">
         <f t="shared" si="4"/>
-        <v>491.98999999999995</v>
+        <v>481.78999999999996</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="4"/>
-        <v>482.84</v>
+        <v>434.41999999999996</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="4"/>
-        <v>482.84</v>
+        <v>434.41999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15557,7 +15590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -18575,8 +18608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21207,10 +21240,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22336,7 +22369,7 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -22344,7 +22377,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -22373,14 +22406,14 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -22411,11 +22444,11 @@
       </c>
       <c r="C51" s="11">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D51" s="11">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="9"/>
@@ -22431,7 +22464,7 @@
       </c>
       <c r="H51" s="36">
         <f>SUM(B51:G51)</f>
-        <v>6.25</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -22957,7 +22990,9 @@
       <c r="A80" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="10">
+        <v>0.2</v>
+      </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -22965,14 +23000,16 @@
       <c r="G80" s="10"/>
       <c r="H80" s="6">
         <f>SUM(B80:G80)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -22980,14 +23017,16 @@
       <c r="G81" s="10"/>
       <c r="H81" s="6">
         <f t="shared" ref="H81:H83" si="18">SUM(B81:G81)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="10">
+        <v>1</v>
+      </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -22997,7 +23036,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="6">
         <f t="shared" si="18"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -23033,148 +23072,142 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="44" t="s">
-        <v>191</v>
+      <c r="A85" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+      <c r="D85" s="10">
+        <v>1</v>
+      </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="10">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10">
         <v>0.3</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="6">
-        <f>SUM(B85:G85)</f>
+      <c r="G87" s="10"/>
+      <c r="H87" s="6">
+        <f>SUM(B87:G87)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="str">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B86" s="11">
-        <f t="shared" ref="B86:G86" si="19">SUM(B80:B85)</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="11">
+      <c r="B88" s="11">
+        <f t="shared" ref="B88:G88" si="19">SUM(B80:B87)</f>
+        <v>1.7</v>
+      </c>
+      <c r="C88" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
+        <v>3</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F86" s="11">
-        <f>SUM(F80:F85)</f>
+      <c r="F88" s="11">
+        <f>SUM(F80:F87)</f>
         <v>1.55</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G88" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H86" s="11">
-        <f>SUM(B86:G86)</f>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="str">
+      <c r="H88" s="11">
+        <f>SUM(B88:G88)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B88" s="49" t="str">
+      <c r="B90" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="51"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="str">
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="51"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B89" s="8" t="str">
+      <c r="B91" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C89" s="8" t="str">
-        <f t="shared" ref="C89:H89" si="20">C$4</f>
+      <c r="C91" s="8" t="str">
+        <f t="shared" ref="C91:H91" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D89" s="8" t="str">
+      <c r="D91" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E89" s="8" t="str">
+      <c r="E91" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F89" s="8" t="str">
+      <c r="F91" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G89" s="8" t="str">
+      <c r="G91" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H89" s="8" t="str">
+      <c r="H91" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="6">
-        <f>SUM(B90:G90)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="6">
-        <f t="shared" ref="H91:H94" si="21">SUM(B91:G91)</f>
-        <v>1.25</v>
-      </c>
-    </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -23182,663 +23215,673 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="6">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
+        <f>SUM(B92:G92)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="B93" s="10">
+        <v>1</v>
+      </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="6">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" ref="H93:H96" si="21">SUM(B93:G93)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="B94" s="10">
+        <v>0.5</v>
+      </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="6">
         <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10">
+        <v>1</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="str">
+      <c r="G96" s="10"/>
+      <c r="H96" s="6">
+        <f t="shared" si="21"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B95" s="11">
-        <f t="shared" ref="B95:G95" si="22">SUM(B90:B94)</f>
+      <c r="B97" s="11">
+        <f t="shared" ref="B97:G97" si="22">SUM(B92:B96)</f>
         <v>1.7</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C97" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D97" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E97" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F97" s="11">
         <f t="shared" si="22"/>
         <v>1.55</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G97" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H95" s="11">
-        <f>SUM(B95:G95)</f>
+      <c r="H97" s="11">
+        <f>SUM(B97:G97)</f>
         <v>3.25</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="str">
+    <row r="99" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B97" s="49" t="str">
+      <c r="B99" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="51"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="str">
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="51"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B98" s="8" t="str">
+      <c r="B100" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C98" s="8" t="str">
-        <f t="shared" ref="C98:H98" si="23">C$4</f>
+      <c r="C100" s="8" t="str">
+        <f t="shared" ref="C100:H100" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D98" s="8" t="str">
+      <c r="D100" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E98" s="8" t="str">
+      <c r="E100" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F98" s="8" t="str">
+      <c r="F100" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G98" s="8" t="str">
+      <c r="G100" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H98" s="8" t="str">
+      <c r="H100" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="6">
-        <f>SUM(B99:G99)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="6">
-        <f t="shared" ref="H100:H102" si="24">SUM(B100:G100)</f>
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="B101" s="10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
-      <c r="F101" s="10">
-        <v>0.25</v>
-      </c>
+      <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="6">
-        <f t="shared" si="24"/>
-        <v>1.25</v>
+        <f>SUM(B101:G101)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
-        <v>195</v>
+      <c r="A102" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="B102" s="10">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="6">
-        <f t="shared" si="24"/>
-        <v>0.95</v>
+        <f t="shared" ref="H102:H104" si="24">SUM(B102:G102)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B103" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="B103" s="10">
+        <v>1</v>
+      </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="6">
-        <f>SUM(B103:G103)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B104" s="10"/>
+        <v>197</v>
+      </c>
+      <c r="B104" s="10">
+        <v>0.65</v>
+      </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="10">
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="6">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="6">
+        <f>SUM(B105:G105)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10">
         <v>2.5</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6">
-        <f>SUM(B104:G104)</f>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="43" t="str">
+      <c r="H106" s="6">
+        <f>SUM(B106:G106)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="43" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B105" s="11">
-        <f t="shared" ref="B105:G105" si="25">SUM(B99:B104)</f>
+      <c r="B107" s="11">
+        <f t="shared" ref="B107:G107" si="25">SUM(B101:B106)</f>
         <v>2.1</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C107" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D107" s="11">
         <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E107" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F107" s="11">
         <f t="shared" si="25"/>
         <v>1.55</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G107" s="11">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="H105" s="11">
-        <f>SUM(B105:G105)</f>
-        <v>7.1499999999999995</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="H107" s="11">
+        <f>SUM(B107:G107)</f>
+        <v>9.6499999999999986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B107" s="49" t="str">
+      <c r="B109" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="51"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="str">
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="51"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B108" s="8" t="str">
+      <c r="B110" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C108" s="8" t="str">
-        <f t="shared" ref="C108:H108" si="26">C$4</f>
+      <c r="C110" s="8" t="str">
+        <f t="shared" ref="C110:H110" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D108" s="8" t="str">
+      <c r="D110" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E108" s="8" t="str">
+      <c r="E110" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F108" s="8" t="str">
+      <c r="F110" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G108" s="8" t="str">
+      <c r="G110" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H108" s="8" t="str">
+      <c r="H110" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10">
-        <v>1</v>
-      </c>
-      <c r="G109" s="10"/>
-      <c r="H109" s="6">
-        <f>SUM(B109:G109)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G110" s="10"/>
-      <c r="H110" s="6">
-        <f t="shared" ref="H110:H112" si="27">SUM(B110:G110)</f>
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="6">
-        <f t="shared" si="27"/>
-        <v>0.3</v>
+        <f>SUM(B111:G111)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
+      <c r="A112" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="F112" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G112" s="10"/>
       <c r="H112" s="6">
+        <f t="shared" ref="H112:H114" si="27">SUM(B112:G112)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="str">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B113" s="11">
-        <f t="shared" ref="B113:G113" si="28">SUM(B109:B112)</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="11">
+      <c r="B115" s="11">
+        <f t="shared" ref="B115:G115" si="28">SUM(B111:B114)</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D115" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E115" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F115" s="11">
         <f t="shared" si="28"/>
         <v>1.55</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G115" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H113" s="11">
-        <f>SUM(B113:G113)</f>
+      <c r="H115" s="11">
+        <f>SUM(B115:G115)</f>
         <v>1.55</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="str">
+    <row r="117" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B115" s="49" t="str">
+      <c r="B117" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="51"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="str">
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="51"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B116" s="8" t="str">
+      <c r="B118" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C116" s="8" t="str">
-        <f t="shared" ref="C116:H116" si="29">C$4</f>
+      <c r="C118" s="8" t="str">
+        <f t="shared" ref="C118:H118" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D116" s="8" t="str">
+      <c r="D118" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E116" s="8" t="str">
+      <c r="E118" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F116" s="8" t="str">
+      <c r="F118" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G116" s="8" t="str">
+      <c r="G118" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H116" s="8" t="str">
+      <c r="H118" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10">
-        <v>5</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="6">
-        <f>SUM(B117:G117)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10">
-        <v>1</v>
-      </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="6">
-        <f t="shared" ref="H118:H121" si="30">SUM(B118:G118)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10">
-        <v>0.25</v>
-      </c>
+      <c r="E119" s="10">
+        <v>5</v>
+      </c>
+      <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="6">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
+        <f>SUM(B119:G119)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="6">
-        <f t="shared" si="30"/>
-        <v>0.3</v>
+        <f t="shared" ref="H120:H123" si="30">SUM(B120:G120)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
+      <c r="A121" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
+      <c r="F121" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G121" s="10"/>
       <c r="H121" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="21" t="str">
+      <c r="A122" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="6">
+        <f t="shared" si="30"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B122" s="11">
-        <f t="shared" ref="B122:G122" si="31">SUM(B117:B121)</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="11">
+      <c r="B124" s="11">
+        <f t="shared" ref="B124:G124" si="31">SUM(B119:B123)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D124" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E124" s="11">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F124" s="11">
         <f t="shared" si="31"/>
         <v>1.55</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G124" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H122" s="11">
-        <f>SUM(B122:G122)</f>
+      <c r="H124" s="11">
+        <f>SUM(B124:G124)</f>
         <v>6.55</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
+    <row r="126" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B124" s="49" t="str">
+      <c r="B126" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="51"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="str">
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="51"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B125" s="8" t="str">
+      <c r="B127" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C125" s="8" t="str">
-        <f t="shared" ref="C125:H125" si="32">C$4</f>
+      <c r="C127" s="8" t="str">
+        <f t="shared" ref="C127:H127" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D125" s="8" t="str">
+      <c r="D127" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E125" s="8" t="str">
+      <c r="E127" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F125" s="8" t="str">
+      <c r="F127" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G125" s="8" t="str">
+      <c r="G127" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H125" s="8" t="str">
+      <c r="H127" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="6">
-        <f>SUM(B126:G126)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="6">
-        <f t="shared" ref="H127:H130" si="33">SUM(B127:G127)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -23846,7 +23889,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="6">
-        <f t="shared" si="33"/>
+        <f>SUM(B128:G128)</f>
         <v>0</v>
       </c>
     </row>
@@ -23859,7 +23902,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H129:H132" si="33">SUM(B129:G129)</f>
         <v>0</v>
       </c>
     </row>
@@ -23877,119 +23920,119 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="21" t="str">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B131" s="11">
-        <f t="shared" ref="B131:G131" si="34">SUM(B126:B130)</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="11">
+      <c r="B133" s="11">
+        <f t="shared" ref="B133:G133" si="34">SUM(B128:B132)</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D133" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E133" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F133" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G133" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H131" s="11">
-        <f>SUM(B131:G131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="12">
+      <c r="H133" s="11">
+        <f>SUM(B133:G133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B133" s="49" t="str">
+      <c r="B135" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="51"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="str">
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="51"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B134" s="8" t="str">
+      <c r="B136" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C134" s="8" t="str">
-        <f t="shared" ref="C134:H134" si="35">C$4</f>
+      <c r="C136" s="8" t="str">
+        <f t="shared" ref="C136:H136" si="35">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D134" s="8" t="str">
+      <c r="D136" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Wo</v>
       </c>
-      <c r="E134" s="8" t="str">
+      <c r="E136" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Do</v>
       </c>
-      <c r="F134" s="8" t="str">
+      <c r="F136" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Vr</v>
       </c>
-      <c r="G134" s="8" t="str">
+      <c r="G136" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H134" s="8" t="str">
+      <c r="H136" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="6">
-        <f>SUM(B135:G135)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="6">
-        <f t="shared" ref="H136:H139" si="36">SUM(B136:G136)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -23997,7 +24040,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="6">
-        <f t="shared" si="36"/>
+        <f>SUM(B137:G137)</f>
         <v>0</v>
       </c>
     </row>
@@ -24010,7 +24053,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H138:H141" si="36">SUM(B138:G138)</f>
         <v>0</v>
       </c>
     </row>
@@ -24028,119 +24071,119 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="21" t="str">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B140" s="11">
-        <f t="shared" ref="B140:G140" si="37">SUM(B135:B139)</f>
-        <v>0</v>
-      </c>
-      <c r="C140" s="11">
+      <c r="B142" s="11">
+        <f t="shared" ref="B142:G142" si="37">SUM(B137:B141)</f>
+        <v>0</v>
+      </c>
+      <c r="C142" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D142" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E142" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F142" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G142" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H140" s="11">
-        <f>SUM(B140:G140)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="12">
+      <c r="H142" s="11">
+        <f>SUM(B142:G142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A144" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B142" s="49" t="str">
+      <c r="B144" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="51"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="str">
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="51"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B143" s="8" t="str">
+      <c r="B145" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C143" s="8" t="str">
-        <f t="shared" ref="C143:H143" si="38">C$4</f>
+      <c r="C145" s="8" t="str">
+        <f t="shared" ref="C145:H145" si="38">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D143" s="8" t="str">
+      <c r="D145" s="8" t="str">
         <f t="shared" si="38"/>
         <v>Wo</v>
       </c>
-      <c r="E143" s="8" t="str">
+      <c r="E145" s="8" t="str">
         <f t="shared" si="38"/>
         <v>Do</v>
       </c>
-      <c r="F143" s="8" t="str">
+      <c r="F145" s="8" t="str">
         <f t="shared" si="38"/>
         <v>Vr</v>
       </c>
-      <c r="G143" s="8" t="str">
+      <c r="G145" s="8" t="str">
         <f t="shared" si="38"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H143" s="8" t="str">
+      <c r="H145" s="8" t="str">
         <f t="shared" si="38"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="6">
-        <f>SUM(B144:G144)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="6">
-        <f t="shared" ref="H145:H148" si="39">SUM(B145:G145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -24148,7 +24191,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="6">
-        <f t="shared" si="39"/>
+        <f>SUM(B146:G146)</f>
         <v>0</v>
       </c>
     </row>
@@ -24161,7 +24204,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="H147:H150" si="39">SUM(B147:G147)</f>
         <v>0</v>
       </c>
     </row>
@@ -24179,36 +24222,62 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="21" t="str">
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="21" t="str">
         <f>$A$14</f>
         <v>Totaal</v>
       </c>
-      <c r="B149" s="11">
-        <f t="shared" ref="B149:G149" si="40">SUM(B144:B148)</f>
-        <v>0</v>
-      </c>
-      <c r="C149" s="11">
+      <c r="B151" s="11">
+        <f t="shared" ref="B151:G151" si="40">SUM(B146:B150)</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D151" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E151" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F151" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G151" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="H149" s="11">
-        <f>SUM(B149:G149)</f>
+      <c r="H151" s="11">
+        <f>SUM(B151:G151)</f>
         <v>0</v>
       </c>
     </row>
@@ -24222,13 +24291,13 @@
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B144:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24237,10 +24306,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24579,11 +24648,13 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -24593,16 +24664,18 @@
       <c r="B6" s="10">
         <v>0.5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>201</v>
+      <c r="C6" s="10">
+        <v>0.16</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10">
+        <v>0.16</v>
+      </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0.5</v>
+        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -24623,1393 +24696,1495 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10">
+        <v>0.75</v>
+      </c>
       <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
+      <c r="B11" s="11">
+        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
         <v>2.8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+        <v>4.16</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(B10:G10)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="str">
+        <v>0.91</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(B11:G11)</f>
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="str">
         <f>Totaal!D3</f>
         <v>Peter Pinter</v>
       </c>
-      <c r="B12" s="49" t="str">
+      <c r="B13" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B14" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C14" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D14" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E14" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G14" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H14" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B15" s="10">
         <v>0.3</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6">
-        <f>SUM(B14:G14)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.5</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
+        <f>SUM(B15:G15)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="H16:H20" si="2">SUM(B16:G16)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>1.3</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <f>SUM(B19:G19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
+      <c r="B21" s="11">
+        <f t="shared" ref="B21:G21" si="3">SUM(B15:B20)</f>
         <v>0.8</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(B21:G21)</f>
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="str">
         <f>Totaal!D4</f>
         <v>Vincenzo Savarese</v>
       </c>
-      <c r="B21" s="49" t="str">
+      <c r="B23" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B24" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C24" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D24" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E24" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F24" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G24" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H24" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B25" s="10">
         <v>0.3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6">
-        <f>SUM(B23:G23)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="6">
-        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(B25:G25)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="H26:H29" si="4">SUM(B26:G26)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B28" s="11">
-        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:G30" si="5">SUM(B25:B29)</f>
         <v>0.3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C30" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D30" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="11">
-        <f>SUM(B28:G28)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
+      <c r="H30" s="11">
+        <f>SUM(B30:G30)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="str">
         <f>Totaal!D5</f>
         <v>Mira Ilieva</v>
       </c>
-      <c r="B30" s="49" t="str">
+      <c r="B32" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B33" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C33" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D33" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E33" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F33" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G33" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H33" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B34" s="10">
         <v>0.3</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6">
-        <f>SUM(B32:G32)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="6">
-        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(B34:G34)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1.5</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="H35:H38" si="6">SUM(B35:G35)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="str">
         <f>'Week (1)'!$A$12</f>
         <v>Totaal</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
+      <c r="B39" s="11">
+        <f t="shared" ref="B39:G39" si="7">SUM(B34:B38)</f>
         <v>0.3</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E39" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="G39" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <f>SUM(B37:G37)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="str">
+      <c r="H39" s="11">
+        <f>SUM(B39:G39)</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="str">
         <f>Totaal!D6</f>
         <v>Craig Chauraya</v>
       </c>
-      <c r="B39" s="49" t="str">
+      <c r="B41" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B42" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C40" s="8" t="str">
-        <f t="shared" ref="C40:H40" si="8">C$4</f>
+      <c r="C42" s="8" t="str">
+        <f t="shared" ref="C42:H42" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D40" s="8" t="str">
+      <c r="D42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H42" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B43" s="10">
         <v>0.3</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6">
-        <f>SUM(B41:G41)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="10">
-        <v>2.25</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(B43:G43)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2.75</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="H44:H47" si="9">SUM(B44:G44)</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B48" s="11">
+        <f t="shared" ref="B48:G48" si="10">SUM(B43:B47)</f>
+        <v>3.05</v>
+      </c>
+      <c r="C48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D48" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F48" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <f>SUM(B46:G46)</f>
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="str">
+      <c r="H48" s="11">
+        <f>SUM(B48:G48)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="str">
         <f>Totaal!D7</f>
         <v>Ana Kareco</v>
       </c>
-      <c r="B48" s="49" t="str">
+      <c r="B50" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="str">
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B51" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C49" s="8" t="str">
-        <f t="shared" ref="C49:H49" si="11">C$4</f>
+      <c r="C51" s="8" t="str">
+        <f t="shared" ref="C51:H51" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D49" s="8" t="str">
+      <c r="D51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E49" s="8" t="str">
+      <c r="E51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G49" s="8" t="str">
+      <c r="G51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H49" s="8" t="str">
+      <c r="H51" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B52" s="10">
         <v>0.3</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="6">
-        <f>SUM(B50:G50)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="6">
-        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="F52" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(B52:G52)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>3</v>
+      </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.3</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="H53:H56" si="12">SUM(B53:G53)</f>
+        <v>5.3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B55" s="11">
-        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:G57" si="13">SUM(B52:B56)</f>
         <v>1.3</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="11">
+        <v>3</v>
+      </c>
+      <c r="D57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G57" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <f>SUM(B55:G55)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="str">
+      <c r="H57" s="11">
+        <f>SUM(B57:G57)</f>
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="str">
         <f>Totaal!D8</f>
         <v>Vedat Daglar</v>
       </c>
-      <c r="B57" s="49" t="str">
+      <c r="B59" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="51"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="str">
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B60" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58:H58" si="14">C$4</f>
+      <c r="C60" s="8" t="str">
+        <f t="shared" ref="C60:H60" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D58" s="8" t="str">
+      <c r="D60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H60" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="6">
-        <f>SUM(B59:G59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="6">
-        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="F61" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>SUM(B61:G61)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
+      <c r="A62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="H62:H65" si="15">SUM(B62:G62)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B64" s="11">
-        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:G66" si="16">SUM(B61:B65)</f>
+        <v>1.3</v>
+      </c>
+      <c r="C66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F66" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G66" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="11">
-        <f>SUM(B64:G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="str">
+      <c r="H66" s="11">
+        <f>SUM(B66:G66)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="str">
         <f>Totaal!D9</f>
         <v>Melissa Neamt</v>
       </c>
-      <c r="B66" s="49" t="str">
+      <c r="B68" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="51"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="str">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B69" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:H67" si="17">C$4</f>
+      <c r="C69" s="8" t="str">
+        <f t="shared" ref="C69:H69" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D67" s="8" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F67" s="8" t="str">
+      <c r="F69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G67" s="8" t="str">
+      <c r="G69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B70" s="10">
         <v>0.3</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="6">
-        <f>SUM(B68:G68)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>SUM(B70:G70)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="A71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="H71:H74" si="18">SUM(B71:G71)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10">
+        <v>2</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A73" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="6">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:G75" si="19">SUM(B70:B74)</f>
         <v>0.8</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
+        <v>2</v>
+      </c>
+      <c r="D75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F75" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G75" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="11">
-        <f>SUM(B73:G73)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="str">
+      <c r="H75" s="11">
+        <f>SUM(B75:G75)</f>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="str">
         <f>Totaal!D10</f>
         <v>Lukman Al-Busaidi</v>
       </c>
-      <c r="B75" s="49" t="str">
+      <c r="B77" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="51"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="str">
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B78" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f t="shared" ref="C76:H76" si="20">C$4</f>
+      <c r="C78" s="8" t="str">
+        <f t="shared" ref="C78:H78" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D76" s="8" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E76" s="8" t="str">
+      <c r="E78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F76" s="8" t="str">
+      <c r="F78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G76" s="8" t="str">
+      <c r="G78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H76" s="8" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B79" s="10">
         <v>0.3</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6">
-        <f>SUM(B77:G77)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="6">
-        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="F79" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>SUM(B79:G79)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="10">
+        <v>1</v>
+      </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="H80:H83" si="21">SUM(B80:G80)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="D81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
+        <v>2</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B82" s="11">
-        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0.3</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="B84" s="11">
+        <f t="shared" ref="B84:G84" si="22">SUM(B79:B83)</f>
+        <v>1.3</v>
+      </c>
+      <c r="C84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
+        <v>2</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G84" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <f>SUM(B82:G82)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="str">
+      <c r="H84" s="11">
+        <f>SUM(B84:G84)</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="str">
         <f>Totaal!D11</f>
         <v>Daria Grigoruk</v>
       </c>
-      <c r="B84" s="49" t="str">
+      <c r="B86" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="51"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="str">
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B87" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" ref="C85:H85" si="23">C$4</f>
+      <c r="C87" s="8" t="str">
+        <f t="shared" ref="C87:H87" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D85" s="8" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F85" s="8" t="str">
+      <c r="F87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G85" s="8" t="str">
+      <c r="G87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H85" s="8" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="6">
-        <f>SUM(B86:G86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="6">
-        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -26017,150 +26192,158 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="24"/>
+        <f>SUM(B88:G88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
+      <c r="A89" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="D89" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="H89:H92" si="24">SUM(B89:G89)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
+      <c r="A90" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
+      <c r="F90" s="10">
+        <v>0.25</v>
+      </c>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B91" s="11">
-        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="B93" s="11">
+        <f t="shared" ref="B93:G93" si="25">SUM(B88:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F93" s="11">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="11">
-        <f>SUM(B91:G91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="str">
+      <c r="H93" s="11">
+        <f>SUM(B93:G93)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="str">
         <f>Totaal!D12</f>
         <v>Marko Špišic</v>
       </c>
-      <c r="B93" s="49" t="str">
+      <c r="B95" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="51"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="str">
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="51"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B96" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C94" s="8" t="str">
-        <f t="shared" ref="C94:H94" si="26">C$4</f>
+      <c r="C96" s="8" t="str">
+        <f t="shared" ref="C96:H96" si="26">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
-      <c r="E94" s="8" t="str">
+      <c r="E96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Do</v>
       </c>
-      <c r="F94" s="8" t="str">
+      <c r="F96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
-      <c r="G94" s="8" t="str">
+      <c r="G96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H94" s="8" t="str">
+      <c r="H96" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="6">
-        <f>SUM(B95:G95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="6">
-        <f t="shared" ref="H96:H99" si="27">SUM(B96:G96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -26168,7 +26351,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="6">
-        <f t="shared" si="27"/>
+        <f>SUM(B97:G97)</f>
         <v>0</v>
       </c>
     </row>
@@ -26181,7 +26364,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H98:H101" si="27">SUM(B98:G98)</f>
         <v>0</v>
       </c>
     </row>
@@ -26199,119 +26382,119 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B100" s="11">
-        <f t="shared" ref="B100:G100" si="28">SUM(B95:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="11">
+      <c r="B102" s="11">
+        <f t="shared" ref="B102:G102" si="28">SUM(B97:B101)</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G102" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H100" s="11">
-        <f>SUM(B100:G100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
+      <c r="H102" s="11">
+        <f>SUM(B102:G102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="12">
         <f>Totaal!D13</f>
         <v>0</v>
       </c>
-      <c r="B102" s="49" t="str">
+      <c r="B104" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="51"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="str">
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="51"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B103" s="8" t="str">
+      <c r="B105" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C103" s="8" t="str">
-        <f t="shared" ref="C103:H103" si="29">C$4</f>
+      <c r="C105" s="8" t="str">
+        <f t="shared" ref="C105:H105" si="29">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D103" s="8" t="str">
+      <c r="D105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Wo</v>
       </c>
-      <c r="E103" s="8" t="str">
+      <c r="E105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Do</v>
       </c>
-      <c r="F103" s="8" t="str">
+      <c r="F105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Vr</v>
       </c>
-      <c r="G103" s="8" t="str">
+      <c r="G105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H103" s="8" t="str">
+      <c r="H105" s="8" t="str">
         <f t="shared" si="29"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="6">
-        <f>SUM(B104:G104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="6">
-        <f t="shared" ref="H105:H108" si="30">SUM(B105:G105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -26319,7 +26502,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="6">
-        <f t="shared" si="30"/>
+        <f>SUM(B106:G106)</f>
         <v>0</v>
       </c>
     </row>
@@ -26332,7 +26515,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H107:H110" si="30">SUM(B107:G107)</f>
         <v>0</v>
       </c>
     </row>
@@ -26350,119 +26533,119 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B109" s="11">
-        <f t="shared" ref="B109:G109" si="31">SUM(B104:B108)</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="11">
+      <c r="B111" s="11">
+        <f t="shared" ref="B111:G111" si="31">SUM(B106:B110)</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G111" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H109" s="11">
-        <f>SUM(B109:G109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="12">
+      <c r="H111" s="11">
+        <f>SUM(B111:G111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
         <f>Totaal!D14</f>
         <v>0</v>
       </c>
-      <c r="B111" s="49" t="str">
+      <c r="B113" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="51"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="str">
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="51"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B112" s="8" t="str">
+      <c r="B114" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C112" s="8" t="str">
-        <f t="shared" ref="C112:H112" si="32">C$4</f>
+      <c r="C114" s="8" t="str">
+        <f t="shared" ref="C114:H114" si="32">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D112" s="8" t="str">
+      <c r="D114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Wo</v>
       </c>
-      <c r="E112" s="8" t="str">
+      <c r="E114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Do</v>
       </c>
-      <c r="F112" s="8" t="str">
+      <c r="F114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Vr</v>
       </c>
-      <c r="G112" s="8" t="str">
+      <c r="G114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H112" s="8" t="str">
+      <c r="H114" s="8" t="str">
         <f t="shared" si="32"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="6">
-        <f>SUM(B113:G113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="6">
-        <f t="shared" ref="H114:H117" si="33">SUM(B114:G114)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -26470,7 +26653,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="6">
-        <f t="shared" si="33"/>
+        <f>SUM(B115:G115)</f>
         <v>0</v>
       </c>
     </row>
@@ -26483,7 +26666,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H116:H119" si="33">SUM(B116:G116)</f>
         <v>0</v>
       </c>
     </row>
@@ -26501,119 +26684,119 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B118" s="11">
-        <f t="shared" ref="B118:G118" si="34">SUM(B113:B117)</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
+      <c r="B120" s="11">
+        <f t="shared" ref="B120:G120" si="34">SUM(B115:B119)</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G120" s="11">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="H118" s="11">
-        <f>SUM(B118:G118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="H120" s="11">
+        <f>SUM(B120:G120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="12">
         <f>Totaal!D15</f>
         <v>0</v>
       </c>
-      <c r="B120" s="49" t="str">
+      <c r="B122" s="49" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="51"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="str">
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="51"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="str">
         <f>$A$4</f>
         <v>Beschrijving activiteit/ user story</v>
       </c>
-      <c r="B121" s="8" t="str">
+      <c r="B123" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C121" s="8" t="str">
-        <f t="shared" ref="C121:H121" si="35">C$4</f>
+      <c r="C123" s="8" t="str">
+        <f t="shared" ref="C123:H123" si="35">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D121" s="8" t="str">
+      <c r="D123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Wo</v>
       </c>
-      <c r="E121" s="8" t="str">
+      <c r="E123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Do</v>
       </c>
-      <c r="F121" s="8" t="str">
+      <c r="F123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Vr</v>
       </c>
-      <c r="G121" s="8" t="str">
+      <c r="G123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H121" s="8" t="str">
+      <c r="H123" s="8" t="str">
         <f t="shared" si="35"/>
         <v>Totaal</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="6">
-        <f>SUM(B122:G122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="6">
-        <f t="shared" ref="H123:H126" si="36">SUM(B123:G123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -26621,7 +26804,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="6">
-        <f t="shared" si="36"/>
+        <f>SUM(B124:G124)</f>
         <v>0</v>
       </c>
     </row>
@@ -26634,7 +26817,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H125:H128" si="36">SUM(B125:G125)</f>
         <v>0</v>
       </c>
     </row>
@@ -26652,36 +26835,62 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="21" t="str">
-        <f>$A$10</f>
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="21" t="str">
+        <f>$A$11</f>
         <v>Totaal</v>
       </c>
-      <c r="B127" s="11">
-        <f t="shared" ref="B127:G127" si="37">SUM(B122:B126)</f>
-        <v>0</v>
-      </c>
-      <c r="C127" s="11">
+      <c r="B129" s="11">
+        <f t="shared" ref="B129:G129" si="37">SUM(B124:B128)</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G129" s="11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H127" s="11">
-        <f>SUM(B127:G127)</f>
+      <c r="H129" s="11">
+        <f>SUM(B129:G129)</f>
         <v>0</v>
       </c>
     </row>
@@ -26689,19 +26898,19 @@
   <mergeCells count="15">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B122:H122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26709,21 +26918,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EA2F89DD3BEC845B6024554B0FABDF6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4468d2ef933284f01b30a92a546dec5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78" xmlns:ns4="87dba05e-45c5-4db0-9a65-d117fc15f65a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68f6dca78ff19fb315d63369b50fac1" ns3:_="" ns4:_="">
     <xsd:import namespace="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
@@ -26934,32 +27134,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
+    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f1e1113b-9ad8-43e6-b072-4e7dd59a4f78"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87dba05e-45c5-4db0-9a65-d117fc15f65a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F9465-B5E9-4048-A852-B37AD87D445F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26976,4 +27177,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>